--- a/6_Best_Product/files/3_1_danawa_crawling_result.xlsx
+++ b/6_Best_Product/files/3_1_danawa_crawling_result.xlsx
@@ -14,1806 +14,1809 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="601">
   <si>
     <t>상품명</t>
   </si>
   <si>
-    <t>스펙 리스트</t>
+    <t>스펙 목록</t>
   </si>
   <si>
     <t>가격</t>
   </si>
   <si>
+    <t>샤오미 드리미 V10</t>
+  </si>
+  <si>
+    <t>원더스리빙 다이나킹 Z9</t>
+  </si>
+  <si>
+    <t>LG전자 코드제로 A9 A978</t>
+  </si>
+  <si>
+    <t>샤오미 SHUNZAO 차량용 무선청소기 2세대 Z1 PRO (해외구매)</t>
+  </si>
+  <si>
+    <t>델로라 V11 파워 300W</t>
+  </si>
+  <si>
     <t>샤오미 드리미 V9</t>
   </si>
   <si>
+    <t>카렉스 파워스톰 미니 무선청소기</t>
+  </si>
+  <si>
+    <t>삼성전자 제트 VS20R9078S2</t>
+  </si>
+  <si>
+    <t>다이슨 V11 220 에어와트 CF+</t>
+  </si>
+  <si>
+    <t>일렉트로룩스 ZB3302AK</t>
+  </si>
+  <si>
+    <t>LG전자 코드제로 A9 A938</t>
+  </si>
+  <si>
+    <t>다이슨 V10 카본파이버</t>
+  </si>
+  <si>
+    <t>LG전자 코드제로 A9 A958</t>
+  </si>
+  <si>
+    <t>샤오미 SHUNZAO 차량용 무선청소기 2세대 Z1 (해외구매)</t>
+  </si>
+  <si>
+    <t>휴스톰 HS-10000</t>
+  </si>
+  <si>
+    <t>삼성전자 제트 VS20R9043SA</t>
+  </si>
+  <si>
+    <t>다이슨 V10 플러피</t>
+  </si>
+  <si>
+    <t>DIBEA F20 맥스</t>
+  </si>
+  <si>
+    <t>LG전자 코드제로 A9 A951</t>
+  </si>
+  <si>
+    <t>다이슨 V10 앱솔루트 플러스</t>
+  </si>
+  <si>
+    <t>삼성전자 제트 VS20R9078S3</t>
+  </si>
+  <si>
+    <t>무궁화전자 바로바로 MC-B250</t>
+  </si>
+  <si>
+    <t>DIBEA M500 퀀텀</t>
+  </si>
+  <si>
+    <t>샤오미 WXCDJ01SWDK</t>
+  </si>
+  <si>
+    <t>LG전자 코드제로 A9 A947</t>
+  </si>
+  <si>
+    <t>LG전자 코드제로 A9 A948</t>
+  </si>
+  <si>
+    <t>다이슨 V7 플러피</t>
+  </si>
+  <si>
+    <t>일렉트로룩스 에르고라피도 파워프로 ZB3414AK</t>
+  </si>
+  <si>
+    <t>휴스톰 HS-9000</t>
+  </si>
+  <si>
+    <t>다이슨 V8 플러피</t>
+  </si>
+  <si>
+    <t>아이룸 D-10</t>
+  </si>
+  <si>
+    <t>DIBEA DW200</t>
+  </si>
+  <si>
+    <t>LG전자 코드제로 S86</t>
+  </si>
+  <si>
+    <t>니코 NKC-T75</t>
+  </si>
+  <si>
+    <t>다이슨 V11 플러피</t>
+  </si>
+  <si>
+    <t>DIBEA D18</t>
+  </si>
+  <si>
+    <t>삼성전자 뉴파워건 130</t>
+  </si>
+  <si>
+    <t>일렉트로룩스 퓨어 Q9 PQ91-3BW</t>
+  </si>
+  <si>
+    <t>일렉트로룩스 퓨어 Q9 PQ91-3EM</t>
+  </si>
+  <si>
+    <t>ABKO 오엘라 네오스핀 OBC-AW09WH</t>
+  </si>
+  <si>
+    <t>아이코넬 차량용 청소기 ICL-V01</t>
+  </si>
+  <si>
+    <t>일렉트로룩스 에르고라피도 프로 플러스 ZB3113AK</t>
+  </si>
+  <si>
+    <t>LG전자 코드제로 터보2.0 S87GMW</t>
+  </si>
+  <si>
+    <t>일렉트로룩스 퓨어 Q9 PQ91-2OG</t>
+  </si>
+  <si>
+    <t>델첸 퍼스널 무선 미니 차량용 핸디청소기 DC-C01</t>
+  </si>
+  <si>
+    <t>유행코리아 더쎈 유무선 청소기</t>
+  </si>
+  <si>
+    <t>샤오미 SWDK-D260</t>
+  </si>
+  <si>
+    <t>삼성전자 제트 VS19R1004BF</t>
+  </si>
+  <si>
+    <t>DIBEA M500 프로</t>
+  </si>
+  <si>
+    <t>샤오미 드리미 CC</t>
+  </si>
+  <si>
+    <t>일렉트로룩스 에르고라피도 ZB3104</t>
+  </si>
+  <si>
+    <t>샤오미 COCLEAN 차량용 무선 청소기</t>
+  </si>
+  <si>
+    <t>삼성전자 VC-PS86</t>
+  </si>
+  <si>
+    <t>일렉트로룩스 ZB6114</t>
+  </si>
+  <si>
+    <t>DIBEA F20 프로</t>
+  </si>
+  <si>
+    <t>일렉트로룩스 에르고라피도 플러스 ZB3105AK</t>
+  </si>
+  <si>
+    <t>DIBEA 에이스 맥스</t>
+  </si>
+  <si>
+    <t>삼성전자 제트 VS15R8543S1</t>
+  </si>
+  <si>
+    <t>LG전자 코드제로 A9 A968</t>
+  </si>
+  <si>
+    <t>다이슨 V11 컴플리트 엑스트라</t>
+  </si>
+  <si>
+    <t>샤오미 SWDK KC101</t>
+  </si>
+  <si>
+    <t>삼성전자 제트 VS15R8577S5</t>
+  </si>
+  <si>
+    <t>삼성전자 VC-H71</t>
+  </si>
+  <si>
+    <t>일렉트로룩스 에르고라피도 ZB3105</t>
+  </si>
+  <si>
+    <t>다이슨 V10 모터헤드</t>
+  </si>
+  <si>
+    <t>삼성전자 파워스틱 VS60M6010KG</t>
+  </si>
+  <si>
+    <t>보쉬 GAS18V-1</t>
+  </si>
+  <si>
+    <t>DIBEA NEW F7 플러스</t>
+  </si>
+  <si>
+    <t>지웰 벤투스 아쿠아 프로</t>
+  </si>
+  <si>
+    <t>삼성전자 VC-H22</t>
+  </si>
+  <si>
+    <t>보만 VC7211</t>
+  </si>
+  <si>
+    <t>휴스톰 HS-12000W</t>
+  </si>
+  <si>
+    <t>블랙앤데커 PV1820CEXT</t>
+  </si>
+  <si>
+    <t>한경희생활과학 아쿠아젯 AM-5600BM</t>
+  </si>
+  <si>
+    <t>DIBEA PDK-12000N</t>
+  </si>
+  <si>
+    <t>테팔 에어포스 360 TY9086</t>
+  </si>
+  <si>
+    <t>오토싱 OTOCINC-700B</t>
+  </si>
+  <si>
+    <t>아이룸 AST-009</t>
+  </si>
+  <si>
+    <t>LG전자 코드제로 S74R</t>
+  </si>
+  <si>
+    <t>경성오토비스 KAC-7100</t>
+  </si>
+  <si>
+    <t>보쉬 GAS10.8V-LI</t>
+  </si>
+  <si>
+    <t>다이슨 V8 앱솔루트</t>
+  </si>
+  <si>
+    <t>샤오미 로이드미 F8</t>
+  </si>
+  <si>
+    <t>DIBEA PDK-18000P</t>
+  </si>
+  <si>
+    <t>다이슨 V8 카본파이버</t>
+  </si>
+  <si>
+    <t>LG전자 코드제로 A9 A950</t>
+  </si>
+  <si>
+    <t>다이슨 V7 플러피 플러스</t>
+  </si>
+  <si>
+    <t>EUP VH806</t>
+  </si>
+  <si>
+    <t>일렉트로룩스 울트라파워 ZB5021</t>
+  </si>
+  <si>
+    <t>삼성전자 파워건 150</t>
+  </si>
+  <si>
+    <t>스윙 파워스윙 SWING 10000-BLDC</t>
+  </si>
+  <si>
+    <t>삼성전자 뉴파워건 150</t>
+  </si>
+  <si>
+    <t>JDL tech 타이푼 DV-889DC-X</t>
+  </si>
+  <si>
+    <t>LG전자 코드제로 A9 A960</t>
+  </si>
+  <si>
+    <t>경성오토비스 KAC-7000</t>
+  </si>
+  <si>
+    <t>롯데 L-277</t>
+  </si>
+  <si>
+    <t>삼성전자 제트 VS20R9074S3</t>
+  </si>
+  <si>
+    <t>DIBEA C17</t>
+  </si>
+  <si>
+    <t>일렉트로룩스 에르고라피도 ZB3111</t>
+  </si>
+  <si>
+    <t>오토싱 OTC-700BA</t>
+  </si>
+  <si>
+    <t>다이슨 V8 플러피 프로</t>
+  </si>
+  <si>
+    <t>LG전자 코드제로 A9 A930</t>
+  </si>
+  <si>
+    <t>다이슨 V8 플러피 헤파</t>
+  </si>
+  <si>
+    <t>다이슨 V8 앱솔루트 엑스트라</t>
+  </si>
+  <si>
+    <t>DIBEA V008 프로</t>
+  </si>
+  <si>
+    <t>경성오토비스 KAC-5500</t>
+  </si>
+  <si>
+    <t>다이슨 V8 앱솔루트 프로</t>
+  </si>
+  <si>
+    <t>LG전자 코드제로 A9 A940</t>
+  </si>
+  <si>
+    <t>일렉트로룩스 울트라파워 ZB5022</t>
+  </si>
+  <si>
+    <t>다이슨 V8 앱솔루트 플러스</t>
+  </si>
+  <si>
+    <t>다이슨 V6 코드프리 플러스</t>
+  </si>
+  <si>
+    <t>다이슨 V8 모터헤드 헤파</t>
+  </si>
+  <si>
+    <t>DIBEA C19B</t>
+  </si>
+  <si>
+    <t>툴앤툴 코드프리 P10</t>
+  </si>
+  <si>
+    <t>삼성전자 제트 VS20R9043QA</t>
+  </si>
+  <si>
+    <t>신일산업 SVC-DC2200SK</t>
+  </si>
+  <si>
+    <t>신일산업 SVC-C2025SJ</t>
+  </si>
+  <si>
+    <t>다이슨 V11 컴플리트</t>
+  </si>
+  <si>
+    <t>삼성전자 제트 VS15R8548S5</t>
+  </si>
+  <si>
+    <t>한경희생활과학 아쿠아젯 RC-3500</t>
+  </si>
+  <si>
+    <t>다이슨 V8 앱솔루트 헤파</t>
+  </si>
+  <si>
+    <t>로엘 듀스핀2</t>
+  </si>
+  <si>
+    <t>보쉬 GAS18V-LI</t>
+  </si>
+  <si>
+    <t>지웰 GWELL-1200</t>
+  </si>
+  <si>
+    <t>DIBEA P20 MAX</t>
+  </si>
+  <si>
+    <t>이나프 ILVH-1000</t>
+  </si>
+  <si>
+    <t>에이스전자 AVG-TS8400B</t>
+  </si>
+  <si>
+    <t>윈드피아 WHS-100V</t>
+  </si>
+  <si>
+    <t>일렉트로룩스 퓨어 Q9 PQ91-3OB</t>
+  </si>
+  <si>
+    <t>홍진테크 아토만 AT-VC2000</t>
+  </si>
+  <si>
+    <t>신일산업 SVC-S4800SJ</t>
+  </si>
+  <si>
+    <t>다이슨 V8 애니멀</t>
+  </si>
+  <si>
+    <t>일럭스고 SVC-1019L</t>
+  </si>
+  <si>
+    <t>리버티 LVC-1000</t>
+  </si>
+  <si>
+    <t>삼성전자 제트 VS20R9077Q3</t>
+  </si>
+  <si>
+    <t>다이슨 V10 플러피 엑스트라</t>
+  </si>
+  <si>
+    <t>휴스톰 HS-10000W</t>
+  </si>
+  <si>
+    <t>삼성전자 제트 VS20R9074S2</t>
+  </si>
+  <si>
+    <t>일렉트로룩스 퓨어 F9 PF91-6XRF</t>
+  </si>
+  <si>
+    <t>삼성전자 파워건 150 스타워즈 에디션</t>
+  </si>
+  <si>
+    <t>다이슨 V10 앱솔루트 엑스트라</t>
+  </si>
+  <si>
+    <t>일렉트로룩스 ZB3311</t>
+  </si>
+  <si>
+    <t>샤오미 CLEANFLY 차량용 무선 청소기 가정용 충전기 (해외구매)</t>
+  </si>
+  <si>
+    <t>다이슨 V10 카본파이버 프로</t>
+  </si>
+  <si>
+    <t>일렉트로룩스 에르고라피도 플러스 ZB3106AK</t>
+  </si>
+  <si>
+    <t>보쉬 GAS18V-10L</t>
+  </si>
+  <si>
+    <t>삼성전자 제트 VS20R9044SC</t>
+  </si>
+  <si>
+    <t>플러스마이너스제로 XJC-C030</t>
+  </si>
+  <si>
+    <t>DIBEA D20 맥스</t>
+  </si>
+  <si>
+    <t>샤오미 드리미 V9P</t>
+  </si>
+  <si>
+    <t>다이슨 V11 애니멀</t>
+  </si>
+  <si>
+    <t>모온 오비큠</t>
+  </si>
+  <si>
+    <t>캐치웰 코드엑스</t>
+  </si>
+  <si>
+    <t>샤오미 디어마 VC20S</t>
+  </si>
+  <si>
+    <t>다이슨 V10 애니멀</t>
+  </si>
+  <si>
+    <t>DIBEA X30</t>
+  </si>
+  <si>
+    <t>제로홈 S7</t>
+  </si>
+  <si>
+    <t>빌톤 BTS-J1400</t>
+  </si>
+  <si>
+    <t>샤오미 디어마 CM1900</t>
+  </si>
+  <si>
+    <t>일렉트로룩스 에르고라피도 파워프로 ZB3411</t>
+  </si>
+  <si>
+    <t>DIBEA NEW X10 플러스</t>
+  </si>
+  <si>
+    <t>일렉트로룩스 에르고라피도 파워프로 ZB3423BO</t>
+  </si>
+  <si>
+    <t>샤오미 미지아 1C SCWXCQ02ZHM</t>
+  </si>
+  <si>
+    <t>블랙앤데커 PV1820BK</t>
+  </si>
+  <si>
+    <t>일렉트로룩스 에르고라피도 파워프로 ZB3426BL</t>
+  </si>
+  <si>
+    <t>일렉트로룩스 ZB3301</t>
+  </si>
+  <si>
+    <t>휴스톰 HS-11000</t>
+  </si>
+  <si>
+    <t>유니맥스 UVC-1688</t>
+  </si>
+  <si>
+    <t>필립스 FC6152</t>
+  </si>
+  <si>
+    <t>아낙 ANA-1930</t>
+  </si>
+  <si>
     <t>샤오미 CLEANFLY 차량용 무선 청소기 (해외구매)</t>
   </si>
   <si>
-    <t>LG전자 코드제로 A9 A958</t>
-  </si>
-  <si>
-    <t>LG전자 코드제로 A9 A978</t>
-  </si>
-  <si>
-    <t>DIBEA F20 맥스</t>
-  </si>
-  <si>
-    <t>LG전자 코드제로 A9 A951</t>
-  </si>
-  <si>
-    <t>다이슨 V11 컴플리트</t>
-  </si>
-  <si>
-    <t>삼성전자 제트 VS20R9074S3</t>
-  </si>
-  <si>
-    <t>일렉트로룩스 ZB3302AK</t>
-  </si>
-  <si>
-    <t>다이슨 V10 카본파이버</t>
-  </si>
-  <si>
-    <t>삼성전자 제트 VS20R9078S3</t>
-  </si>
-  <si>
-    <t>샤오미 COCLEAN 차량용 무선 청소기</t>
-  </si>
-  <si>
-    <t>휴스톰 HS-9000</t>
-  </si>
-  <si>
-    <t>다이슨 V10 앱솔루트 플러스</t>
-  </si>
-  <si>
-    <t>DIBEA D18</t>
-  </si>
-  <si>
-    <t>다이슨 V11 컴플리트 엑스트라</t>
-  </si>
-  <si>
-    <t>삼성전자 제트 VS20R9078S2</t>
-  </si>
-  <si>
-    <t>DIBEA PDK-22000P</t>
-  </si>
-  <si>
-    <t>아이코넬 차량용 청소기 ICL-V01</t>
-  </si>
-  <si>
-    <t>LG전자 코드제로 A9 A938</t>
+    <t>대웅모닝컴 DWVC-DC1630WS</t>
+  </si>
+  <si>
+    <t>아이코넬 VC-K300W</t>
+  </si>
+  <si>
+    <t>DIBEA F20 울트라 맥스</t>
+  </si>
+  <si>
+    <t>테팔 에어포스 360 TY9037</t>
+  </si>
+  <si>
+    <t>보만 VC7210</t>
+  </si>
+  <si>
+    <t>듀플렉스 DP-485VC</t>
+  </si>
+  <si>
+    <t>LG전자 코드제로 T9</t>
+  </si>
+  <si>
+    <t>레이캅 RHC-500</t>
+  </si>
+  <si>
+    <t>일렉트로룩스 에르고라피도 ZB3323BO</t>
+  </si>
+  <si>
+    <t>다이슨 V10 앱솔루트</t>
+  </si>
+  <si>
+    <t>일렉트로룩스 퓨어 F9 PF91-6BWF</t>
+  </si>
+  <si>
+    <t>라이프썸 LFS-HA04</t>
+  </si>
+  <si>
+    <t>아이룸 RS1</t>
+  </si>
+  <si>
+    <t>샤오미 이지에 YE-01</t>
+  </si>
+  <si>
+    <t>테팔 에어포스360 에센셜</t>
+  </si>
+  <si>
+    <t>샤오미 로이드미 넥스 XCQ06RM</t>
+  </si>
+  <si>
+    <t>DIBEA F20</t>
+  </si>
+  <si>
+    <t>DIBEA D18 플러스</t>
+  </si>
+  <si>
+    <t>머레이 핸디형 무선청소기 HK-6030</t>
+  </si>
+  <si>
+    <t>신일산업 SVC-680G</t>
+  </si>
+  <si>
+    <t>한경희생활과학 아쿠아젯 AM-5600WT</t>
+  </si>
+  <si>
+    <t>이나프 ILVH-7500</t>
+  </si>
+  <si>
+    <t>다이슨 V7 앱솔루트</t>
+  </si>
+  <si>
+    <t>레이캅 RHC-300</t>
+  </si>
+  <si>
+    <t>블랙앤데커 PV1820C</t>
+  </si>
+  <si>
+    <t>홍진테크 AT-H12V</t>
+  </si>
+  <si>
+    <t>대우어플라이언스 DEX-EV675</t>
+  </si>
+  <si>
+    <t>SUNAEssi CZ-S567WM</t>
+  </si>
+  <si>
+    <t>DIBEA TSX-25000A</t>
+  </si>
+  <si>
+    <t>삼성전자 제트 VS20R9044SA</t>
+  </si>
+  <si>
+    <t>보쉬 유니버셜백 18</t>
+  </si>
+  <si>
+    <t>삼성전자 파워스틱 VS03R6523J2</t>
+  </si>
+  <si>
+    <t>캐치웰 CX11</t>
+  </si>
+  <si>
+    <t>샤오미 COCLEAN 차량용 무선 청소기 화이트 (해외구매)</t>
+  </si>
+  <si>
+    <t>마끼다 DCL182ZW</t>
+  </si>
+  <si>
+    <t>이스타 EST-VX100</t>
+  </si>
+  <si>
+    <t>테팔 에어포스360 TY9253</t>
+  </si>
+  <si>
+    <t>DIBEA M-HIPOWER</t>
+  </si>
+  <si>
+    <t>유니맥스 UVC-1685A</t>
+  </si>
+  <si>
+    <t>샤오미 드리미 CCMOP</t>
+  </si>
+  <si>
+    <t>벤하임코리아 리벤 아쿠아맙 LAM-2000BK</t>
+  </si>
+  <si>
+    <t>에이스전자 AVG-LC9600BT</t>
+  </si>
+  <si>
+    <t>SK매직 VCL-W10B</t>
+  </si>
+  <si>
+    <t>샤오미 드리미 V9B</t>
+  </si>
+  <si>
+    <t>LG전자 V-S300C</t>
+  </si>
+  <si>
+    <t>블랙앤데커 PD1400</t>
+  </si>
+  <si>
+    <t>레이캅 RPC-300</t>
+  </si>
+  <si>
+    <t>한경희생활과학 SM-2000</t>
+  </si>
+  <si>
+    <t>훠링 핸디 싸이클론 다용도 무선청소기 (리튬이온배터리)</t>
+  </si>
+  <si>
+    <t>이나프 VH-1600</t>
+  </si>
+  <si>
+    <t>신일산업 SVC-1316R</t>
+  </si>
+  <si>
+    <t>신일산업 롤링스턴 SVC-PEV660</t>
+  </si>
+  <si>
+    <t>테팔 에어포스360 플랙스프로 TY9471KS</t>
+  </si>
+  <si>
+    <t>다이슨 V10 카본파이버 플러스</t>
+  </si>
+  <si>
+    <t>엠제이코리아 맥스킹 S10 콤보형</t>
+  </si>
+  <si>
+    <t>DIBEA D008 프로</t>
+  </si>
+  <si>
+    <t>워니코프 콘일렉트릭 V1</t>
+  </si>
+  <si>
+    <t>삼성전자 VC-PS85</t>
+  </si>
+  <si>
+    <t>스위스밀리터리 에어슬림 SMA-BV2200</t>
+  </si>
+  <si>
+    <t>삼성전자 제트 VS15R8544S4</t>
+  </si>
+  <si>
+    <t>테팔 에어포스 라이트 TY6545KL</t>
+  </si>
+  <si>
+    <t>무궁화전자 바로바로 MHC-770</t>
+  </si>
+  <si>
+    <t>블랙앤데커 TPV1820RAC</t>
+  </si>
+  <si>
+    <t>아너스 R3 125RS</t>
+  </si>
+  <si>
+    <t>삼성전자 파워스틱 VS60K6081KC</t>
+  </si>
+  <si>
+    <t>USB 미니청소기</t>
+  </si>
+  <si>
+    <t>블랙앤데커 PV1020</t>
+  </si>
+  <si>
+    <t>캐치웰 F8</t>
+  </si>
+  <si>
+    <t>삼성전자 파워스틱 VS60K6081KD</t>
+  </si>
+  <si>
+    <t>SJ KOREA</t>
+  </si>
+  <si>
+    <t>DIBEA RQ40</t>
+  </si>
+  <si>
+    <t>다이슨 V6 플러피 헤파</t>
+  </si>
+  <si>
+    <t>BSW BS-14048-VC</t>
+  </si>
+  <si>
+    <t>테팔 에어포스360 플랙스프로 TY9474</t>
+  </si>
+  <si>
+    <t>신일 롤링스턴 SDC-B4000LM</t>
+  </si>
+  <si>
+    <t>DIBEA ALLNEW22000</t>
+  </si>
+  <si>
+    <t>ZIGLINT Z3</t>
+  </si>
+  <si>
+    <t>샤크 EVO POWER PLUS</t>
+  </si>
+  <si>
+    <t>원더스리빙 다이나킹 Z7</t>
+  </si>
+  <si>
+    <t>캐치웰 CV6</t>
+  </si>
+  <si>
+    <t>유니맥스 블랙라벨 UVC-1819B</t>
+  </si>
+  <si>
+    <t>툴앤툴 네오스틱 T1</t>
+  </si>
+  <si>
+    <t>휴스톰 HS-9300W</t>
+  </si>
+  <si>
+    <t>신일산업 롤링스턴 SVC-C1012WS</t>
+  </si>
+  <si>
+    <t>제로홈 아쿠아 파워</t>
+  </si>
+  <si>
+    <t>핸즈 HVC-120LA</t>
+  </si>
+  <si>
+    <t>일렉트로룩스 퓨어 F9 PF91-5OGF</t>
+  </si>
+  <si>
+    <t>테팔 TY9051</t>
+  </si>
+  <si>
+    <t>다이슨 V11 프리미엄 컴플리트</t>
+  </si>
+  <si>
+    <t>일렉트로룩스 퓨어 F9 PF91-5EBF</t>
+  </si>
+  <si>
+    <t>경성오토비스 플러스마이너스제로 D010</t>
+  </si>
+  <si>
+    <t>일렉트로룩스 에르고라피도 파워프로 ZB3416AK</t>
+  </si>
+  <si>
+    <t>샤오미 SWDK-DM790</t>
+  </si>
+  <si>
+    <t>보쉬 글래스 백</t>
+  </si>
+  <si>
+    <t>티피오스 TVC-3000</t>
+  </si>
+  <si>
+    <t>LOFANS QX-408</t>
+  </si>
+  <si>
+    <t>캐치웰 CV8</t>
+  </si>
+  <si>
+    <t>엠제이컴퍼니 쿠조 텀블러 무선 청소기 PRG-1901</t>
+  </si>
+  <si>
+    <t>롯데하이마트 하이메이드 HV-DW222W</t>
+  </si>
+  <si>
+    <t>한경희생활과학 VH-400WT</t>
+  </si>
+  <si>
+    <t>보국전자 BKV-642VL</t>
+  </si>
+  <si>
+    <t>일렉트로룩스 에르고라피도 ZB3316AK</t>
+  </si>
+  <si>
+    <t>대우어플라이언스 DEX-WC100</t>
+  </si>
+  <si>
+    <t>유니맥스 UMO-05V</t>
   </si>
   <si>
     <t>애니스 JB2000</t>
   </si>
   <si>
-    <t>샤오미 SWDK-D260</t>
-  </si>
-  <si>
-    <t>LG전자 코드제로 S86</t>
-  </si>
-  <si>
-    <t>다이슨 V7 플러피</t>
-  </si>
-  <si>
-    <t>휴스톰 HS-10000</t>
-  </si>
-  <si>
-    <t>LG전자 코드제로 A9 A947</t>
-  </si>
-  <si>
-    <t>샤오미 드리미 V9P</t>
-  </si>
-  <si>
-    <t>DIBEA F20 울트라 맥스</t>
-  </si>
-  <si>
-    <t>일렉트로룩스 에르고라피도 파워프로 ZB3423BO</t>
-  </si>
-  <si>
-    <t>DIBEA DW200</t>
-  </si>
-  <si>
-    <t>DIBEA PDK-12000N</t>
-  </si>
-  <si>
-    <t>LG전자 코드제로 A9 A948</t>
-  </si>
-  <si>
-    <t>유행코리아 더쎈 유무선 청소기</t>
-  </si>
-  <si>
-    <t>LG전자 코드제로 A9 A940</t>
-  </si>
-  <si>
-    <t>LG전자 코드제로 A9 A950</t>
-  </si>
-  <si>
-    <t>LG전자 코드제로 A9 A960</t>
-  </si>
-  <si>
-    <t>LG전자 코드제로 A9 A930</t>
-  </si>
-  <si>
-    <t>샤오미 COCLEAN 차량용 무선 청소기 화이트 (해외구매)</t>
-  </si>
-  <si>
-    <t>경성오토비스 KAC-7000</t>
-  </si>
-  <si>
-    <t>일렉트로룩스 에르고라피도 프로 플러스 ZB3113AK</t>
-  </si>
-  <si>
-    <t>다이슨 V8 카본파이버</t>
-  </si>
-  <si>
-    <t>LG전자 코드제로 A9 A968</t>
-  </si>
-  <si>
-    <t>삼성전자 뉴파워건 130</t>
-  </si>
-  <si>
-    <t>다이슨 V8 플러피 프로</t>
-  </si>
-  <si>
-    <t>샤오미 SWDK KC101</t>
-  </si>
-  <si>
-    <t>삼성전자 파워스틱 VS60M6010KG</t>
-  </si>
-  <si>
-    <t>삼성전자 VC-H22</t>
-  </si>
-  <si>
-    <t>베이스어스 차량용 무선 청소기 (해외구매)</t>
-  </si>
-  <si>
-    <t>캐치웰 CV6</t>
-  </si>
-  <si>
-    <t>경성오토비스 KAC-7100</t>
-  </si>
-  <si>
-    <t>DIBEA NEW F7 플러스</t>
-  </si>
-  <si>
-    <t>한경희생활과학 아쿠아젯 AM-5600BM</t>
-  </si>
-  <si>
-    <t>DIBEA V008 프로</t>
-  </si>
-  <si>
-    <t>DIBEA M500 프로</t>
-  </si>
-  <si>
-    <t>인트비즈 모런 싸이클론 차량용 무선 청소기 V2</t>
-  </si>
-  <si>
-    <t>삼성전자 제트 VS20R9043SA</t>
-  </si>
-  <si>
-    <t>다이슨 V8 앱솔루트</t>
-  </si>
-  <si>
-    <t>롯데 L-277</t>
-  </si>
-  <si>
-    <t>다이슨 V10 모터헤드</t>
-  </si>
-  <si>
-    <t>아이리스 IC-SLDCP5</t>
-  </si>
-  <si>
-    <t>DIBEA 에이스 맥스</t>
-  </si>
-  <si>
-    <t>LG전자 코드제로 터보2.0 S87GMW</t>
-  </si>
-  <si>
-    <t>일렉트로룩스 에르고라피도 파워프로 ZB3426BL</t>
-  </si>
-  <si>
-    <t>대웅모닝컴 DWVC-DC9180KP</t>
-  </si>
-  <si>
-    <t>한경희생활과학 아쿠아젯 RC-3500</t>
-  </si>
-  <si>
-    <t>DIBEA C17</t>
-  </si>
-  <si>
-    <t>오토싱 OTOCINC-700B</t>
-  </si>
-  <si>
-    <t>샤오미 WXCDJ01SWDK</t>
-  </si>
-  <si>
-    <t>LG전자 코드제로 A9 A931</t>
-  </si>
-  <si>
-    <t>LG전자 코드제로 S74R</t>
-  </si>
-  <si>
-    <t>삼성전자 뉴파워건 150</t>
-  </si>
-  <si>
-    <t>다이슨 V8 앱솔루트 엑스트라</t>
-  </si>
-  <si>
-    <t>로엘 듀스핀</t>
-  </si>
-  <si>
-    <t>샤오미 로이드미 F8</t>
-  </si>
-  <si>
-    <t>일렉트로룩스 퓨어 Q9 PQ91-3OB</t>
-  </si>
-  <si>
-    <t>블랙앤데커 TPD1810BGEXT</t>
-  </si>
-  <si>
-    <t>DIBEA M-HIPOWER</t>
-  </si>
-  <si>
-    <t>아이룸 AST-009</t>
-  </si>
-  <si>
-    <t>다이슨 V7 플러피 플러스</t>
-  </si>
-  <si>
-    <t>다이슨 V11 플러피</t>
-  </si>
-  <si>
-    <t>일렉트로룩스 에르고라피도 플러스 ZB3105AK</t>
-  </si>
-  <si>
-    <t>DIBEA X30</t>
-  </si>
-  <si>
-    <t>다이슨 V11 컴플리트 플러스</t>
-  </si>
-  <si>
-    <t>EUP VH806</t>
-  </si>
-  <si>
-    <t>블랙앤데커 PV1820BK</t>
-  </si>
-  <si>
-    <t>일렉트로룩스 울트라파워 ZB5022</t>
-  </si>
-  <si>
-    <t>오토봇 V2 휴대용 진공 청소기 ABV003 (해외구매)</t>
-  </si>
-  <si>
-    <t>삼성전자 VC-H71</t>
-  </si>
-  <si>
-    <t>경성오토비스 KAC-5500</t>
-  </si>
-  <si>
-    <t>일렉트로룩스 울트라파워 ZB5021</t>
-  </si>
-  <si>
-    <t>삼성전자 파워건 150</t>
-  </si>
-  <si>
-    <t>일렉트로룩스 퓨어 F9 PF91-5OGF</t>
-  </si>
-  <si>
-    <t>일렉트로룩스 에르고라피도 ZB3111</t>
-  </si>
-  <si>
-    <t>다이슨 V8 앱솔루트 플러스</t>
-  </si>
-  <si>
-    <t>다이슨 V8 앱솔루트 프로</t>
-  </si>
-  <si>
-    <t>무궁화전자 바로바로 MC-B250</t>
-  </si>
-  <si>
-    <t>다이슨 V6 코드프리 플러스</t>
-  </si>
-  <si>
-    <t>다이슨 V8 플러피 헤파</t>
-  </si>
-  <si>
-    <t>다이슨 V8 모터헤드 헤파</t>
-  </si>
-  <si>
-    <t>DIBEA NEW X10 플러스</t>
-  </si>
-  <si>
-    <t>일렉트로룩스 퓨어 Q9 PQ91-2OG</t>
-  </si>
-  <si>
-    <t>다이슨 V10 앱솔루트 엑스트라</t>
-  </si>
-  <si>
-    <t>샤오미 드리미 V9B</t>
-  </si>
-  <si>
-    <t>DIBEA DW300 프로</t>
-  </si>
-  <si>
-    <t>일렉트로룩스 ZB6114</t>
-  </si>
-  <si>
-    <t>휴스톰 HS-11000</t>
-  </si>
-  <si>
-    <t>일렉트로룩스 에르고라피도 ZB3323BO</t>
-  </si>
-  <si>
-    <t>한경희생활과학 아쿠아젯 AM-5600WT</t>
-  </si>
-  <si>
-    <t>보쉬 GAS18V-1</t>
-  </si>
-  <si>
-    <t>DIBEA D20 MAX</t>
-  </si>
-  <si>
-    <t>신일산업 SVC-S4800SJ</t>
-  </si>
-  <si>
-    <t>클릭 더스트 제로 EV-693</t>
-  </si>
-  <si>
-    <t>LG전자 코드제로 T9</t>
-  </si>
-  <si>
-    <t>신일산업 SVC-WK1000</t>
-  </si>
-  <si>
-    <t>샤오미 드리미 CCMOP</t>
-  </si>
-  <si>
-    <t>DIBEA D18 플러스</t>
-  </si>
-  <si>
-    <t>레이캅 RHC-300</t>
-  </si>
-  <si>
-    <t>신일 롤링스턴 SDC-B4000LG</t>
-  </si>
-  <si>
-    <t>필립스 FC6152</t>
-  </si>
-  <si>
-    <t>일렉트로룩스 퓨어 Q9 PQ91-3BW</t>
-  </si>
-  <si>
-    <t>블랙앤데커 PV1820C</t>
-  </si>
-  <si>
-    <t>삼성전자 제트 VS20R9043QA</t>
-  </si>
-  <si>
-    <t>듀플렉스 DP-485VC</t>
+    <t>SK매직 VCL-WA10</t>
+  </si>
+  <si>
+    <t>쿠비녹스 CX-996VC</t>
+  </si>
+  <si>
+    <t>DIBEA M500 터보</t>
+  </si>
+  <si>
+    <t>다이슨 V7 트리거 프로</t>
+  </si>
+  <si>
+    <t>신일 롤링스턴 SDC-EQ900</t>
+  </si>
+  <si>
+    <t>JDL tech 트위스터</t>
+  </si>
+  <si>
+    <t>DIBEA W20</t>
+  </si>
+  <si>
+    <t>툴앤툴 코드프리 N10</t>
+  </si>
+  <si>
+    <t>컴포트 LAM-2019</t>
+  </si>
+  <si>
+    <t>일렉트로룩스 에르고라피도 ZB3314AK</t>
+  </si>
+  <si>
+    <t>BSW BS-1604-BC</t>
+  </si>
+  <si>
+    <t>지웰 ST-007+8040MT</t>
+  </si>
+  <si>
+    <t>수인 SN-P1000VC</t>
+  </si>
+  <si>
+    <t>스윙 파워스윙 SWING-8000</t>
+  </si>
+  <si>
+    <t>신일 더쎈 SVC-ECO350</t>
   </si>
   <si>
     <t>다이슨 V7 모터헤드</t>
   </si>
   <si>
-    <t>삼성전자 제트 VS20R9044SA</t>
-  </si>
-  <si>
-    <t>삼성전자 제트 VS15R8548S5</t>
-  </si>
-  <si>
-    <t>블랙앤데커 PV1820CEXT</t>
-  </si>
-  <si>
-    <t>일렉트로룩스 퓨어 Q9 PQ91-3EM</t>
-  </si>
-  <si>
-    <t>테팔 에어포스360 TY9253</t>
-  </si>
-  <si>
-    <t>이나프 ILVH-7000</t>
-  </si>
-  <si>
-    <t>다이슨 V10 앱솔루트</t>
-  </si>
-  <si>
-    <t>삼성전자 제트 VS20R9044SC</t>
-  </si>
-  <si>
-    <t>지웰 벤투스 아쿠아 프로</t>
-  </si>
-  <si>
-    <t>유니맥스 UVC-1685A</t>
-  </si>
-  <si>
-    <t>샤오미 로이드미 넥스</t>
-  </si>
-  <si>
-    <t>리버티 LVC-1000</t>
-  </si>
-  <si>
-    <t>하트만 HVC-S8850BL</t>
-  </si>
-  <si>
-    <t>DIBEA D20</t>
-  </si>
-  <si>
-    <t>일렉트로룩스 에르고라피도 파워프로 ZB3414AK</t>
-  </si>
-  <si>
-    <t>일렉트로룩스 에르고라피도 ZB3105</t>
-  </si>
-  <si>
-    <t>샤오미 디어마 VC50</t>
-  </si>
-  <si>
-    <t>벡셀 BHV-3001S</t>
-  </si>
-  <si>
-    <t>이나프 ILVH-7500</t>
-  </si>
-  <si>
-    <t>오토싱 OTC-700BA</t>
-  </si>
-  <si>
-    <t>DIBEA M500 터보</t>
-  </si>
-  <si>
-    <t>일렉트로룩스 라피도 ZB5106</t>
-  </si>
-  <si>
-    <t>캐치웰 F8</t>
-  </si>
-  <si>
-    <t>샤오미 CX-1</t>
-  </si>
-  <si>
-    <t>삼성전자 제트 VS20R9077Q3</t>
-  </si>
-  <si>
-    <t>스윙 파워스윙 SWING 8500</t>
-  </si>
-  <si>
-    <t>일렉트로룩스 파워프로 ZB3424BL</t>
-  </si>
-  <si>
-    <t>DIBEA DW200 플러스</t>
-  </si>
-  <si>
-    <t>일렉트로룩스 에르고라피도 플러스 ZB3106AK</t>
-  </si>
-  <si>
-    <t>제로홈 프로</t>
-  </si>
-  <si>
-    <t>일렉트로룩스 ZB3311</t>
-  </si>
-  <si>
-    <t>삼성전자 파워스틱 VS03R6523J2</t>
-  </si>
-  <si>
-    <t>유니맥스 UVC-1891P</t>
-  </si>
-  <si>
-    <t>혼스 HSWC-1000</t>
-  </si>
-  <si>
-    <t>레이캅 RX-100KRWH</t>
-  </si>
-  <si>
-    <t>삼성전자 VC-PS86</t>
-  </si>
-  <si>
-    <t>툴앤툴 네오스틱 NEW T5</t>
-  </si>
-  <si>
-    <t>유니맥스 블랙라벨 UVC-1819B</t>
-  </si>
-  <si>
-    <t>대웅모닝컴 DWM-HV74N</t>
-  </si>
-  <si>
-    <t>휴스톰 HS-9500</t>
-  </si>
-  <si>
-    <t>테팔 에어포스 익스트림 사일런스 TY8941</t>
-  </si>
-  <si>
-    <t>보쉬 GAS18V-10L</t>
-  </si>
-  <si>
-    <t>샤오미 CLEANFLY 차량용 무선 청소기 가정용 충전기 (해외구매)</t>
-  </si>
-  <si>
-    <t>SK매직 VCL-W10B</t>
-  </si>
-  <si>
-    <t>테팔 에어포스360 플랙스프로 TY9471KS</t>
-  </si>
-  <si>
-    <t>테팔 에어포스360 에센셜</t>
-  </si>
-  <si>
-    <t>보만 VC7210</t>
-  </si>
-  <si>
-    <t>아이룸 D-10</t>
-  </si>
-  <si>
-    <t>캐치웰 CV7</t>
-  </si>
-  <si>
-    <t>DIBEA NEW X10</t>
-  </si>
-  <si>
-    <t>에이스전자 ARW-C100</t>
-  </si>
-  <si>
-    <t>블랙앤데커 PD1420B</t>
-  </si>
-  <si>
-    <t>엠제이코리아 맥스킹 S10 콤보형</t>
-  </si>
-  <si>
-    <t>샤오미 디어마 CM1900</t>
-  </si>
-  <si>
-    <t>포시엠 CM-108S</t>
-  </si>
-  <si>
-    <t>ABKO 오엘라 네오스핀 OBC-AW09WH</t>
-  </si>
-  <si>
-    <t>휴스톰 HS-10000W</t>
-  </si>
-  <si>
-    <t>DIBEA JBD-01B</t>
-  </si>
-  <si>
-    <t>DIBEA 에이스 프로</t>
-  </si>
-  <si>
-    <t>프라임테크 브이레이</t>
-  </si>
-  <si>
-    <t>강블리 라이프 G2 GL-EH0009</t>
-  </si>
-  <si>
-    <t>테팔 에어포스360 플랙스프로 TY9474</t>
-  </si>
-  <si>
-    <t>보르도 BD-WM5083</t>
-  </si>
-  <si>
-    <t>이나프 ILVH-2000WG</t>
-  </si>
-  <si>
-    <t>스위스밀리터리 SMA-X22</t>
-  </si>
-  <si>
-    <t>무궁화전자 바로바로 MHC-601</t>
-  </si>
-  <si>
-    <t>샤오미 디어마 VC20S</t>
-  </si>
-  <si>
-    <t>일렉트로룩스 라피도 ZB6108</t>
-  </si>
-  <si>
-    <t>이노템 아이언맨 IM-500</t>
-  </si>
-  <si>
-    <t>유니맥스 UVC-1688</t>
+    <t>블랙앤데커 PD1810BEXT</t>
+  </si>
+  <si>
+    <t>유니맥스 UVC-1894</t>
   </si>
   <si>
     <t>엠제이코리아 맥스킹 S20 콤보형</t>
   </si>
   <si>
-    <t>일렉트로룩스 에르고라피도 파워프로 ZB3411</t>
-  </si>
-  <si>
-    <t>듀플렉스 DP-490VC</t>
-  </si>
-  <si>
-    <t>테팔 에어포스 라이트 TY6543KL</t>
-  </si>
-  <si>
-    <t>스위스밀리터리 SMA-V200Z</t>
-  </si>
-  <si>
-    <t>이나프 VH-1600</t>
-  </si>
-  <si>
-    <t>신일산업 SVC-1316R</t>
-  </si>
-  <si>
-    <t>DIBEA DW200 프로</t>
-  </si>
-  <si>
-    <t>롯데전자 L-275</t>
-  </si>
-  <si>
-    <t>마끼다 DCL180Z</t>
-  </si>
-  <si>
-    <t>바치 VC-1201BL</t>
+    <t>플러스마이너스제로 Y010</t>
+  </si>
+  <si>
+    <t>보랄 BR-SV380RC</t>
+  </si>
+  <si>
+    <t>엔퓨텍 퓨라이트XD</t>
   </si>
   <si>
     <t>휴스톰 HS-9600</t>
   </si>
   <si>
-    <t>대웅모닝컴 DWVC-DC1630WS</t>
-  </si>
-  <si>
-    <t>파워싸이클론 차량용 무선 청소기 V2</t>
-  </si>
-  <si>
-    <t>다이슨 V10 플러피 엑스트라</t>
-  </si>
-  <si>
-    <t>다이슨 V10 플러피</t>
-  </si>
-  <si>
-    <t>에이스전자 AVG-TS8400B</t>
-  </si>
-  <si>
-    <t>제로홈 맥스</t>
-  </si>
-  <si>
-    <t>블랙앤데커 CS1830B</t>
-  </si>
-  <si>
-    <t>툴앤툴 네오스틱 T1</t>
-  </si>
-  <si>
-    <t>일렉트로룩스 퓨어 F9 PF91-6BWF</t>
-  </si>
-  <si>
-    <t>스위스밀리터리 에어슬림 SMA-BV2200</t>
-  </si>
-  <si>
-    <t>일렉트로룩스 에르고라피도 ZB3324B</t>
-  </si>
-  <si>
-    <t>노블 K-108L</t>
-  </si>
-  <si>
-    <t>삼성전자 파워스틱 VS60K6051KW</t>
-  </si>
-  <si>
-    <t>DIBEA X10</t>
-  </si>
-  <si>
-    <t>기펠 스텔라 JJ-SC-020BN</t>
-  </si>
-  <si>
-    <t>삼성전자 VC-LSS95</t>
-  </si>
-  <si>
-    <t>보만 VC7211</t>
-  </si>
-  <si>
-    <t>비바 2017-SC01</t>
-  </si>
-  <si>
-    <t>신일산업 SVC-680G</t>
-  </si>
-  <si>
-    <t>휴스톰 HS-12000W</t>
-  </si>
-  <si>
-    <t>다이슨 V11 컴플리트 프로</t>
-  </si>
-  <si>
-    <t>다이슨 V11 220 에어와트 CF+</t>
-  </si>
-  <si>
-    <t>삼성전자 파워스틱 VS60K6081KC</t>
-  </si>
-  <si>
-    <t>일럭스고 SVC-1019L</t>
-  </si>
-  <si>
-    <t>샤오미 SCWXCQ01RR</t>
-  </si>
-  <si>
-    <t>신일 SVC-ECO150</t>
-  </si>
-  <si>
-    <t>대웅모닝컴 DWVC-H0256WS</t>
-  </si>
-  <si>
-    <t>삼성전자 VC-H60</t>
-  </si>
-  <si>
-    <t>블랙앤데커 CS1820T</t>
-  </si>
-  <si>
-    <t>DIBEA Q10</t>
-  </si>
-  <si>
-    <t>홍진테크 AT-H12V</t>
-  </si>
-  <si>
-    <t>캐치웰 CX11</t>
-  </si>
-  <si>
-    <t>아이룸 AST-015</t>
-  </si>
-  <si>
-    <t>신일 SVC-8900SG</t>
-  </si>
-  <si>
-    <t>블랙앤데커 DVJ215B</t>
-  </si>
-  <si>
-    <t>신일산업 SVC-S500YT</t>
-  </si>
-  <si>
-    <t>니코 NKC-T77</t>
-  </si>
-  <si>
-    <t>LG전자 코드제로 A9 A9579S+R9 R958DA</t>
-  </si>
-  <si>
-    <t>삼성전자 VC-H20</t>
-  </si>
-  <si>
-    <t>샤오미 이지에 YE-01</t>
-  </si>
-  <si>
-    <t>신일산업 SVC-DC2200SK</t>
-  </si>
-  <si>
-    <t>샤오미 드리미 V8</t>
-  </si>
-  <si>
-    <t>이나프 ILVH-1000</t>
-  </si>
-  <si>
-    <t>워니코프 콘일렉트릭 V1</t>
-  </si>
-  <si>
-    <t>테팔 에어포스 라이트 TY6545KL</t>
-  </si>
-  <si>
-    <t>신일산업 SVC-650SG</t>
-  </si>
-  <si>
-    <t>미켈란젤로 슈퍼파워 프리플러스 V2 ARO-1300BL</t>
-  </si>
-  <si>
-    <t>대우어플라이언스 DEX-EV675</t>
-  </si>
-  <si>
-    <t>아토만 AT-HC300</t>
-  </si>
-  <si>
-    <t>BDC 얼티메이트</t>
-  </si>
-  <si>
-    <t>다이슨 V10 앱솔루트 프로</t>
-  </si>
-  <si>
-    <t>DIBEA 에코19 프로</t>
-  </si>
-  <si>
-    <t>휴스톰 HS-5000</t>
-  </si>
-  <si>
-    <t>스윙 파워스윙 SWING 10000-BLDC</t>
-  </si>
-  <si>
-    <t>보쉬 GAS18V-LI</t>
-  </si>
-  <si>
-    <t>신일산업 SVC-S48JP</t>
-  </si>
-  <si>
-    <t>블랙앤데커 TPV1820RAC</t>
-  </si>
-  <si>
-    <t>다이슨 V11 토탈클린</t>
-  </si>
-  <si>
-    <t>모온 오비큠</t>
-  </si>
-  <si>
-    <t>아이룸 ASC-079</t>
-  </si>
-  <si>
-    <t>롯데 L-276</t>
-  </si>
-  <si>
-    <t>다이슨 V11 앱솔루트 프로</t>
-  </si>
-  <si>
-    <t>블랙앤데커 PD1400</t>
-  </si>
-  <si>
-    <t>BDC 벨라</t>
-  </si>
-  <si>
-    <t>비엔필레 H-12</t>
-  </si>
-  <si>
-    <t>좋은생활지웰 GWELL-502</t>
-  </si>
-  <si>
-    <t>신일산업 SDC-B5000W</t>
-  </si>
-  <si>
-    <t>이노템 아이언맨 IM-900</t>
-  </si>
-  <si>
-    <t>다이슨 V7 트리거 프로</t>
-  </si>
-  <si>
-    <t>보쉬 GAS10.8V-LI</t>
-  </si>
-  <si>
-    <t>쿠첸 CVC-LH602W</t>
-  </si>
-  <si>
-    <t>신일 롤링스턴 SDC-EQ900</t>
-  </si>
-  <si>
-    <t>레이캅 RPC-100</t>
-  </si>
-  <si>
-    <t>엔뚜마노 이지투웍 EM-2800W</t>
-  </si>
-  <si>
-    <t>이노크아든 IA-I9V2</t>
-  </si>
-  <si>
-    <t>삼성전자 제트 VS20R9074S2</t>
-  </si>
-  <si>
-    <t>DIBEA V008</t>
-  </si>
-  <si>
-    <t>테팔 에어포스 360 TY9037</t>
-  </si>
-  <si>
-    <t>LG전자 코드제로 S73OW</t>
-  </si>
-  <si>
-    <t>한샘 T1</t>
-  </si>
-  <si>
-    <t>루시아 LVC-2018</t>
-  </si>
-  <si>
-    <t>블랙앤데커 PV1420C</t>
-  </si>
-  <si>
-    <t>던디 TMS-5000</t>
-  </si>
-  <si>
-    <t>보국전자 BKV-642VL</t>
-  </si>
-  <si>
-    <t>신일산업 SVC-P60DK</t>
-  </si>
-  <si>
-    <t>블랙앤데커 WD7201</t>
-  </si>
-  <si>
-    <t>아토만 AT-770</t>
-  </si>
-  <si>
-    <t>DIBEA P20 MAX</t>
-  </si>
-  <si>
-    <t>DIBEA NEW F7</t>
-  </si>
-  <si>
-    <t>신일산업 SVC-S8000MJ</t>
-  </si>
-  <si>
-    <t>블랙앤데커 PHV1800CB</t>
-  </si>
-  <si>
-    <t>라헨느 V10 플러스</t>
-  </si>
-  <si>
-    <t>일렉트로룩스 퓨어 F9 PF91-5EBF</t>
-  </si>
-  <si>
-    <t>DIBEA Q10 플러스</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 25.2V / 헤파필터 / 싸이클론 / 5단계여과 / 흡입력: 120AW / 충전시간: 3시간30분 / 사용시간: 60분 / 브러쉬: 바닥, 솔형, 틈새, 침구, 연장관 / 거치대 / 무게: 1.5kg / 색상:화이트 / 소비전력: 400W</t>
-  </si>
-  <si>
-    <t>차량용청소기 / 무선 / 흡입력: 5,000Pa / 최대출력: 80W / 헤파필터 / 추가노즐: 틈새, 솔브러쉬 / LED라이트 / 사용시간: 15분 / 충전시간: 1시간30분 / 크기: 298x70mm / 무게: 560g</t>
+    <t>아이코넬 VC-K2000</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 25.2V / 헤파필터 / H12급 / 5단계여과 / 흡입력: 140AW / 흡입력: 22000Pa / 먼지통용량: 0.5L / 충전시간: 3시간30분 / 사용시간: 1시간 / 용량: 2500mAh / 브러쉬: 바닥, 솔형, 틈새, 침구, 연장관 / 거치대 / 무게: 1.5kg / 색상:화이트 / 소비전력: 450W</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 28.8V / 헤파필터 / 듀얼싸이클론 / 6단계여과 / BLDC모터 / 흡입력: 160AW / 흡입력: 22000Pa / 먼지통용량: 0.7L / 충전시간: 4시간30분 / 사용시간: 1시간5분 / 배터리: 리튬이온 / 용량: 2500mAh / 거치대 / 배터리잔량표시 / 셀프스탠딩 / 프리볼트 / 무게: 2.5kg / 소비전력: 450W / 브러쉬: 바닥, 펫, 멀티, 틈새, 솔형, 침구, 연장호스, 플렉스연장관 / 크기(가로x세로x깊이): 250x1096x198mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 헤파필터 / 2중터보싸이클론 / 5단계여과 / 인버터모터 / 흡입력: 140W / 충전시간: 3시간30분 / 사용시간: 80분 / 배터리: 리튬이온 (2개) / 브러쉬: 바닥, 솔형, 틈새, 침구, 매트리스, 물걸레 / 거치대 / 물걸레 / 색상:아이언그레이 / 소비전력: 450W / 3단계물분사조절 / 크기(가로x세로x깊이): 260x1120x270mm</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 12,000Pa / 최대출력: 120W / 2중필터 / 추가노즐: 틈새, 솔브러쉬 / LED라이트 / 사용시간: 30분 / 충전시간: 2시간30분 / 크기: 73x76x336mm / 무게: 610g / 충전방식: USB C타입</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 29.6V / 헤파필터 / 싸이클론 / 4단계여과 / BLDC모터 / 흡입력: 22000Pa / 먼지통용량: 0.6L / 충전시간: 5시간 / 사용시간: 1시간10분 / 배터리: 리튬이온 / 용량: 2500mAh / 브러쉬: 바닥, 솔형, 틈새, 침구, 연장관 / LED라이트 / 거치대 / 무게: 3.89kg / 색상:레드, 블랙 / 소비전력: 300W / 크기(가로x세로x깊이): 239x1255x105mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 25.2V / 헤파필터 / 싸이클론 / 5단계여과 / 흡입력: 120AW / 흡입력: 20000Pa / 먼지통용량: 0.5L / 충전시간: 3시간30분 / 사용시간: 60분 / 용량: 2500mAh / 브러쉬: 바닥, 솔형, 틈새, 침구, 연장관 / 거치대 / 무게: 1.5kg / 색상:화이트 / 소비전력: 400W</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 12,000Pa / 2중필터 / 헤파필터 / 추가노즐: 틈새, 솔브러쉬 / 사용시간: 17분 / 충전시간: 5시간30분 / 크기: 93x439mm / 무게: 505g / 충전방식: 시거잭, 220V / BLCD모터</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 21.9V / 헤파필터 / 싸이클론 / 5단계여과 / 인버터모터 / 흡입력: 200W / 먼지통용량: 0.5L / 충전시간: 3시간30분 / 사용시간: 120분 / 배터리: 리튬이온 (2개) / 브러쉬: 바닥, 솔형, 틈새, 침구, 물걸레, 연장관 / 거치대 / 디스플레이표시창 / 물걸레 / 프리볼트 / 무게: 2.7kg / 색상:티탄+블루 / 소비전력: 550W / 알레르기인증(BAF) / 미세먼지인증(SLG) / 크기(가로x세로x깊이): 250x1136x215mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 싸이클론 / 6단계여과 / 흡입력: 220AW / 먼지통용량: 0.54L / 충전시간: 4시간30분 / 사용시간: 60분 / 거치대 / 도킹스테이션 / 디스플레이표시창 / 무게: 2.95kg / 브러쉬: 소프트롤러클리너헤드, 하이토크클리너헤드, 콤비네이션툴, 크레비스툴, 미니모터툴, 미니소프트더스팅브러쉬, 매트리스툴, 스터번더트브러쉬 / 크기(가로x세로x깊이): 250x1280x261mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 14.4V / 4단계여과 / 충전시간: 4시간 / 사용시간: 42분 / 배터리: 리튬이온 / LED라이트 / 배터리잔량표시 / 브러쉬자동청소 / 셀프스탠딩 / 무게: 3.22kg / 알레르기인증(BAF) / 브러쉬: 바닥, 미니침구, 소파용, 긴틈새, 2in1 / 크기(가로x세로x깊이): 303x690x162mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 헤파필터 / 2중터보싸이클론 / 5단계여과 / 인버터모터 / 흡입력: 140W / 충전시간: 3시간30분 / 사용시간: 40분 / 배터리: 리튬이온 / 브러쉬: 바닥, 솔형, 틈새, 매트리스 / 거치대 / 무게: 2.7kg / 색상:판타지실버 / 소비전력: 450W / 크기(가로x세로x깊이): 260x1120x270mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 25.2V / 싸이클론 / 흡입력: 160AW / 충전시간: 3시간30분 / 사용시간: 60분 / 배터리: 리튬이온 / 도킹스테이션 / 무게: 2.5kg / 소비전력: 525W / 브러쉬: 소프트롤러헤드, 토크드라이브클리너헤드, 콤비네이션툴, 크레비스툴, 미니모터툴, 플렉시크레비스툴, 소프트더스팅브러시, 연장호스 / 크기(가로x세로x깊이): 250x1241x256mm</t>
   </si>
   <si>
     <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 헤파필터 / 2중터보싸이클론 / 5단계여과 / 인버터모터 / 흡입력: 140W / 충전시간: 3시간30분 / 사용시간: 80분 / 배터리: 리튬이온 (2개) / 브러쉬: 바닥, 솔형, 틈새, 침구, 매트리스 / 거치대 / 무게: 2.7kg / 색상:판타지실버 / 소비전력: 450W / 크기(가로x세로x깊이): 260x1120x270mm</t>
   </si>
   <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 헤파필터 / 2중터보싸이클론 / 5단계여과 / 인버터모터 / 흡입력: 140W / 충전시간: 3시간30분 / 사용시간: 80분 / 배터리: 리튬이온 (2개) / 브러쉬: 바닥, 솔형, 틈새, 침구, 매트리스, 물걸레 / 거치대 / 물걸레 / 색상:아이언그레이 / 소비전력: 450W / 3단계물분사조절 / 크기(가로x세로x깊이): 260x1120x270mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 29.6V / 싸이클론 / BLDC모터 / 먼지통용량: 0.5L / 충전시간: 2~3시간 / 사용시간: 50분 / 배터리: 리튬이온 / 브러쉬: 바닥, 솔형, 틈새, 연장관 / LED라이트 / 거치대 / 무게: 2.5kg / 소비전력: 400W / 흡입력: 25000Pa / 크기(가로x세로x깊이): 256x1172x217mm</t>
+    <t>차량용청소기 / 무선 / 흡입력: 7,000Pa / 최대출력: 90W / 2중필터 / 추가노즐: 틈새, 솔브러쉬 / LED라이트 / 사용시간: 30분 / 충전시간: 2시간30분 / 크기: 73x76x336mm / 무게: 700g / 충전방식: USB C타입</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 물걸레전용 / 회전식 / 무선형 / 전압: 14.6V / 충전시간: 2시간30분 / 사용시간: 30분 / 배터리: 리튬이온 / 용량: 2750mAh / LED라이트 / 셀프스탠딩 / 가구손상방지 / 각도조절 / 프리볼트 / 무게: 3.7kg / 색상:블랙 / 배터리잔량표시 / 모터과열방지 / 과충전방지 / 오토스토핑 / 패드: 극세사(벨크로형) / 크기(가로x세로x깊이): 410x1180x205mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 21.9V / 헤파필터 / 싸이클론 / 5단계여과 / 인버터모터 / 흡입력: 200W / 먼지통용량: 0.5L / 충전시간: 3시간30분 / 사용시간: 60분 / 배터리: 리튬이온 / 브러쉬: 바닥, 솔형, 틈새, 연장관 / 거치대 / 디스플레이표시창 / 프리볼트 / 무게: 2.7kg / 색상:실버핑크 / 소비전력: 550W / 알레르기인증(BAF) / 미세먼지인증(SLG) / 크기(가로x세로x깊이): 250x1136x215mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 25.2V / 싸이클론 / 충전시간: 3시간30분 / 사용시간: 60분 / 도킹스테이션 / 무게: 2.5kg / 소비전력: 525W / 브러쉬: 소프트롤러클리너헤드, 미니모터라이즈드툴, 미니소프트더스팅브러쉬툴, 콤비네이션툴, 크레비스툴 / 크기(가로x세로x깊이): 250x1241x256mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 29.6V / 싸이클론 / BLDC모터 / 흡입력: 100AW / 흡입력: 25000Pa / 먼지통용량: 0.5L / 충전시간: 2~3시간 / 사용시간: 50분 / 배터리: 리튬이온 / 용량: 2000mAh / 브러쉬: 바닥, 솔형, 틈새, 연장관 / LED라이트 / 거치대 / 무게: 2.5kg / 소비전력: 400W / 크기(가로x세로x깊이): 256x1172x217mm</t>
   </si>
   <si>
     <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 헤파필터 / 2중터보싸이클론 / 5단계여과 / 인버터모터 / 흡입력: 140W / 충전시간: 3시간30분 / 사용시간: 80분 / 배터리: 리튬이온 (2개) / 브러쉬: 바닥, 솔형, 틈새, 침구, 매트리스, 물걸레 / 거치대 / 물걸레 / 색상:판타지실버 / 소비전력: 450W / 알레르기인증(BAF) / 미세먼지인증(SLG) / 3단계물분사조절 / 크기(가로x세로x깊이): 260x1120x270mm</t>
   </si>
   <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 25.2V / 싸이클론 / 충전시간: 3시간30분 / 사용시간: 60분 / 배터리: 리튬이온 / 도킹스테이션 / 무게: 2.5kg / 소비전력: 525W / 브러쉬: 소프트롤러클리너헤드, 다이렉트드라이브헤드, 미니모토라이즈드툴, 콤비네이션툴, 크레비스툴, 플렉시크레비스툴, 미니소프트더스팅브러쉬툴, 익스텐션호스 / 크기(가로x세로x깊이): 250x1241x256mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 21.9V / 헤파필터 / 싸이클론 / 5단계여과 / 인버터모터 / 흡입력: 200W / 먼지통용량: 0.5L / 충전시간: 3시간30분 / 사용시간: 120분 / 배터리: 리튬이온 (2개) / 브러쉬: 바닥, 솔형, 틈새, 침구, 물걸레, 연장관 / 거치대 / 디스플레이표시창 / 물걸레 / 프리볼트 / 무게: 2.7kg / 색상:티탄+그레이 / 소비전력: 550W / 알레르기인증(BAF) / 미세먼지인증(SLG) / 크기(가로x세로x깊이): 250x1136x215mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 10.8V / 흡입력: 60W / 충전시간: 8시간 / 사용시간: 20분 / 배터리: 니켈수소 / 브러쉬: 바닥, 틈새, 연장관 / 거치대 / 무게: 1.3kg / 크기(가로x세로x깊이): 144x387x136mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 29.6V / BLDC모터 / 흡입력: 25000Pa / 먼지통용량: 0.5L / 충전시간: 3시간 / 사용시간: 50분 / 배터리: 리튬이온 / 용량: 2000mAh / 브러쉬: 바닥, 솔형, 틈새, 물걸레, 연장관 / LED라이트 / 거치대 / 무게: 2.5kg / 색상:블랙 / 소비전력: 400W / 크기(가로x세로x깊이): 256x1172x217mm</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 물걸레전용 / 왕복식 / 무선형 / 전압: 11.1V / 충전시간: 3시간 / 사용시간: 1시간 / 배터리: 리튬이온 / 용량: 2200mAh / 물분사 / LED라이트 / 각도조절 / 프리볼트 / 무게: 2.6kg / 소비전력: 25W / 색상:화이트 / 거치대 / 크기(가로x세로x깊이): 296x1114x220mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 헤파필터 / 2중터보싸이클론 / 5단계여과 / 흡입력: 140W / 충전시간: 3시간30분 / 사용시간: 80분 / 배터리: 리튬이온 (2개) / 브러쉬: 바닥, 물걸레 / 거치대 / 물걸레 / 색상:판타지실버 / 소비전력: 450W / 3단계물분사조절 / 크기(가로x세로x깊이): 272x1120x151mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 헤파필터 / 2중터보싸이클론 / 5단계여과 / 인버터모터 / 흡입력: 140W / 충전시간: 3시간30분 / 사용시간: 80분 / 배터리: 리튬이온 (2개) / 브러쉬: 바닥, 솔형, 틈새, 매트리스 / 거치대 / 무게: 2.7kg / 색상:판타지실버 / 소비전력: 450W / 크기(가로x세로x깊이): 260x1120x270mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 21.6V / 싸이클론 / 흡입력: 100AW / 충전시간: 3시간30분 / 사용시간: 30분 / 배터리: 리튬이온 / 도킹스테이션 / 무게: 2.32kg / 소비전력: 350W / 브러쉬: 소프트롤러클리너헤드, 미니모토라이즈드툴, 콤비네이션툴, 크레비스툴, 미니소프트더스팅브러쉬툴 / 크기(가로x세로x깊이): 250x1243x210mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 18V / 4단계여과 / 먼지통용량: 0.42L / 충전시간: 4시간 / 사용시간: 48분 / 배터리: 리튬이온 / 거치대 / 셀프스탠딩 / 무게: 3.3kg / 색상:소프트핑크 / 알레르기인증(BAF) / 브러쉬: 파워프로롤러, 베드프로미니, 수퍼롱, 패브릭, 틈새, 플렉시호스</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 물걸레전용 / 회전식 / 무선형 / 전압: 14.6V / 충전시간: 4시간 / 사용시간: 30분 / 배터리: 리튬이온 / 용량: 2850mAh / LED라이트 / 셀프스탠딩 / 가구손상방지 / 각도조절 / 무게: 3.6kg / 색상:블랙 / 모터과열방지 / 과충전방지 / 오토스토핑 / 패드: 극세사(벨크로형) / 크기(가로x세로x깊이): 410x860x256mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 21.6V / 싸이클론 / 흡입력: 155AW / 충전시간: 5시간 / 사용시간: 40분 / 배터리: 리튬이온 / 도킹스테이션 / 무게: 2.58kg / 브러쉬: 소프트롤러클리너헤드, 미니모터, 소프트더스팅, 콤비네이션툴, 크레비스툴, 매트리스툴, 연장호스 / 크기(가로x세로x깊이): 250x1264x224mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 22.2V / 헤파필터 / 싸이클론 / 3단계여과 / 흡입력: 25W / 충전시간: 4시간 / 사용시간: 35분 / 배터리: 리튬이온 / 용량: 2200mAh / 브러쉬: 바닥, 솔형, 틈새, 침구, 연장관 / LED라이트 / 거치대 / 무게: 1.9kg / 소비전력: 180W</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 22.2V / 싸이클론 / 4단계여과 / 흡입력: 10000Pa / 먼지통용량: 0.5L / 충전시간: 4~5시간 / 사용시간: 35분 / 배터리: 리튬이온 / 용량: 2200mAh / 브러쉬: 바닥, 솔형, 틈새, 연장관 / 무게: 2kg / 색상:화이트 / 소비전력: 150W / 100V / 변환어댑터: 필요 / 크기(가로x세로x깊이): 210x1040x104mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 인버터모터 / 충전시간: 4시간30분 / 사용시간: 40분(강), 70분(약) / 배터리: 리튬이온 / 브러쉬: 바닥, 솔형, 틈새 / LED라이트 / 배터리잔량표시 / 무게: 2.8kg / 색상:샤이니레드 / 소비전력: 90W / 크기(가로x세로x깊이): 190x1105x270mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 유선형 / 헤파필터 / 싸이클론 / 3단계여과 / 브러쉬: 바닥, 솔형, 틈새 / 무게: 2.1kg / 색상:레드 / 소비전력: 600W / 크기(가로x세로x깊이): 270x1300x270mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 싸이클론 / 흡입력: 185AW / 먼지통용량: 0.54L / 충전시간: 4시간30분 / 사용시간: 1시간 / 거치대 / 도킹스테이션 / 디스플레이표시창 / 무게: 2.95kg / 색상:니켈레드 / 소비전력: 545W / 브러쉬: 소프트롤러클리너헤드, 콤비네이션툴, 크레비스툴, 미니모터툴, 소프트더스팅브러쉬, 매트리스툴, 연장호스 / 크기(가로x세로x깊이): 261x1280x250mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 22.2V / 헤파필터 / H13급 / 싸이클론 / 3단계여과 / 흡입력: 9000Pa / 먼지통용량: 0.55L / 충전시간: 4~5시간 / 사용시간: 45분 / 배터리: 리튬이온 / 용량: 2200mAh / 브러쉬: 바닥, 솔형, 틈새, 연장관 / LED라이트 / 거치대 / 배터리잔량표시 / 프리볼트 / 무게: 2.2kg / 소비전력: 120W / 크기(가로x세로x깊이): 240x1040x210mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 32.4V / 헤파필터 / 싸이클론 / 5단계여과 / 인버터모터 / 흡입력: 130W / 충전시간: 4시간30분 / 사용시간: 40분 / 배터리: 리튬이온 / 브러쉬: 바닥, 솔형, 틈새 / 무게: 2.95kg / 색상:에어본블랙 / 소비전력: 400W / 플렉스핸들 / 크기(가로x세로x깊이): 252x1110x315mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 25.2V / 싸이클론 / 5단계여과 / 먼지통용량: 0.3L / 충전시간: 4시간 / 사용시간: 55분 / 배터리: 리튬이온 / LED라이트 / 거치대 / 브러쉬자동청소 / 셀프스탠딩 / 무게: 2.75kg / 색상:사틴화이트 / 브러쉬: 바닥, UV베드, 틈새, 더스팅, 슈퍼롱, 사선 / 크기(가로x세로x깊이): 256x1100x130mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 25.2V / 싸이클론 / 5단계여과 / 먼지통용량: 0.3L / 충전시간: 4시간 / 사용시간: 55분 / 배터리: 리튬이온 / LED라이트 / 거치대 / 브러쉬자동청소 / 셀프스탠딩 / 무게: 2.75kg / 색상:마호가니브론즈 / 브러쉬: 바닥, 틈새, 슈퍼롱, 사선 / 크기(가로x세로x깊이): 256x1100x130mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 스틱형 / 무선형 / 전압: 3.7V / 충전시간: 4~5시간 / 사용시간: 50분 / 배터리: 리튬이온 / 용량: 1950mAh / 무게: 0.86kg / 소비전력: 8W / 생활방수 / 브러쉬: 원형, 평면, 틈새</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 유무선 / 12V / 흡입력: 5,000Pa / 최대출력: 120W / 헤파필터 / 스테인리스 필터 / 추가노즐: 틈새, 솔브러쉬, 연장호스 / 사용시간: 30분 / 코드길이: 4.5m / 크기: 375x84x86mm / 색상: 네이비, 블랙</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 18V / 싸이클론 / 3단계여과 / 충전시간: 4시간 / 사용시간: 45분 / 배터리: 리튬이온 / LED라이트 / 배터리잔량표시 / 브러쉬자동청소 / 셀프스탠딩 / 무게: 2.6kg / 색상:텅스텐 / 브러쉬: 소파용, 연장호스, 긴틈새, 미니침구 / 크기(가로x세로x깊이): 263x1070x150mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 헤파필터 / 5단계여과 / 인버터모터 / 충전시간: 4시간30분 / 사용시간: 20분 / 배터리: 리튬이온 / 브러쉬: 바닥, 솔형, 틈새 / LED라이트 / 물걸레 / 배터리잔량표시 / 무게: 2.9kg / 색상:메탈릭골드 / 크기(가로x세로x깊이): 190x1105x270mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 21.6V / 싸이클론 / 5단계여과 / 먼지통용량: 0.3L / 충전시간: 3시간30분 / 사용시간: 50분 / 배터리: 리튬이온 / 브러쉬: 바닥, 솔형, 틈새 / LED라이트 / 거치대 / 브러쉬자동청소 / 셀프스탠딩 / 무게: 2.7kg / 색상:그라나이트그레이 / 크기(가로x세로x깊이): 234x1056x163mm</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 6,200Pa / 최대출력: 70W / 2중필터 / 헤파필터 / 추가노즐: 틈새, 솔브러쉬 / 사용시간: 18분 / 충전시간: 1시간30분~2시간 / 크기: 73x305mm / 무게: 703g / 충전방식: USB C타입</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 유무선 / 12V / 흡입력: 4,800Pa / 최대출력: 120W / 추가노즐: 틈새, 솔브러쉬, 연장호스 / 사용시간: 25분 / 충전시간: 3~4시간 / 크기: 260x200x80mm / 무게: 880g / 충전방식: 시거잭, 220V</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 물걸레전용 / 왕복식 / 무선형 / 전압: 12.6V / 충전시간: 3시간 / 사용시간: 50분 / 배터리: 리튬이온 / 용량: 2000mAh / 물분사 / LED라이트 / 프리볼트 / 무게: 2.4kg / 색상:화이트 / 110V / 변환어댑터: 필요</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 21.6V / 헤파필터 / 싸이클론 / 5단계여과 / 인버터모터 / 흡입력: 150W / 먼지통용량: 0.5L / 충전시간: 3시간30분 / 사용시간: 40분 / 배터리: 리튬이온 / 브러쉬: 바닥, 솔형, 틈새 / 거치대 / 디스플레이표시창 / 프리볼트 / 무게: 2.6kg / 색상:민트 / 소비전력: 410W / 알레르기인증(BAF) / 미세먼지인증(SLG) / 크기(가로x세로x깊이): 250x1123x215mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 헤파필터 / H13급 / 싸이클론 / 흡입력: 22000Pa / 먼지통용량: 0.5L / 충전시간: 4시간 / 사용시간: 30분 / 배터리: 리튬이온 / 용량: 2200mAh / 브러쉬: 바닥, 솔형, 틈새, 연장관 / 무게: 2.2kg / 소비전력: 250W / 크기(가로x세로x깊이): 260x1140x214mm</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 물걸레전용 / 회전식 / 무선형 / 전압: 7.4V / BLDC모터 / 충전시간: 4시간30분 / 사용시간: 40분 / 배터리: 리튬이온 / 용량: 2200mAh / 물분사 / LED라이트 / 각도조절 / 무게: 2.5kg / 소비전력: 40W / 색상:화이트 / 배터리잔량표시 / 모터과열방지 / 과충전방지 / 오토스토핑 / 패드: 향균초극세사 / 크기(가로x세로x깊이): 370x1200x180mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 14.4V / 싸이클론 / 3단계여과 / 충전시간: 4시간 / 사용시간: 30분 / 배터리: 리튬이온 / LED라이트 / 배터리잔량표시 / 브러쉬자동청소 / 셀프스탠딩 / 무게: 2.5kg / 색상:아이스 화이트 / 크기(가로x세로x깊이): 263x1070x150mm</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 5,800Pa / 최대출력: 80W / 헤파필터 / 추가노즐: 틈새, 솔브러쉬 / LED라이트 / 사용시간: 15분 / 충전시간: 1시간30분 / 크기: 298x70mm / 무게: 560g / 충전방식: 시거잭</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 충전시간: 5시간 / 사용시간: 15분 / 배터리: 니켈수소 / 배터리잔량표시 / 무게: 1.2kg / 색상:에어본+내츄럴그레이 / 소비전력: 72W / 크기(가로x세로x깊이): 119x121x410mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디형 / 무선형 / 전압: 14.4V / 싸이클론 / 3단계여과 / 충전시간: 4시간 / 사용시간: 24분 / 배터리: 리튬이온 / 브러쉬: 솔형, 틈새 / 무게: 1.13kg / 색상:그레이 / 5단계각도조절 / 크기(가로x세로x깊이): 124x410x137mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 25.9V / 헤파필터 / H13급 / 싸이클론 / BLDC모터 / 흡입력: 22000Pa / 충전시간: 4시간 / 사용시간: 50분 / 배터리: 리튬이온 / 용량: 2200mAh / 브러쉬: 바닥, 솔형, 틈새, 매트리스, 연장관 / LED라이트 / 거치대 / 무게: 2.5kg / 색상:레드 / 크기(가로x세로x깊이): 256x1172x217mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 14.4V / 싸이클론 / 3단계여과 / 충전시간: 4시간 / 사용시간: 30분 / 배터리: 리튬이온 / LED라이트 / 거치대 / 배터리잔량표시 / 브러쉬자동청소 / 셀프스탠딩 / 무게: 2.5kg / 색상:브론즈 / 브러쉬: 소파용, 연장호스, 긴틈새, 미니침구 / 크기(가로x세로x깊이): 263x1070x150mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 22.2V / 헤파필터 / H13급 / 싸이클론 / 4단계여과 / 흡입력: 19000Pa / 먼지통용량: 0.55L / 충전시간: 4~5시간 / 사용시간: 30분 / 배터리: 리튬이온 / 용량: 2200mAh / 브러쉬: 바닥, 솔형, 틈새, 연장관 / 거치대 / 무게: 2.3kg / 소비전력: 250W / 크기(가로x세로x깊이): 240x1040x211mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 21.6V / 헤파필터 / 싸이클론 / 5단계여과 / 인버터모터 / 흡입력: 150W / 먼지통용량: 0.5L / 충전시간: 3시간30분 / 사용시간: 40분 / 배터리: 리튬이온 / 브러쉬: 바닥, 솔형, 틈새, 연장관 / 거치대 / 디스플레이표시창 / 프리볼트 / 무게: 2.57kg / 색상:틸민트 / 소비전력: 410W / 알레르기인증(BAF) / 미세먼지인증(SLG) / 크기(가로x세로x깊이): 250x1123x215mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 헤파필터 / 2중터보싸이클론 / 5단계여과 / 인버터모터 / 흡입력: 140W / 충전시간: 3시간30분 / 사용시간: 80분 / 배터리: 리튬이온 (2개) / 브러쉬: 바닥, 카펫, 솔형, 틈새, 침구, 매트리스 / 거치대 / 무게: 2.7kg / 색상:판타지실버 / 소비전력: 450W / 크기(가로x세로x깊이): 260x1120x270mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 싸이클론 / 흡입력: 185AW / 먼지통용량: 0.54L / 충전시간: 4시간30분 / 사용시간: 1시간 / 거치대 / 도킹스테이션 / 디스플레이표시창 / 무게: 2.95kg / 색상:니켈블루 / 브러쉬: 소프트롤러클리너헤드, 하이토크드라이브헤드, 콤비네이션툴, 크레비스툴, 미니모터툴, 소프트더스팅브러쉬, 매트리스툴 / 크기(가로x세로x깊이): 261x1280x250mm</t>
+  </si>
+  <si>
+    <t>침구청소기 / 핸디형 / 무선형 / 전압: 21.6V / 3단계여과 / 흡입력: 6000Pa / 충전시간: 2시간30분 / 사용시간: 25분 / 용량: 2200mAh / 청소모드: UV살균, 진동, 흡입 / 진동수: 8000회(분당) / 헤파필터 / 거치대 / 무게: 1.3kg / 크기(가로x세로): 270x324mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 21.6V / 헤파필터 / 싸이클론 / 5단계여과 / 인버터모터 / 흡입력: 150W / 먼지통용량: 0.5L / 충전시간: 3시간30분 / 사용시간: 1시간20분 / 배터리: 리튬이온 (2개) / 브러쉬: 바닥, 솔형, 틈새, 물걸레 / 거치대 / 디스플레이표시창 / 프리볼트 / 무게: 2.57kg / 색상:틸실버 / 소비전력: 410W / 알레르기인증(BAF) / 미세먼지인증(SLG) / 크기(가로x세로x깊이): 250x1123x215mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 충전시간: 8시간 / 사용시간: 12분 / 배터리: 니켈수소 / 셀프스탠딩 / 무게: 1kg / 색상:에어본+내츄럴그레이 / 소비전력: 48W / 크기(가로x세로x깊이): 342x265x119mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 14.4V / 싸이클론 / 3단계여과 / 충전시간: 4시간 / 사용시간: 30분 / 배터리: 리튬이온 / LED라이트 / 거치대 / 배터리잔량표시 / 브러쉬자동청소 / 셀프스탠딩 / 무게: 2.5kg / 색상:브론즈 / 크기(가로x세로x깊이): 263x1070x150mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 싸이클론 / 충전시간: 3시간30분 / 사용시간: 60분 / 도킹스테이션 / 무게: 2.5kg / 브러쉬: 다이렉트드라이브클리너헤드, 콤비네이션툴, 크레비스노즐</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 충전시간: 5시간 / 사용시간: 40분 / 배터리: 리튬이온 / 브러쉬: 솔형 / 셀프스탠딩 / 무게: 2.7kg / 색상:내추럴그레이 / 소비전력: 120W / 크기(가로x세로x깊이): 260x1100x165mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 18V / 싸이클론에어 / 2단계여과 / 사용시간: 42분 / 브러쉬: 바닥, 틈새, 연장관 / 무게: 1.3kg / 색상:블랙</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 22.2V / 헤파필터 / H13급 / 싸이클론 / BLDC모터 / 흡입력: 22000Pa / 먼지통용량: 0.5L / 충전시간: 4~6시간 / 사용시간: 35분 / 배터리: 리튬이온 / 브러쉬: 바닥, 카펫, 틈새, 연장관 / 거치대 / 배터리잔량표시 / 무게: 2.11kg / 소비전력: 250W</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 물걸레+진공 / 무선형 / 전압: 22.2V / 충전시간: 3~4시간 / 사용시간: 30분 / 배터리: 리튬이온 / 용량: 2200mAh / 물분사 / 셀프스탠딩 / 무게: 3kg / 소비전력: 120W / 오토클리닝 / 거치대</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디형 / 무선형 / 충전시간: 8시간 / 사용시간: 10분 / 배터리: 니켈수소 / 무게: 0.76kg / 소비전력: 48W / 크기(가로x세로x깊이): 103x317x174mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 7.2V / 헤파필터 / 흡입력: 35W / 충전시간: 8시간~10시간 / 사용시간: 12~15분 / 브러쉬: 바닥, 솔형, 틈새 / 무게: 0.8kg / 색상:블랙 / 건습식 / 크기(가로x세로x깊이): 360.3x105.4x111.6mm</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 물걸레전용 / 회전식 / 무선형 / 전압: 14.6V / 충전시간: 2시간 30분 / 사용시간: 60분 / 배터리: 리튬이온 (2개) / 용량: 2750mAh / LED라이트 / 가구손상방지 / 각도조절 / 셀프스탠딩 / 프리볼트 / 무게: 3.7kg / 색상:화이트 / 모터과열방지 / 과충전방지 / 오토스토핑 / 거치대 / 패드: 극세사(벨크로형) / 크기(가로x세로x깊이): 410x1020x205mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디형 / 무선형 / 전압: 18V / 싸이클론 / 3단계여과 / 흡입력: 35AW / 충전시간: 4시간 / 사용시간: 12분 / 배터리: 리튬이온 / 브러쉬: 바닥, 연장관 / 거치대 / 배터리잔량표시 / 프리볼트 / 무게: 1.38kg / 색상:크롬 / 피벗노즐 / 크기(가로x세로x깊이): 270x170x140mm</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 물걸레전용 / 회전식 / 무선형 / 전압: 14.6V / 충전시간: 3시간 / 사용시간: 30분 / 배터리: 리튬이온 / 용량: 2150mAh / 물분사 / 무게: 3.4kg / 색상:블랙 / 스위블기능 / 패드: 극세사(벨크로형) / 크기(가로x세로x깊이): 450x1230x250mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 22.2V / 헤파필터 / H13급 / 싸이클론 / 4단계여과 / DC모터 / 흡입력: 12000Pa / 먼지통용량: 0.55L / 충전시간: 4~5시간 / 사용시간: 40분 / 배터리: 리튬이온 / 용량: 2200mAh / 브러쉬: 바닥, 솔형, 틈새, 침구, 연장관 / LED라이트 / 거치대 / 무게: 2.2kg / 소비전력: 150W / 크기(가로x세로x깊이): 240x1040x211mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 21.9V / 싸이클론 / 충전시간: 3시간 / 사용시간: 20분 / 배터리: 리튬이온 / 브러쉬: 바닥, 솔형, 틈새, 연장관 / LED라이트 / 거치대 / 무게: 2.8kg / 색상:블랙+블루 / 크기(가로x세로x깊이): 345x742x154mm</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 물걸레전용 / 회전식 / 무선형 / 전압: 14.48V / 사용시간: 40분 / 배터리: 리튬이온 / 무게: 3.2kg / 소비전력: 80W / 색상:화이트 / 패드: 극세사(벨크로형) / 크기(가로x세로x깊이): 410x1190x220mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 22.2V / 헤파필터 / 싸이클론 / 흡입력: 7000Pa / 충전시간: 4시간 / 사용시간: 40분 / 배터리: 리튬이온 / 용량: 2200mAh / 브러쉬: 바닥, 솔형, 틈새, 연장관 / 거치대 / 배터리잔량표시 / 무게: 2.8kg / 소비전력: 120W</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 18V / 싸이클론 / 충전시간: 4시간30분 / 사용시간: 35분 / 배터리: 리튬이온 / 브러쉬: 바닥, 솔형, 틈새 / 배터리잔량표시 / 무게: 2.8kg / 색상:샤이니레드 / 소비전력: 80W / 크기(가로x세로x깊이): 190x1105x270mm</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 물걸레전용 / 왕복식 / 무선형 / 전압: 10.86V / 충전시간: 3시간 / 사용시간: 1시간20분 / 배터리: 리튬이온 / 용량: 2050mAh / 각도조절 / 풋터치버튼 / 무게: 3.1kg / 소비전력: 30W / 색상:네이비 / 패드: 극세사(벨크로형)  / 크기(가로x세로x깊이): 270x1180x270mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디형 / 무선형 / 사용시간: 7분 / 색상:블루 / 크기(가로x세로x깊이): 273x170x77mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 헤파필터 / 싸이클론 / 흡입력: 155AW / 충전시간: 5시간 / 사용시간: 40분 / 도킹스테이션 / 프리볼트 / 무게: 2.61kg / 소비전력: 485W / 110V / 변환어댑터: 필요 / 브러쉬: 소프트롤러클리너헤드, 다이렉트드라이브클리너헤드, 미니모토라이즈드툴, 콤비네이션툴, 솔트더스팅브러쉬, 크레비스노즐 / 크기(가로x세로x깊이): 250x1244x224mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 29.6V / 헤파필터 / 4단계여과 / 흡입력: 115W / 흡입력: 18500Pa / 충전시간: 2시간30분 / 용량: 2500mAh / 브러쉬: 바닥, 솔형, 틈새 / LED라이트 / 거치대 / 원격제어 / 프리볼트 / 크기(가로x세로x깊이): 256x1178x157mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 22.2V / 헤파필터 / H13급 / 싸이클론 / 4단계여과 / BLDC모터 / 먼지통용량: 0.55L / 충전시간: 4~5시간 / 사용시간: 30분 / 배터리: 리튬이온 / 브러쉬: 바닥, 솔형, 틈새, 침구, 연장관 / 거치대 / 무게: 2.3kg / 소비전력: 250W / 흡입력: 18000Pa / 크기(가로x세로x깊이): 240x1040x211mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 이중래디얼싸이클론 / 흡입력: 155W / 충전시간: 5시간 / 사용시간: 40분 / 배터리: 리튬이온 / 도킹스테이션 / 무게: 2.63kg / 소비전력: 485W / 브러쉬: 소프트롤러클리너헤드, 다이렉트드라이브헤드, 미니모토라이즈드툴, 업탑어댑터, 익스텐션호스, 미니소프트더스팅브러쉬툴, 콤비네이션툴, 크레비스툴, 매트리스툴, 플렉시크레비스툴 / 크기(가로x세로x깊이): 250x1244x210mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 헤파필터 / 터보싸이클론 / 5단계여과 / 인버터모터 / 흡입력: 140W / 충전시간: 3시간30분 / 사용시간: 80분 / 배터리: 리튬이온 (2개) / 브러쉬: 바닥, 침구 / 거치대 / 무게: 2.7kg / 색상:판타지실버 / 소비전력: 450W / 크기(가로x세로x깊이): 260x1120x270mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 21.6V / 이중래디얼싸이클론 / 흡입력: 100AW / 충전시간: 3시간30분 / 사용시간: 30분 / 배터리: 리튬이온 / 도킹스테이션 / 무게: 2.32kg / 소비전력: 350W / 브러쉬: 소프트롤러클리너헤드, 미니모토라이즈드툴, 콤비네이션툴, 크레비스툴, 플렉시크레비스툴 / 크기(가로x세로x깊이): 250x1243x210mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 22.2V / 헤파필터 / 흡입력: 7000Pa / 충전시간: 4~5시간 / 사용시간: 20~30분 / 배터리: 리튬이온 / 용량: 2200mAh / 브러쉬: 바닥, 솔형, 틈새, 연장관 / 프리볼트 / 무게: 2.3kg / 색상:핑크 / 소비전력: 150W / 110V / 변환어댑터: 필요 / 크기(가로x세로): 280x1100mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 스틱형 / 무선형 / 전압: 21.6V / 싸이클론 / 충전시간: 4시간 / 사용시간: 50분 / 배터리: 리튬이온 / LED라이트 / 거치대 / 배터리잔량표시 / 브러쉬자동청소 / 셀프스탠딩 / 무게: 2.8kg / 색상:다크브로도 / 크기(가로x세로x깊이): 260x1100x160mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 헤파필터 / 싸이클론 / 5단계여과 / 인버터모터 / 흡입력: 150W / 충전시간: 4시간30분 / 사용시간: 40분 / 배터리: 리튬이온 / 브러쉬: 바닥, 솔형, 틈새 / 무게: 2.95kg / 색상:메탈레드 / 소비전력: 450W / 플렉스핸들 / 크기(가로x세로x깊이): 252x1110x315mm</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 물걸레+진공 / 회전식 / 무선형 / 흡입력: 10400Pa / 전압: 14.8V / 3단계여과 / BLDC모터 / 충전시간: 8시간 / 사용시간: 물걸레: 4시간, 진공+물걸레: 40분 / 배터리: 리튬이온 / 용량: 6450mAh / LED라이트 / 각도조절 / 셀프스탠딩 / 무게: 4.6kg / 색상:딥블랙, 로즈핑크 / 패드: 극세사(벨크로형) / 크기(가로x세로x깊이): 360x1143x326mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 32.4V / 헤파필터 / 싸이클론 / 5단계여과 / 인버터모터 / 흡입력: 150W / 충전시간: 4시간 30분 / 사용시간: 40분 / 배터리: 리튬이온 (2개) / 브러쉬: 바닥, 솔형, 틈새, 침구, 연장관 / 무게: 2.95kg / 색상:메탈블랙 / 소비전력: 450W / 플렉스핸들 / 크기(가로x세로x깊이): 252x1110x315mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 스틱형 / 무선형 / 전압: 22.2V / 헤파필터 / H13급 / 싸이클론 / 3단계여과 / BLDC모터 / 흡입력: 20000Pa / 먼지통용량: 0.8L / 충전시간: 6시간 / 사용시간: 50분 / 배터리: 리튬이온 / 용량: 2200mAh / 브러쉬: 바닥, 틈새 / 거치대 / 배터리잔량표시 / 무게: 1.3kg / 색상:골드, 레드, 블루 / 소비전력: 150W</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 헤파필터 / 터보싸이클론 / 5단계여과 / 인버터모터 / 흡입력: 140W / 충전시간: 3시간30분 / 사용시간: 80분 / 배터리: 리튬이온 (2개) / 브러쉬: 바닥, 카펫, 침구 / 거치대 / 무게: 2.7kg / 색상:판타지실버 / 소비전력: 450W / 크기(가로x세로x깊이): 260x1120x270mm</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 물걸레전용 / 왕복식 / 무선형 / 전압: 10.86V / 충전시간: 3시간 / 사용시간: 80분 / 배터리: 리튬이온 / 용량: 2050mAh / 각도조절 / 풋터치버튼 / 무게: 3.1kg / 소비전력: 30W / 색상:화이트 / 패드: 극세사(벨크로형)  / 크기(가로x세로x깊이): 270x1180x270mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 22.2V / 헤파필터 / H13급 / 싸이클론 / 흡입력: 160W / 먼지통용량: 0.8L / 충전시간: 4시간30분 / 사용시간: 30분 / 배터리: 리튬이온 / 용량: 2150mAh / 브러쉬: 바닥, 솔형, 틈새, 연장관 / LED라이트 / 거치대 / 프리볼트 / 무게: 3.7kg / 소비전력: 160W / 크기(가로x세로x깊이): 220x1150x250mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 21.9V / 헤파필터 / 싸이클론 / 5단계여과 / 인버터모터 / 흡입력: 200W / 먼지통용량: 0.5L / 충전시간: 3시간30분 / 사용시간: 120분 / 배터리: 리튬이온 (2개) / 브러쉬: 바닥, 솔형, 틈새, 침구, 연장관 / 거치대 / 디스플레이표시창 / 프리볼트 / 무게: 2.7kg / 색상:티탄+그레이 / 소비전력: 550W / 알레르기인증(BAF) / 미세먼지인증(SLG) / 크기(가로x세로x깊이): 250x1136x215mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 22.2V / 싸이클론 / 흡입력: 7000Pa / 먼지통용량: 0.35L / 충전시간: 4~5시간 / 사용시간: 40분 / 배터리: 리튬이온 / 용량: 2200mAh / 브러쉬: 바닥, 솔형, 틈새, 연장관 / 프리볼트 / 무게: 2.3kg / 소비전력: 120W / 크기(가로x세로x깊이): 272x1200x210mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 18V / 싸이클론 / 3단계여과 / 충전시간: 4시간 / 사용시간: 45분 / 배터리: 리튬이온 / 브러쉬: 바닥, 솔형 / LED라이트 / 거치대 / 배터리잔량표시 / 브러쉬자동청소 / 셀프스탠딩 / 무게: 2.6kg / 색상:초콜릿브라운메탈릭 / 크기(가로x세로x깊이): 263x1070x150mm</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 물걸레전용 / 회전식 / 무선형 / 전압: 14.4V / 사용시간: 50분 / LED라이트 / 각도조절 / 셀프스탠딩 / 무게: 3.2kg / 소비전력: 80W / 색상:화이트, 와인 / 패드: 극세사(벨크로형) / 크기(가로x세로x깊이): 420x1230x230mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 21.6V / 이중래디얼싸이클론 / 흡입력: 155AW / 충전시간: 5시간 / 사용시간: 40분 / 배터리: 리튬이온 / 도킹스테이션 / 무게: 2.63kg / 소비전력: 485W / 브러쉬: 소프트롤러클리너헤드, 미니모토라이즈드툴, 콤비네이션툴, 크레비스툴, 플렉시크레비스툴 / 크기(가로x세로x깊이): 250x1244x210mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 헤파필터 / 터보싸이클론 / 5단계여과 / 인버터모터 / 흡입력: 140W / 충전시간: 3시간30분 / 사용시간: 40분 / 배터리: 리튬이온 / 브러쉬: 바닥 / 거치대 / 무게: 2.7kg / 색상:아쿠아블루 / 소비전력: 450W / 알레르기인증(BAF) / 미세먼지인증(SLG) / 크기(가로x세로x깊이): 260x1120x270mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 헤파필터 / 싸이클론 / 흡입력: 115W / 충전시간: 5시간 / 사용시간: 40분 / 배터리: 리튬이온 / 도킹스테이션 / 무게: 2.63kg / 브러쉬: 소프트롤러클리너헤드, 미니모토라이즈드툴, 콤비네이션툴, 크레비스노즐, 업탑아답터, 미니소프트더스팅, 와이드노즐 / 크기(가로x세로x깊이): 250x1244x210mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 21.6V / 이중래디얼싸이클론 / 흡입력: 155AW / 충전시간: 5시간 / 사용시간: 40분 / 배터리: 리튬이온 / 도킹스테이션 / 무게: 2.63kg / 소비전력: 485W / 브러쉬: 소프트롤러클리너헤드, 다이렉트드라이브헤드, 미니모토라이즈드툴, 콤비네이션툴, 크레비스툴, 스토번더스트브러시툴 / 크기(가로x세로x깊이): 250x1244x210mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 22.2V / 싸이클론 / DC모터 / 흡입력: 17000Pa / 충전시간: 4~5시간 / 사용시간: 30분 / 배터리: 리튬이온 / 용량: 2200mAh / 브러쉬: 바닥, 솔형, 틈새, 연장관 / 배터리잔량표시 / 무게: 2.3kg / 색상:화이트 / 소비전력: 250W / 크기(가로x세로x깊이): 240x1040x212mm</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 물걸레전용 / 왕복식 / 무선형 / 전압: 14.8V / 충전시간: 3시간 / 사용시간: 60분 / 용량: 2000mAh / 가구손상방지 / 셀프스탠딩 / 풋터치버튼 / 무게: 3.1kg / 소비전력: 30W / 색상:화이트, 그린, 오렌지 / 패드: 극세사(벨크로형) / 크기(가로x세로x깊이): 270x1180x270mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 21.6V / 듀얼싸이클론 / 흡입력: 155AW / 충전시간: 5시간 / 사용시간: 40분 / 배터리: 리튬이온 / 도킹스테이션 / 무게: 2.63kg / 소비전력: 485W / 브러쉬: 소프트롤러클리너헤드, 다이렉트드라이브헤드, 미니모토라이즈드툴, 콤비네이션툴, 크레비스툴, 업탑어댑터, 소프트더스팅브러쉬, 익스텐션호스, 와이드노즐 / 크기(가로x세로x깊이): 250x1244x210mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 헤파필터 / 터보싸이클론 / 5단계여과 / 인버터모터 / 흡입력: 140W / 충전시간: 3시간30분 / 사용시간: 80분 / 배터리: 리튬이온 (2개) / 브러쉬: 바닥 / 거치대 / 무게: 2.7kg / 색상:보헤미안레드 / 소비전력: 450W / 크기(가로x세로x깊이): 260x1120x270mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 스틱형 / 무선형 / 전압: 25.2V / 싸이클론 / 충전시간: 4시간 / 사용시간: 60분 / 배터리: 리튬이온 / LED라이트 / 거치대 / 배터리잔량표시 / 브러쉬자동청소 / 셀프스탠딩 / 무게: 3kg / 색상:텅스텐 / 크기(가로x세로x깊이): 260x1100x160mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 이중래디얼싸이클론 / 흡입력: 115AW / 충전시간: 5시간 / 사용시간: 40분 / 배터리: 리튬이온 / 도킹스테이션 / 무게: 2.63kg / 소비전력: 425W / 브러쉬: 소프트롤러클리너헤드, 다이렉트드라이브헤드, 미니모터라이즈드툴, 콤비네이션툴, 크레비스툴, 플렉시크레비스툴, 업탑어댑터, 매트리스툴, 미니소프트더스팅브러쉬툴, 익스텐션호스 / 크기(가로x세로x깊이): 250x1244x210mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 21.6V / 이중래디얼싸이클론 / 흡입력: 100AW / 충전시간: 3시간30분 / 사용시간: 20분 / 배터리: 리튬이온 / 도킹스테이션 / 무게: 2.1kg / 색상:실버 / 소비전력: 350W / 브러쉬: 카본파이버모터헤드, 콤비네이션툴 / 크기(가로x세로x깊이): 208x1180x211mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 스틱형 / 무선형 / 싸이클론 / 흡입력: 115AW / 충전시간: 5시간 / 사용시간: 40분 / 배터리: 리튬이온 / 도킹스테이션 / 무게: 2.55kg / 브러쉬: 다이렉트드라이브헤드, 미니모토라이즈드툴, 콤비네이션툴, 크레비스노즐, 업탑아답터, 미니소프트더스팅, 와이드노즐 / 크기(가로x세로x깊이): 250x1244x210mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 22.2V / 헤파필터 / 싸이클론 / 충전시간: 4시간 / 사용시간: 40분 / 배터리: 리튬이온 / 브러쉬: 바닥, 솔형, 틈새, 연장관 / 거치대 / 무게: 2.3kg / 크기(가로x세로x깊이): 272x210x120mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 21.6V / 헤파필터 / H13급 / 싸이클론 / BLDC모터 / 흡입력: 19000Pa / 먼지통용량: 0.5L / 충전시간: 4~5시간 / 사용시간: 30분 / 배터리: 리튬이온 / 용량: 2000mAh / 브러쉬: 바닥, 솔형, 틈새, 연장관 / LED라이트 / 무게: 2.5kg / 색상:화이트+블루 / 소비전력: 250W</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 22.2V / 헤파필터 / 먼지통용량: 0.5L / 충전시간: 4~5시간 / 사용시간: 35분 / 브러쉬: 바닥, 솔형, 틈새, 연장관 / 프리볼트 / 무게: 1.5kg / 크기(가로x세로x깊이): 230x1040x210mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 21.6V / 싸이클론 / 흡입력: 130W / 충전시간: 5시간 / 사용시간: 40분 / 용량: 2050mAh / 브러쉬: 바닥, 솔형, 틈새, 연장관 / LED라이트 / 거치대 / 프리볼트 / 무게: 2.1kg / 크기(가로x세로x깊이): 360x294x230mm</t>
+  </si>
+  <si>
     <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 싸이클론 / 흡입력: 185AW / 먼지통용량: 0.54L / 충전시간: 4시간30분 / 사용시간: 1시간 / 거치대 / 도킹스테이션 / 디스플레이표시창 / 무게: 2.95kg / 색상:니켈블루 / 브러쉬: 소프트롤러클리너헤드, 하이토크드라이브헤드, 콤비네이션툴, 크레비스툴, 미니모터툴, 소프트더스팅브러쉬, 매트리스툴, 스터번더트브러쉬 / 크기(가로x세로x깊이): 250x1280x261mm</t>
   </si>
   <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 21.9V / 헤파필터 / 싸이클론 / 5단계여과 / 인버터모터 / 흡입력: 200W / 먼지통용량: 0.5L / 충전시간: 3시간30분 / 사용시간: 120분 / 배터리: 리튬이온 (2개) / 브러쉬: 바닥, 솔형, 틈새, 침구, 연장관 / 거치대 / 디스플레이표시창 / 프리볼트 / 무게: 2.7kg / 색상:티탄+그레이 / 소비전력: 550W / 알레르기인증(BAF) / 미세먼지인증(SLG) / 크기(가로x세로x깊이): 250x1136x215mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 4단계여과 / 충전시간: 4시간 / 사용시간: 42분 / 배터리: 리튬이온 / LED라이트 / 배터리잔량표시 / 브러쉬자동청소 / 셀프스탠딩 / 무게: 3.22kg / 알레르기인증(BAF) / 브러쉬: 미니침구, 소파용, 긴틈새, 2in1 / 크기(가로x세로x깊이): 303x690x162mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 25.2V / 싸이클론 / 흡입력: 160AW / 충전시간: 3시간30분 / 사용시간: 60분 / 배터리: 리튬이온 / 도킹스테이션 / 무게: 2.5kg / 소비전력: 525W / 브러쉬: 소프트롤러헤드, 토크드라이브클리너헤드, 콤비네이션툴, 크레비스툴, 미니모터툴, 플렉시크레비스툴, 소프트더스팅브러시, 연장호스 / 크기(가로x세로x깊이): 250x1241x256mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 21.9V / 헤파필터 / 싸이클론 / 5단계여과 / 인버터모터 / 흡입력: 200W / 먼지통용량: 0.5L / 충전시간: 3시간30분 / 사용시간: 120분 / 배터리: 리튬이온 (2개) / 브러쉬: 바닥, 솔형, 틈새, 침구, 물걸레, 연장관 / 거치대 / 디스플레이표시창 / 물걸레 / 프리볼트 / 무게: 2.7kg / 색상:티탄+그레이 / 소비전력: 550W / 알레르기인증(BAF) / 미세먼지인증(SLG) / 크기(가로x세로x깊이): 250x1136x215mm</t>
-  </si>
-  <si>
-    <t>차량용청소기 / 무선 / 흡입력: 5,800Pa / 최대출력: 80W / 헤파필터 / 추가노즐: 틈새, 솔브러쉬 / LED라이트 / 사용시간: 15분 / 충전시간: 1시간30분 / 크기: 298x70mm / 무게: 560g</t>
-  </si>
-  <si>
-    <t>물걸레청소기 / 스틱형 / 물걸레전용 / 회전식 / 무선형 / 전압: 14.6V / 충전시간: 4시간 / 사용시간: 30분 / 배터리: 리튬이온 / LED라이트 / 셀프스탠딩 / 가구손상방지 / 각도조절 / 무게: 3.6kg / 색상:블랙 / 모터과열방지 / 과충전방지 / 오토스토핑 / 패드: 극세사(벨크로형) / 크기(가로x세로x깊이): 410x860x256mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 25.2V / 싸이클론 / 충전시간: 3시간30분 / 사용시간: 60분 / 배터리: 리튬이온 / 도킹스테이션 / 무게: 2.5kg / 소비전력: 525W / 브러쉬: 소프트롤러클리너헤드, 다이렉트드라이브헤드, 미니모토라이즈드툴, 콤비네이션툴, 크레비스툴, 플렉시크레비스툴, 미니소프트더스팅브러쉬툴, 익스텐션호스 / 크기(가로x세로x깊이): 250x1241x256mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 22.2V / 싸이클론 / 먼지통용량: 0.55L / 충전시간: 4~5시간 / 사용시간: 45분 / 배터리: 리튬이온 / 브러쉬: 바닥, 솔형, 틈새, 연장관 / LED라이트 / 배터리잔량표시 / 프리볼트 / 무게: 2.2kg / 흡입력: 9000Pa / 크기(가로x세로x깊이): 240x1040x210mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 싸이클론 / 흡입력: 185AW / 먼지통용량: 0.54L / 충전시간: 4시간30분 / 사용시간: 1시간 / 거치대 / 도킹스테이션 / 디스플레이표시창 / 무게: 2.95kg / 색상:니켈블루 / 브러쉬: 소프트롤러클리너헤드, 하이토크드라이브헤드, 콤비네이션툴, 크레비스툴, 미니모터툴, 소프트더스팅브러쉬, 매트리스툴 / 크기(가로x세로x깊이): 261x1280x250mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 21.9V / 헤파필터 / 싸이클론 / 5단계여과 / 인버터모터 / 흡입력: 200W / 먼지통용량: 0.5L / 충전시간: 3시간30분 / 사용시간: 120분 / 배터리: 리튬이온 (2개) / 브러쉬: 바닥, 솔형, 틈새, 침구, 물걸레, 연장관 / 거치대 / 디스플레이표시창 / 물걸레 / 프리볼트 / 무게: 2.7kg / 색상:티탄+블루 / 소비전력: 550W / 알레르기인증(BAF) / 미세먼지인증(SLG) / 크기(가로x세로x깊이): 250x1136x215mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 22.2V / 헤파필터 / H13급 / 싸이클론 / 4단계여과 / BLDC모터 / 먼지통용량: 0.55L / 충전시간: 4~5시간 / 사용시간: 30분 / 배터리: 리튬이온 / 브러쉬: 바닥, 솔형, 틈새, 침구, 연장관 / 거치대 / 무게: 2.3kg / 색상:골드 / 소비전력: 250W / 흡입력: 22000Pa / 크기(가로x세로x깊이): 240x1040x211mm</t>
-  </si>
-  <si>
-    <t>차량용청소기 / 유무선 / 12V / 흡입력: 5,000Pa / 최대출력: 120W / 헤파필터 / 스테인리스 필터 / 추가노즐: 틈새, 솔브러쉬, 연장호스 / 사용시간: 30분 / 코드길이: 4.5m / 크기: 375x84x86mm / 색상: 네이비, 블랙</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 헤파필터 / 2중터보싸이클론 / 5단계여과 / 인버터모터 / 흡입력: 140W / 충전시간: 3시간30분 / 사용시간: 40분 / 배터리: 리튬이온 / 브러쉬: 바닥, 솔형, 틈새, 매트리스 / 거치대 / 무게: 2.7kg / 색상:판타지실버 / 소비전력: 450W / 크기(가로x세로x깊이): 260x1120x270mm</t>
-  </si>
-  <si>
-    <t>물걸레청소기 / 스틱형 / 물걸레전용 / 회전식 / 무선형 / 전압: 14.48V / 충전시간: 3시간 / 사용시간: 30분 / 각도조절 / 무게: 3.14kg / 소비전력: 70W / 색상:블랙, 화이트 / 크기(가로x세로x깊이): 411x1105x192mm</t>
-  </si>
-  <si>
-    <t>물걸레청소기 / 스틱형 / 물걸레전용 / 왕복식 / 무선형 / 전압: 12.6V / 충전시간: 3시간 / 사용시간: 50분 / 배터리: 리튬이온 / 물분사 / LED라이트 / 프리볼트 / 무게: 2.4kg / 색상:화이트 / 110V / 변환어댑터: 필요</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 인버터모터 / 충전시간: 4시간30분 / 사용시간: 40분(강), 70분(약) / 배터리: 리튬이온 / 브러쉬: 바닥, 솔형, 틈새 / LED라이트 / 배터리잔량표시 / 무게: 2.8kg / 색상:샤이니레드 / 소비전력: 90W / 크기(가로x세로x깊이): 190x1105x270mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 21.6V / 싸이클론 / 흡입력: 100AW / 충전시간: 3시간30분 / 사용시간: 30분 / 배터리: 리튬이온 / 도킹스테이션 / 무게: 2.32kg / 소비전력: 350W / 브러쉬: 소프트롤러클리너헤드, 미니모토라이즈드툴, 콤비네이션툴, 크레비스툴, 미니소프트더스팅브러쉬툴 / 크기(가로x세로x깊이): 250x1243x210mm</t>
-  </si>
-  <si>
-    <t>물걸레청소기 / 스틱형 / 물걸레전용 / 회전식 / 무선형 / 전압: 14.6V / 충전시간: 2시간30분 / 사용시간: 30분 / 배터리: 리튬이온 / LED라이트 / 셀프스탠딩 / 가구손상방지 / 각도조절 / 프리볼트 / 무게: 3.7kg / 색상:블랙 / 배터리잔량표시 / 모터과열방지 / 과충전방지 / 오토스토핑 / 패드: 극세사(벨크로형) / 크기(가로x세로x깊이): 410x1180x205mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 헤파필터 / 2중터보싸이클론 / 5단계여과 / 인버터모터 / 충전시간: 3시간30분 / 사용시간: 80분 / 배터리: 리튬이온 (2개) / 브러쉬: 바닥, 솔형, 틈새, 물걸레 / 거치대 / 물걸레 / 무게: 2.7kg / 색상:아이언그레이 / 소비전력: 450W / 3단계물분사조절 / 크기(가로x세로x깊이): 260x1120x270mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 25.2V / 헤파필터 / 멀티싸이클론 / 5단계여과 / BLDC모터 / 흡입력: 120AW / 먼지통용량: 0.5L / 충전시간: 3시간30분 / 사용시간: 1시간 / 배터리: 리튬이온 / 브러쉬: 바닥, 솔형, 틈새, 침구, 연장관 / 거치대 / 무게: 1.5kg / 색상:화이트 / 소비전력: 400W / 크기(가로x세로): 258x1226mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 29.6V / 싸이클론 / 3단계여과 / BLDC모터 / 먼지통용량: 0.5L / 충전시간: 2~3시간 / 사용시간: 1시간 / 배터리: 리튬이온 / 브러쉬: 바닥, 솔형, 틈새, 침구, 연장관 / LED라이트 / 거치대 / 무게: 2.5kg / 소비전력: 400W / 흡입력: 25000Pa / 크기(가로x세로x깊이): 256x1172x217mm</t>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 21.6V / 헤파필터 / 싸이클론 / 5단계여과 / 인버터모터 / 흡입력: 150W / 먼지통용량: 0.5L / 충전시간: 3시간30분 / 사용시간: 40분 / 배터리: 리튬이온 / 브러쉬: 바닥, 솔형, 틈새, 침구, 물걸레, 연장관 / 거치대 / 디스플레이표시창 / 프리볼트 / 무게: 2.57kg / 색상:틸실버 / 소비전력: 410W / 크기(가로x세로x깊이): 250x1123x215mm</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 물걸레전용 / 회전식 / 무선형 / 전압: 14.6V / 충전시간: 3시간 / 사용시간: 30분 / 배터리: 리튬이온 / 물분사 / LED라이트 / 각도조절 / 무게: 4kg / 색상:블랙 / 배터리잔량표시 / 패드: 극세사(벨크로형) / 크기(가로x세로x깊이): 430x1110x240mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 이중래디얼싸이클론 / 충전시간: 5시간 / 사용시간: 40분 / 배터리: 리튬이온 / 도킹스테이션 / 무게: 2.63kg / 브러쉬: 소프트롤러클리너헤드, 다이렉트드라이브헤드, 미니모토라이즈드툴, 콤비네이션툴, 크레비스툴 / 크기(가로x세로x깊이): 210x1244x250mm</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 물걸레전용 / 회전식 / 무선형 / 충전시간: 3~4시간 / 사용시간: 5시간 / 배터리: 리튬이온 / 각도조절 / 셀프스탠딩 / 무게: 1.08kg / 패드: 극세사(벨크로형) / 크기(가로x세로x깊이): 290x1250x135mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 헤파필터 / 브러쉬: 바닥, 틈새, 연장관 / LED라이트 / 무게: 1.4kg / 색상:블랙</t>
+  </si>
+  <si>
+    <t>침구청소기 / 핸디형 / 무선형 / 전압: 18.5V / 흡입력: 6000Pa / 충전시간: 3~4시간 / 사용시간: 25분 / 용량: 2200mAh / 청소모드: UV살균, 진동, 흡입 / 진동수: 8000회(분당) / 색상:블루 / 크기(가로x세로x깊이): 245x160x205mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 22.2V / 헤파필터 / 싸이클론 / 3단계여과 / BLDC모터 / 흡입력: 17000Pa / 먼지통용량: 0.5L / 충전시간: 4~5시간 / 배터리: 리튬이온 / 용량: 2200mAh / 브러쉬: 바닥, 솔형, 틈새, 연장관 / LED라이트 / 거치대 / 무게: 2.5kg / 색상:화이트 / 소비전력: 160W / 크기(가로x세로x깊이): 230x1050x120mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 9.6V / 헤파필터 / 충전시간: 8~10시간 / 사용시간: 15분 / 배터리: 니켈수소 / 브러쉬: 바닥, 솔형, 틈새 / 배터리잔량표시 / 무게: 0.8kg / 색상:오렌지, 퍼플 / 크기(가로x세로x깊이): 103x371x110mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 21.9V / 헤파필터 / 싸이클론 / 4단계여과 / BLDC모터 / 흡입력: 17000Pa / 먼지통용량: 0.7L / 충전시간: 4~5시간 / 사용시간: 35분 / 배터리: 리튬이온 / 용량: 2150mAh / 브러쉬: 바닥, 솔형, 틈새, 연장관 / LED라이트 / 배터리잔량표시 / 셀프스탠딩 / 무게: 3.8kg / 크기(가로x세로x깊이): 122x225x243mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 헤파필터 / 싸이클론 / DC모터 / 먼지통용량: 0.6L / 배터리: 리튬이온 / 브러쉬: 바닥, 솔형, 틈새 / LED라이트 / 거치대 / 셀프스탠딩 / 무게: 2.35kg / 색상:블랙 / 소비전력: 120W / 크기(가로x세로): 260x1200mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 25.2V / 싸이클론 / 5단계여과 / 먼지통용량: 0.3L / 충전시간: 4시간 / 사용시간: 55분 / 배터리: 리튬이온 / LED라이트 / 거치대 / 브러쉬자동청소 / 셀프스탠딩 / 무게: 2.75kg / 색상:인디고블루 / 브러쉬: 바닥, 틈새, 더스팅, 사선 / 크기(가로x세로x깊이): 256x1100x130mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디형 / 무선형 / 전압: 12V / 충전시간: 5~12시간 / 사용시간: 35분 / 브러쉬: 솔형, 틈새 / 거치대 / 색상:샤이닝브라운 / 소비전력: 90W / 크기(가로x세로): 65x390mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디형 / 무선형 / 전압: 4.8V / 싸이클론 / 흡입력: 60W / 충전시간: 8시간 / 사용시간: 9분 / 브러쉬: 바닥, 틈새, 연장관 / 거치대 / 색상:블랙+레드 / 크기(가로x세로x깊이): 200x138x400mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 이중래디얼싸이클론 / 흡입력: 115AW / 충전시간: 5시간 / 사용시간: 40분 / 배터리: 리튬이온 / 도킹스테이션 / 무게: 2.63kg / 브러쉬: 다이렉트드라이브헤드, 미니모토라이즈드툴, 콤비네이션툴, 크레비스툴, 미니소프트더스팅브러쉬툴/ 크기(가로x세로x깊이): 250x1244x210mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 22.2V / 헤파필터 / 싸이클론 / 5단계여과 / 흡입력: 4500Pa / 충전시간: 2시간30분 / 사용시간: 20분 / 배터리: 리튬이온 / 용량: 2000mAh / 브러쉬: 바닥, 틈새, 침구, 연장관 / 거치대 / 무게: 0.8kg / 색상:블랙, 화이트 / 소비전력: 80W</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 유선형 / 헤파필터 / 싸이클론 / 브러쉬: 바닥, 틈새, 연장관 / 무게: 1.8kg / 색상:화이트+그린 / 소비전력: 600W / 각도조절 / 이동바퀴 / 크기(가로x세로x깊이): 240x1027x130mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 21.9V / 헤파필터 / 싸이클론 / 5단계여과 / 인버터모터 / 흡입력: 200W / 먼지통용량: 0.5L / 충전시간: 3시간30분 / 사용시간: 120분 / 배터리: 리튬이온 (2개) / 브러쉬: 바닥, 솔형, 틈새, 물걸레, 연장관 / 거치대 / 디스플레이표시창 / 물걸레 / 프리볼트 / 무게: 2.7kg / 색상:티탄그레이 / 소비전력: 550W / 알레르기인증(BAF) / 미세먼지인증(SLG) / 크기(가로x세로x깊이): 250x1136x215mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 25.2V / 싸이클론 / 흡입력: 160AW / 먼지통용량: 0.5L / 충전시간: 3시간30분 / 사용시간: 60분 / 배터리: 리튬이온 / 도킹스테이션 / 무게: 2.5kg / 색상:블루 / 소비전력: 525W / 브러쉬: 소프트롤러클리너헤드, 미니모터툴, 콤비네이션툴, 크레비스툴, 매트리스툴, 미니소프트더스팅브러쉬 / 크기(가로x세로x깊이): 250x1241x256mm</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 물걸레전용 / 회전식 / 무선형 / 전압: 14.6V / 충전시간: 2시간30분 / 사용시간: 30분 / 배터리: 리튬이온 / 용량: 2750mAh / LED라이트 / 가구손상방지 / 각도조절 / 셀프스탠딩 / 프리볼트 / 무게: 3.7kg / 색상:화이트 / 배터리잔량표시 / 모터과열방지 / 과충전방지 / 오토스토핑 / 패드: 극세사(벨크로형) / 크기(가로x세로x깊이): 410x1020x205mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 21.9V / 헤파필터 / 싸이클론 / 5단계여과 / 인버터모터 / 흡입력: 200W / 먼지통용량: 0.5L / 충전시간: 3시간30분 / 사용시간: 120분 / 배터리: 리튬이온 (2개) / 브러쉬: 바닥, 솔형, 틈새, 침구, 연장관 / 거치대 / 디스플레이표시창 / 프리볼트 / 무게: 2.7kg / 색상:티탄+블루 / 소비전력: 550W / 알레르기인증(BAF) / 미세먼지인증(SLG) / 크기(가로x세로x깊이): 250x1136x215mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 스틱형 / 무선형 / 전압: 36V / 싸이클론 / 5단계여과 / 충전시간: 6시간 / 사용시간: 60분 / 배터리: 리튬이온 / LED라이트 / 거치대 / 배터리잔량표시 / 셀프스탠딩 / 무게: 4.1kg / 색상:칠리레드 / 알레르기인증(BAF) / 브러쉬: 침구, 3in1 / 플렉스리프트 / 바닥감지 / 크기(가로x세로x깊이): 215x1200x249mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 32.4V / 헤파필터 / 싸이클론 / 5단계여과 / 인버터모터 / 흡입력: 150W / 충전시간: 4시간 30분 / 사용시간: 40분 / 배터리: 리튬이온 / 브러쉬: 바닥, 카펫, 솔형, 틈새, 연장관 / 무게: 2.95kg / 색상:에어본블랙 / 소비전력: 450W / 크기(가로x세로x깊이): 252x1110x315mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 25.2V / 싸이클론 / 충전시간: 3시간30분 / 사용시간: 60분 / 도킹스테이션 / 무게: 2.5kg / 소비전력: 525W / 브러쉬: 소프트롤러클리너헤드, 다이렉트드라이브헤드, 미니모토라이즈드툴, 콤비네이션툴, 크레비스툴, 익스텐션호스, 업탑어댑터, 매트리스툴, 하트플로어툴 / 크기(가로x세로x깊이): 250x1241x256mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 18V / 4단계여과 / 충전시간: 4시간 / 사용시간: 48분 / 배터리: 리튬이온 / 브러쉬: 바닥, 틈새 / LED라이트 / 배터리잔량표시 / 브러쉬자동청소 / 셀프스탠딩 / 무게: 3.01kg / 색상:타이탄블루 / 알레르기인증(BAF) / 크기(가로x세로x깊이): 303x690x162mm</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 어댑터 / CLEANFLY, COCLEAN 전용</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 25.2V / 싸이클론 / 흡입력: 160AW / 먼지통용량: 0.54L / 충전시간: 3시간30분 / 사용시간: 1시간 / 배터리: 리튬이온 / 도킹스테이션 / 무게: 2.5kg / 소비전력: 525W / 브러쉬: 소프트롤러헤드, 토크드라이브클리너헤드, 콤비네이션툴, 크레비스툴, 미니모터툴, 플렉시크레비스툴, 소프트더스팅브러시, 업탑어댑터, 스터번더트브러쉬툴 / 크기(가로x세로x깊이): 256x1241x250mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 14.4V / 싸이클론 / 3단계여과 / 충전시간: 4시간 / 사용시간: 30분 / 배터리: 리튬이온 / LED라이트 / 거치대 / 배터리잔량표시 / 브러쉬자동청소 / 셀프스탠딩 / 무게: 2.5kg / 색상:모스그린 / 브러쉬: 소파용, 연장호스, 긴틈새, 미니침구 / 크기(가로x세로x깊이): 263x1070x150mm</t>
+  </si>
+  <si>
+    <t>업소용청소기 / 건습식 / 무선형 / 전압: 18V / 헤파필터 / 싸이클론에어 / 먼지통 / 탱크용량: 10L / 연장관 / 색상:네이비 / 브러쉬: 칼형 / 사용시간: 24분</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 21.9V / 헤파필터 / 싸이클론 / 5단계여과 / 인버터모터 / 흡입력: 200W / 먼지통용량: 0.5L / 충전시간: 3시간30분 / 사용시간: 60분 / 배터리: 리튬이온 / 브러쉬: 바닥, 솔형, 틈새, 침구, 연장관 / 거치대 / 디스플레이표시창 / 프리볼트 / 무게: 2.7kg / 색상:티탄모노크롬 / 소비전력: 550W / 알레르기인증(BAF) / 미세먼지인증(SLG) / 크기(가로x세로x깊이): 250x1136x215mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 15V / 충전시간: 3시간 / 사용시간: 75분 / 배터리: 리튬이온 / 브러쉬: 바닥, 틈새 / 무게: 1.25kg / 색상:클리어화이트, 옐로우그린 / 크기(가로x세로x깊이): 220x963x135mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 22.2V / 헤파필터 / H13급 / 싸이클론 / 4단계여과 / BLDC모터 / 흡입력: 22000Pa / 먼지통용량: 0.55L / 충전시간: 4~5시간 / 사용시간: 35분 / 배터리: 리튬이온 / 용량: 2200mAh / 브러쉬: 바닥, 솔형, 틈새, 연장관 / 거치대 / 무게: 2.3kg / 소비전력: 250W / 크기(가로x세로x깊이): 240x1024x211mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 25.2V / 헤파필터 / 멀티싸이클론 / 5단계여과 / BLDC모터 / 흡입력: 120AW / 흡입력: 20000Pa / 먼지통용량: 0.5L / 충전시간: 3시간30분 / 사용시간: 1시간 / 배터리: 리튬이온 / 용량: 2500mAh / 브러쉬: 바닥, 솔형, 틈새, 침구, 연장관 / 거치대 / 무게: 1.5kg / 색상:화이트 / 소비전력: 400W / 크기(가로x세로): 258x1226mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 싸이클론 / 충전시간: 4시간30분 / 사용시간: 1시간 / 거치대 / 도킹스테이션 / 디스플레이표시창 / 브러쉬: 하이토크클리너헤드, 미니모터라이즈드툴, 콤비네이션툴, 크레비스툴, 미니소프트더스팅브러쉬  / 크기(가로x세로x깊이): 250x1257x2646mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 헤파필터 / H13급 / BLDC모터 / 먼지통용량: 0.55L / 충전시간: 2시간30분 / 사용시간: 1시간 / 배터리: 리튬이온 / 브러쉬: 바닥, 솔형, 틈새 / 거치대 / 무게: 0.9kg / 색상:마쉬멜로우+화이트 / 소비전력: 90W / 스마트메모리 / 크기(가로x세로x깊이): 222x1020x200mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 30V / 헤파필터 / H13급 / BLDC모터 / 흡입력: 22000Pa / 먼지통용량: 0.5L / 충전시간: 5시간 / 사용시간: 1시간 / 용량: 2500mAh / 브러쉬: 바닥, 솔형, 틈새, 침구 / 거치대 / 배터리잔량표시 / 프리볼트 / 색상:화이트 / 소비전력: 350W</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 14.4V / 헤파필터 / 흡입력: 5500Pa / 먼지통용량: 0.6L / 충전시간: 4시간 / 사용시간: 30분 / 배터리: 리튬이온 / 용량: 2200mAh / 브러쉬: 바닥, 솔형, 틈새, 연장관 / 셀프스탠딩 / 색상:화이트 / 소비전력: 100W / 크기(가로x세로x깊이): 235x1150x175mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 25.2V / 싸이클론 / 충전시간: 3시간30분 / 사용시간: 60분 / 도킹스테이션 / 무게: 2.5kg / 소비전력: 525W / 브러쉬: 다이렉트드라이브클리너헤드, 미니모토라이즈드툴, 콤비네이션툴, 크레비스노즐, 소프트더스팅브러시 / 크기(가로x세로x깊이): 250x1241x256mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 29.6V / 헤파필터 / H13급 / 싸이클론 / BLDC모터 / 흡입력: 25000Pa / 먼지통용량: 0.5L / 충전시간: 2~3시간 / 사용시간: 50분 / 배터리: 리튬이온 / 용량: 2000mAh / 브러쉬: 바닥, 솔형, 틈새, 연장관 / LED라이트 / 거치대 / 무게: 2.5kg / 색상:블루 / 소비전력: 400W / 크기(가로x세로x깊이): 256x1172x217mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 22.2V / 헤파필터 / H11급 / 싸이클론 / 2단계여과 / BLDC모터 / 흡입력: 20000Pa / 먼지통용량: 0.8L / 충전시간: 3시간 / 사용시간: 40분 / 용량: 2200mAh / 브러쉬: 바닥, 솔형, 틈새 / LED라이트 / 거치대 / 배터리잔량표시 / 무게: 2.5kg / 색상:실버+블랙 / 소비전력: 200W / 크기(가로x세로x깊이): 260x1110x220mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디형 / 무선형 / 전압: 14V / 헤파필터 / H13급 / 싸이클론 / BLDC모터 / 흡입력: 11000Pa / 충전시간: 4시간 / 사용시간: 20분 / 용량: 500mAh / 브러쉬: 솔형, 틈새 / 거치대 / 프리볼트 / 무게: 0.5kg / 색상:화이트, 블랙 / 소비전력: 90W / 크기(가로x세로x깊이): 75x415x70mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디형 / 무선형 / 전압: 14.4V / 헤파필터 / 흡입력: 6000Pa / 먼지통용량: 0.4L / 충전시간: 5시간 / 사용시간: 30분 / 브러쉬: 바닥, 틈새, 침구 / 거치대 / 무게: 1kg / 색상:화이트 / 소비전력: 120W / 크기(가로x세로x깊이): 225x335x170mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 18V / 헤파필터 / 4단계여과 / 먼지통용량: 0.42L / 충전시간: 4시간 / 사용시간: 48분 / 배터리: 리튬이온 / 거치대 / 배터리잔량표시 / 셀프스탠딩 / 무게: 3kg / 색상:타이탄블루 / 브러쉬: 파워프로롤러, UV베드, 틈새 / 크기(가로x세로x깊이): 303x690x162mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 22.2V / 싸이클론 / 4단계여과 / 흡입력: 19000Pa / 먼지통용량: 0.55L / 충전시간: 4~5시간 / 사용시간: 30분 / 배터리: 리튬이온 / 용량: 2200mAh / 브러쉬: 바닥, 솔형, 틈새, 연장관 / 거치대 / 무게: 2.3kg / 색상:블루 / 소비전력: 250W / 크기(가로x세로x깊이): 240x1040x212mm</t>
   </si>
   <si>
     <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 18V / 4단계여과 / 먼지통용량: 0.42L / 충전시간: 4시간 / 사용시간: 48분 / 배터리: 리튬이온 / 거치대 / 배터리잔량표시 / 셀프스탠딩 / 무게: 3.4kg / 색상:마호가니브론즈 / 알레르기인증(BAF) / 브러쉬: 파워프로롤러, UV베드, 틈새</t>
   </si>
   <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 22.2V / 싸이클론 / 4단계여과 / 먼지통용량: 0.5L / 충전시간: 4~5시간 / 사용시간: 35분 / 배터리: 리튬이온 / 브러쉬: 바닥, 솔형, 틈새, 연장관 / 무게: 2kg / 색상:화이트 / 100V / 변환어댑터: 필요 / 흡입력: 10000Pa / 크기(가로x세로x깊이): 210x1040x104mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 22.2V / 헤파필터 / H13급 / 싸이클론 / 4단계여과 / DC모터 / 먼지통용량: 0.55L / 충전시간: 4~5시간 / 사용시간: 40분 / 배터리: 리튬이온 / 브러쉬: 바닥, 솔형, 틈새, 침구, 연장관 / LED라이트 / 거치대 / 무게: 2.2kg / 소비전력: 150W / 흡입력: 12000Pa / 크기(가로x세로x깊이): 240x1040x211mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 헤파필터 / 2중터보싸이클론 / 5단계여과 / 인버터모터 / 흡입력: 140W / 충전시간: 3시간30분 / 사용시간: 80분 / 배터리: 리튬이온 (2개) / 브러쉬: 바닥, 솔형, 틈새, 매트리스 / 거치대 / 무게: 2.7kg / 색상:판타지실버 / 소비전력: 450W / 크기(가로x세로x깊이): 260x1120x270mm</t>
-  </si>
-  <si>
-    <t>차량용청소기 / 유무선 / 12V / 흡입력: 4,800Pa / 최대출력: 120W / 추가노즐: 틈새, 솔브러쉬, 연장호스 / 사용시간: 25분 / 충전시간: 3~4시간 / 크기: 260x200x80mm / 무게: 880g</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 헤파필터 / 터보싸이클론 / 5단계여과 / 인버터모터 / 흡입력: 140W / 충전시간: 3시간30분 / 사용시간: 80분 / 배터리: 리튬이온 (2개) / 브러쉬: 바닥 / 거치대 / 무게: 2.7kg / 색상:보헤미안레드 / 소비전력: 450W / 크기(가로x세로x깊이): 260x1120x270mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 헤파필터 / 터보싸이클론 / 5단계여과 / 인버터모터 / 흡입력: 140W / 충전시간: 3시간30분 / 사용시간: 80분 / 배터리: 리튬이온 (2개) / 브러쉬: 바닥, 침구 / 거치대 / 무게: 2.7kg / 색상:판타지실버 / 소비전력: 450W / 크기(가로x세로x깊이): 260x1120x270mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 헤파필터 / 터보싸이클론 / 5단계여과 / 인버터모터 / 흡입력: 140W / 충전시간: 3시간30분 / 사용시간: 80분 / 배터리: 리튬이온 (2개) / 브러쉬: 바닥, 카펫, 침구 / 거치대 / 무게: 2.7kg / 색상:블랙 / 소비전력: 450W / 크기(가로x세로x깊이): 260x1120x270mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 헤파필터 / 터보싸이클론 / 5단계여과 / 인버터모터 / 흡입력: 140W / 충전시간: 3시간30분 / 사용시간: 40분 / 배터리: 리튬이온 / 브러쉬: 바닥 / 거치대 / 무게: 2.7kg / 색상:그레이 / 소비전력: 450W / 알레르기인증(BAF) / 미세먼지인증(SLG) / 크기(가로x세로x깊이): 260x1120x270mm</t>
-  </si>
-  <si>
-    <t>물걸레청소기 / 스틱형 / 물걸레전용 / 왕복식 / 무선형 / 전압: 10.86V / 충전시간: 3시간 / 사용시간: 80분 / 배터리: 리튬이온 / 각도조절 / 무게: 3.1kg / 소비전력: 30W / 색상:화이트 / 패드: 극세사(벨크로형)  / 크기(가로x세로x깊이): 270x1180x270mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 18V / 싸이클론 / 3단계여과 / 충전시간: 4시간 / 사용시간: 45분 / 배터리: 리튬이온 / LED라이트 / 배터리잔량표시 / 브러쉬자동청소 / 셀프스탠딩 / 무게: 2.6kg / 색상:텅스텐 / 브러쉬: 소파용, 연장호스, 긴틈새, 미니침구 / 크기(가로x세로x깊이): 263x1070x150mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 이중래디얼싸이클론 / 흡입력: 155W / 충전시간: 5시간 / 사용시간: 40분 / 배터리: 리튬이온 / 도킹스테이션 / 무게: 2.63kg / 소비전력: 485W / 브러쉬: 소프트롤러클리너헤드, 다이렉트드라이브헤드, 미니모토라이즈드툴, 업탑어댑터, 익스텐션호스, 미니소프트더스팅브러쉬툴, 콤비네이션툴, 크레비스툴, 매트리스툴, 플렉시크레비스툴 / 크기(가로x세로x깊이): 250x1244x210mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 헤파필터 / 2중터보싸이클론 / 5단계여과 / 인버터모터 / 흡입력: 140W / 충전시간: 3시간30분 / 사용시간: 80분 / 배터리: 리튬이온 (2개) / 브러쉬: 바닥, 카펫, 솔형, 틈새, 침구, 매트리스 / 거치대 / 무게: 2.7kg / 색상:판타지실버 / 소비전력: 450W / 크기(가로x세로x깊이): 260x1120x270mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 32.4V / 헤파필터 / 싸이클론 / 5단계여과 / 인버터모터 / 흡입력: 130W / 충전시간: 4시간30분 / 사용시간: 40분 / 배터리: 리튬이온 / 브러쉬: 바닥, 솔형, 틈새 / 무게: 2.95kg / 색상:에어본블랙 / 소비전력: 400W / 플렉스핸들 / 크기(가로x세로x깊이): 252x1110x315mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 21.6V / 이중래디얼싸이클론 / 흡입력: 155AW / 충전시간: 5시간 / 사용시간: 40분 / 배터리: 리튬이온 / 도킹스테이션 / 무게: 2.63kg / 소비전력: 485W / 브러쉬: 소프트롤러클리너헤드, 미니모토라이즈드툴, 콤비네이션툴, 크레비스툴, 플렉시크레비스툴 / 크기(가로x세로x깊이): 250x1244x210mm</t>
-  </si>
-  <si>
-    <t>침구청소기 / 핸디형 / 무선형 / 전압: 21.6V / 3단계여과 / 충전시간: 2시간30분 / 사용시간: 25분 / 청소모드: UV살균, 진동, 흡입 / 진동수: 8000회(분당) / 헤파필터 / 거치대 / 무게: 1.3kg / 흡입력: 6000Pa / 크기(가로x세로): 270x324mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 충전시간: 5시간 / 사용시간: 40분 / 배터리: 리튬이온 / 브러쉬: 솔형 / 셀프스탠딩 / 무게: 2.7kg / 색상:내추럴그레이 / 소비전력: 120W / 크기(가로x세로x깊이): 260x1100x165mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디형 / 무선형 / 충전시간: 8시간 / 사용시간: 10분 / 배터리: 니켈수소 / 무게: 0.76kg / 소비전력: 48W / 크기(가로x세로x깊이): 103x317x174mm</t>
-  </si>
-  <si>
-    <t>차량용청소기 / 무선 / 흡입력: 4,000Pa / 최대출력: 65W / 3중필터 / 스테인리스 필터 / 추가노즐: 틈새, 솔브러쉬 / 사용시간: 21분 / 충전시간: 3.5시간 / 크기: 65x65x232mm / 무게: 500g / 색상: 블랙, 실버</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 22.2V / 헤파필터 / 듀얼싸이클론 / 충전시간: 4시간 / 사용시간: 40분 / 배터리: 리튬이온 / 브러쉬: 바닥, 솔형, 틈새, 연장관 / 도킹스테이션 / 무게: 1.89kg / 색상:레드 / 흡입력: 9000Pa</t>
-  </si>
-  <si>
-    <t>물걸레청소기 / 스틱형 / 물걸레전용 / 왕복식 / 무선형 / 전압: 10.86V / 충전시간: 3시간 / 사용시간: 80분 / 배터리: 리튬이온 / 각도조절 / 무게: 3.1kg / 소비전력: 30W / 색상:네이비 / 패드: 극세사(벨크로형)  / 크기(가로x세로x깊이): 270x1180x270mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 22.2V / 헤파필터 / H13급 / 싸이클론 / BLDC모터 / 먼지통용량: 0.5L / 충전시간: 4~6시간 / 사용시간: 35분 / 배터리: 리튬이온 / 브러쉬: 바닥, 카펫, 틈새, 연장관 / 거치대 / 배터리잔량표시 / 무게: 2.11kg / 소비전력: 250W / 흡입력: 22000Pa</t>
-  </si>
-  <si>
-    <t>물걸레청소기 / 스틱형 / 물걸레전용 / 회전식 / 무선형 / 전압: 14.6V / 충전시간: 3시간 / 사용시간: 30분 / 배터리: 리튬이온 / 물분사 / 무게: 3.4kg / 색상:블랙 / 스위블기능 / 패드: 극세사(벨크로형) / 크기(가로x세로x깊이): 450x1230x250mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 22.2V / 충전시간: 4~5시간 / 사용시간: 30분 / 배터리: 리튬이온 / 브러쉬: 바닥, 솔형, 틈새, 연장관 / 배터리잔량표시 / 무게: 2.3kg / 색상:화이트 / 소비전력: 250W / 흡입력: 17000Pa / 크기(가로x세로x깊이): 240x1040x212mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 싸이클론 / 먼지통용량: 0.5L / 충전시간: 4시간 / 사용시간: 30분 / 배터리: 리튬이온 / 브러쉬: 바닥, 솔형, 틈새, 연장관 / 무게: 2.2kg / 소비전력: 250W / 흡입력: 19000Pa / 크기(가로x세로x깊이): 260x1140x214mm</t>
-  </si>
-  <si>
-    <t>차량용청소기 / 무선 / 12V / 흡입력: 5,500Pa / 최대출력: 120W / 3중필터 / 헤파필터 / 추가노즐: 틈새, 솔브러쉬, 연장호스 / 싸이클론 / LED라이트 / 사용시간: 25분 / 충전시간: 3시간 / 코드길이: 4.5m / 크기: 360x110x180mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 21.9V / 헤파필터 / 싸이클론 / 5단계여과 / 인버터모터 / 흡입력: 200W / 먼지통용량: 0.5L / 충전시간: 3시간30분 / 사용시간: 60분 / 배터리: 리튬이온 / 브러쉬: 바닥, 솔형, 틈새, 연장관 / 거치대 / 디스플레이표시창 / 프리볼트 / 무게: 2.7kg / 색상:실버핑크 / 소비전력: 550W / 알레르기인증(BAF) / 미세먼지인증(SLG) / 크기(가로x세로x깊이): 250x1136x215mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 헤파필터 / 싸이클론 / 흡입력: 155AW / 충전시간: 5시간 / 사용시간: 40분 / 도킹스테이션 / 프리볼트 / 무게: 2.61kg / 소비전력: 485W / 110V / 변환어댑터: 필요 / 브러쉬: 소프트롤러클리너헤드, 다이렉트드라이브클리너헤드, 미니모토라이즈드툴, 콤비네이션툴, 솔트더스팅브러쉬, 크레비스노즐 / 크기(가로x세로x깊이): 250x1244x224mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 22.2V / 헤파필터 / H13급 / 싸이클론 / 흡입력: 160W / 충전시간: 4시간30분 / 사용시간: 30분 / 배터리: 리튬이온 / 브러쉬: 바닥, 솔형, 틈새, 연장관 / LED라이트 / 거치대 / 프리볼트 / 무게: 3.7kg / 크기(가로x세로x깊이): 220x1150x250mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 싸이클론 / 충전시간: 3시간30분 / 사용시간: 60분 / 도킹스테이션 / 무게: 2.5kg / 브러쉬: 다이렉트드라이브클리너헤드, 콤비네이션툴, 크레비스노즐</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 18V / 싸이클론 / 먼지통용량: 0.3L / 충전시간: 3시간 / 사용시간: 30분 / 배터리: 리튬이온 / 브러쉬: 바닥, 솔형, 틈새, 연장관 / 거치대 / 셀프스탠딩 / 프리볼트 / 무게: 1.4kg / 변환어댑터: 필요 / 먼지감지센서 / 크기(가로x세로x깊이): 224x1043x163mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 22.2V / 헤파필터 / H13급 / 싸이클론 / 4단계여과 / 먼지통용량: 0.55L / 충전시간: 4~5시간 / 사용시간: 30분 / 배터리: 리튬이온 / 브러쉬: 바닥, 솔형, 틈새, 연장관 / 거치대 / 무게: 2.3kg / 소비전력: 250W / 흡입력: 19000Pa / 크기(가로x세로x깊이): 240x1040x211mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 헤파필터 / 5단계여과 / 인버터모터 / 충전시간: 4시간30분 / 사용시간: 20분 / 배터리: 리튬이온 / 브러쉬: 바닥, 솔형, 틈새 / LED라이트 / 물걸레 / 배터리잔량표시 / 무게: 2.9kg / 색상:메탈릭골드 / 크기(가로x세로x깊이): 190x1105x270mm</t>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 25.2V / 헤파필터 / H12급 / 싸이클론 / 5단계여과 / 흡입력: 120AW / 흡입력: 20000Pa / 먼지통용량: 0.5L / 충전시간: 3시간30분 / 사용시간: 1시간 / 브러쉬: 바닥, 솔형, 틈새, 침구, 연장관 / 거치대 / 무게: 3.3kg / 색상:화이트 / 소비전력: 400W / 크기(가로x세로x깊이): 256x1208x204.5mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디형 / 무선형 / 전압: 18V / 싸이클론 / 3단계여과 / 흡입력: 35AW / 충전시간: 4시간 / 사용시간: 12분 / 배터리: 리튬이온 / 브러쉬: 틈새 / 거치대 / 배터리잔량표시 / 프리볼트 / 무게: 1.38kg / 색상:블랙 / 피벗노즐 / 크기(가로x세로x깊이): 140x270x170mm</t>
   </si>
   <si>
     <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 18V / 4단계여과 / 먼지통용량: 0.42L / 충전시간: 4시간 / 사용시간: 48분 / 배터리: 리튬이온 / 거치대 / 셀프스탠딩 / 무게: 3.6kg / 색상:사틴화이트 / 알레르기인증(BAF) / 브러쉬: 파워프로롤러, UV베드, 수퍼롱, 사선, 패브릭, 틈새, 플렉시호스</t>
   </si>
   <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 27V / 헤파필터 / 싸이클론 / 사용시간: 40분 / 브러쉬: 바닥, 솔형, 틈새, 연장관 / LED라이트 / 프리볼트 / 무게: 2.3kg / 크기(가로x세로x깊이): 130x1200x200mm</t>
-  </si>
-  <si>
-    <t>물걸레청소기 / 스틱형 / 물걸레전용 / 회전식 / 무선형 / 전압: 14.6V / 충전시간: 3시간 / 사용시간: 30분 / 배터리: 리튬이온 / 물분사 / LED라이트 / 각도조절 / 무게: 4kg / 색상:블랙 / 배터리잔량표시 / 패드: 극세사(벨크로형) / 크기(가로x세로x깊이): 430x1110x240mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 22.2V / 싸이클론 / 먼지통용량: 0.35L / 충전시간: 4~5시간 / 사용시간: 40분 / 브러쉬: 바닥, 솔형, 틈새, 연장관 / 프리볼트 / 무게: 2.3kg / 소비전력: 120W / 흡입력: 7000Pa / 크기(가로x세로x깊이): 272x1200x210mm</t>
-  </si>
-  <si>
-    <t>물걸레청소기 / 스틱형 / 물걸레전용 / 회전식 / 무선형 / 전압: 14.48V / 사용시간: 40분 / 배터리: 리튬이온 / 무게: 3.2kg / 소비전력: 80W / 색상:화이트 / 패드: 극세사(벨크로형) / 크기(가로x세로x깊이): 410x1190x220mm</t>
-  </si>
-  <si>
-    <t>물걸레청소기 / 스틱형 / 물걸레전용 / 왕복식 / 무선형 / 전압: 11.1V / 충전시간: 3시간 / 사용시간: 1시간 / 배터리: 리튬이온 / 물분사 / LED라이트 / 각도조절 / 프리볼트 / 무게: 2.6kg / 소비전력: 25W / 색상:화이트 / 거치대 / 크기(가로x세로x깊이): 296x1114x220mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 헤파필터 / 2중터보싸이클론 / 5단계여과 / 인버터모터 / 흡입력: 140W / 충전시간: 3시간30분 / 사용시간: 40분 / 배터리: 리튬이온 / 브러쉬: 바닥, 침구 / 거치대 / 무게: 2.7kg / 색상:판타지실버 / 소비전력: 450W / 크기(가로x세로x깊이): 260x1120x270mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 18V / 싸이클론 / 충전시간: 4시간30분 / 사용시간: 35분 / 배터리: 리튬이온 / 브러쉬: 바닥, 솔형, 틈새 / 배터리잔량표시 / 무게: 2.8kg / 색상:샤이니레드 / 소비전력: 80W / 크기(가로x세로x깊이): 190x1105x270mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 32.4V / 헤파필터 / 싸이클론 / 5단계여과 / 인버터모터 / 흡입력: 150W / 충전시간: 4시간30분 / 사용시간: 40분 / 배터리: 리튬이온 / 무게: 2.95kg / 색상:에어본블랙 / 소비전력: 450W / 알레르기인증(BAF) / 미세먼지인증(SLG) / 플렉스핸들 / 브러쉬: 듀얼액션, 소프트액션, 솔형, 틈새, 침구 / 크기(가로x세로x깊이): 252x1110x315mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 21.6V / 이중래디얼싸이클론 / 흡입력: 155AW / 충전시간: 5시간 / 사용시간: 40분 / 배터리: 리튬이온 / 도킹스테이션 / 무게: 2.63kg / 소비전력: 485W / 브러쉬: 소프트롤러클리너헤드, 다이렉트드라이브헤드, 미니모토라이즈드툴, 콤비네이션툴, 크레비스툴, 스토번더스트브러시툴 / 크기(가로x세로x깊이): 250x1244x210mm</t>
-  </si>
-  <si>
-    <t>물걸레청소기 / 스틱형 / 물걸레전용 / 회전식 / 무선형 / 충전시간: 3~4시간 / 사용시간: 4시간 / 배터리: 리튬이온 / 셀프스탠딩 / 각도조절 / 무게: 0.98kg / 패드: 극세사(벨크로형) / 크기(가로x세로x깊이): 290x1050x135mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 29.6V / 헤파필터 / 4단계여과 / 흡입력: 115W / 충전시간: 2시간30분 / 브러쉬: 바닥, 솔형, 틈새 / LED라이트 / 거치대 / 원격제어 / 프리볼트 / 흡입력: 18500Pa / 크기(가로x세로x깊이): 256x1178x157mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 25.2V / 싸이클론 / 5단계여과 / 먼지통용량: 0.3L / 충전시간: 4시간 / 사용시간: 55분 / 배터리: 리튬이온 / LED라이트 / 거치대 / 브러쉬자동청소 / 셀프스탠딩 / 무게: 2.75kg / 색상:인디고블루 / 브러쉬: 바닥, 틈새, 더스팅, 사선 / 크기(가로x세로x깊이): 256x1100x130mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 18V / 싸이클론 / 2단계여과 / 먼지통용량: 0.56L / 충전시간: 4시간 / 사용시간: 13분29초 / 배터리: 리튬이온 / 브러쉬: 바닥, 틈새, 연장관 / 거치대 / 프리볼트 / 무게: 1.47kg / 색상:블랙 / 크기(가로x세로x깊이): 130x235x150mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 싸이클론 / 5단계여과 / 인버터모터 / 충전시간: 4시간 / 사용시간: 40분 / 배터리: 리튬이온 / 브러쉬: 바닥, 솔형, 틈새, 연장관 / LED라이트 / 거치대 / 무게: 2.2kg / 소비전력: 150W / 흡입력: 10000Pa / 크기(가로x세로x깊이): 238x1140x214mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 22.2V / 헤파필터 / 싸이클론 / 충전시간: 4시간 / 사용시간: 40분 / 배터리: 리튬이온 / 브러쉬: 바닥, 솔형, 틈새, 연장관 / 거치대 / 배터리잔량표시 / 무게: 2.8kg / 소비전력: 120W / 흡입력: 7000Pa</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 21.6V / 이중래디얼싸이클론 / 흡입력: 100AW / 충전시간: 3시간30분 / 사용시간: 30분 / 배터리: 리튬이온 / 도킹스테이션 / 무게: 2.32kg / 소비전력: 350W / 브러쉬: 소프트롤러클리너헤드, 미니모토라이즈드툴, 콤비네이션툴, 크레비스툴, 플렉시크레비스툴 / 크기(가로x세로x깊이): 250x1243x210mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 싸이클론 / 흡입력: 185AW / 먼지통용량: 0.54L / 충전시간: 4시간30분 / 사용시간: 1시간 / 거치대 / 도킹스테이션 / 디스플레이표시창 / 무게: 2.95kg / 색상:니켈레드 / 소비전력: 545W / 브러쉬: 소프트롤러클리너헤드, 콤비네이션툴, 크레비스툴, 미니모터툴, 소프트더스팅브러쉬, 매트리스툴, 연장호스 / 크기(가로x세로x깊이): 261x1280x250mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 14.4V / 싸이클론 / 3단계여과 / 충전시간: 4시간 / 사용시간: 30분 / 배터리: 리튬이온 / LED라이트 / 거치대 / 배터리잔량표시 / 브러쉬자동청소 / 셀프스탠딩 / 무게: 2.5kg / 색상:브론즈 / 브러쉬: 소파용, 연장호스, 긴틈새, 미니침구 / 크기(가로x세로x깊이): 263x1070x150mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 29.6V / 헤파필터 / H13급 / 싸이클론 / BLDC모터 / 흡입력: 25000Pa / 먼지통용량: 0.5L / 충전시간: 2~3시간 / 사용시간: 50분 / 배터리: 리튬이온 / 용량: 2000mAh / 브러쉬: 바닥, 솔형, 틈새, 연장관 / LED라이트 / 거치대 / 무게: 2.5kg / 색상:블루 / 소비전력: 400W / 크기(가로x세로x깊이): 256x1172x217mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 싸이클론 / 흡입력: 185AW / 먼지통용량: 0.54L / 충전시간: 4시간30분 / 사용시간: 1시간 / 거치대 / 도킹스테이션 / 디스플레이표시창 / 무게: 2.95kg / 색상:니켈블루 / 브러쉬: 소프트롤러클리너헤드, 하이토크드라이브헤드, 콤비네이션툴, 크레비스툴, 미니모터툴, 소프트더스팅브러쉬, 매트리스툴, 업탑어댑터, 익스텐션호스 / 크기(가로x세로x깊이): 250x1280x261mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 22.2V / 헤파필터 / 충전시간: 4~5시간 / 사용시간: 20~30분 / 배터리: 리튬이온 / 브러쉬: 바닥, 솔형, 틈새, 연장관 / 프리볼트 / 무게: 2.3kg / 색상:핑크 / 소비전력: 150W / 110V / 변환어댑터: 필요 / 흡입력: 7000Pa / 크기(가로x세로): 280x1100mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디형 / 무선형 / 전압: 18V / 싸이클론 / 3단계여과 / 흡입력: 35AW / 충전시간: 4시간 / 사용시간: 12분 / 배터리: 리튬이온 / 브러쉬: 틈새 / 거치대 / 배터리잔량표시 / 프리볼트 / 무게: 1.38kg / 색상:블랙 / 피벗노즐 / 크기(가로x세로x깊이): 140x270x170mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 스틱형 / 무선형 / 전압: 25.2V / 싸이클론 / 충전시간: 4시간 / 사용시간: 60분 / 배터리: 리튬이온 / LED라이트 / 거치대 / 배터리잔량표시 / 브러쉬자동청소 / 셀프스탠딩 / 무게: 3kg / 색상:텅스텐 / 크기(가로x세로x깊이): 260x1100x160mm</t>
-  </si>
-  <si>
-    <t>차량용청소기 / 무선 / 흡입력: 5,200Pa / 최대출력: 80W / 헤파필터 / 추가노즐: 틈새, 솔브러쉬 / 사용시간: 15분 / 크기: 156x96x312mm / 무게: 820g / 마이크로 USB 충전 / 색상: 그레이, 레드</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 충전시간: 8시간 / 사용시간: 12분 / 배터리: 니켈수소 / 셀프스탠딩 / 무게: 1kg / 색상:에어본+내츄럴그레이 / 소비전력: 48W / 크기(가로x세로x깊이): 342x265x119mm</t>
-  </si>
-  <si>
-    <t>물걸레청소기 / 스틱형 / 물걸레전용 / 왕복식 / 무선형 / 전압: 14.8V / 충전시간: 3시간 / 사용시간: 60분 / 셀프스탠딩 / 가구손상방지 / 무게: 3.1kg / 소비전력: 30W / 색상:화이트, 그린, 오렌지 / 풋터치버튼 / 패드: 극세사(벨크로형) / 크기(가로x세로x깊이): 270x1180x270mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 스틱형 / 무선형 / 전압: 21.6V / 싸이클론 / 충전시간: 4시간 / 사용시간: 50분 / 배터리: 리튬이온 / LED라이트 / 거치대 / 배터리잔량표시 / 브러쉬자동청소 / 셀프스탠딩 / 무게: 2.8kg / 색상:다크브로도 / 크기(가로x세로x깊이): 260x1100x160mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 32.4V / 헤파필터 / 싸이클론 / 5단계여과 / 인버터모터 / 흡입력: 150W / 충전시간: 4시간30분 / 사용시간: 40분 / 배터리: 리튬이온 / 브러쉬: 바닥, 카펫, 솔형, 틈새, 연장관 / 무게: 2.95kg / 색상:메탈실버 / 소비전력: 450W / 플렉스핸들 / 크기(가로x세로x깊이): 252x1110x315mm</t>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 14.4V / 4단계여과 / 충전시간: 4시간 / 사용시간: 42분 / 배터리: 리튬이온 / LED라이트 / 거치대 / 배터리잔량표시 / 브러쉬자동청소 / 셀프스탠딩 / 무게: 2.88kg / 색상:아이언그레이 / 알레르기인증(BAF) / 브러쉬: 미니침구, 소파용, 긴틈새, 솔틈새, 연장호스 / 크기(가로x세로x깊이): 303x690x162mm</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 물걸레전용 / 회전식 / 무선형 / 전압: 14.6V / 충전시간: 2시간30분 / 사용시간: 30분 / 배터리: 리튬이온 / 용량: 2750mAh / LED라이트 / 가구손상방지 / 각도조절 / 프리볼트 / 무게: 3.7kg / 색상:블랙 / 배터리잔량표시 / 모터과열방지 / 과충전방지 / 오토스토핑 / 거치대 / 패드: 극세사(벨크로형) / 크기(가로x세로x깊이): 410x1180x205mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디형 / 무선형 / 전압: 6V / 싸이클론 / 충전시간: 10~12시간 / 배터리: 니켈카드뮴 / 브러쉬: 카펫, 솔형, 틈새 / 거치대 / 무게: 0.683kg / 색상:블루 / 소비전력: 25W / 크기(가로x세로x깊이): 95x350x105mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디형 / 무선형 / 전압: 3.6V / 2단계여과 / 사용시간: 10분 / 배터리: 니켈수소 / 브러쉬: 틈새 / 거치대 / 색상:블랙 / 크기(가로x세로x깊이): 444x133x109mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 22.2V / 헤파필터 / H13급 / 싸이클론 / 5단계여과 / BLDC모터 / 흡입력: 21000Pa / 먼지통용량: 0.5L / 충전시간: 5시간 / 사용시간: 1시간 / 용량: 2450mAh / 브러쉬: 바닥, 솔형, 틈새, 연장관 / LED라이트 / 거치대 / 프리볼트 / 무게: 2.5kg / 색상:화이트, 블랙 , 인디고 / 소비전력: 250W / 크기(가로x세로x깊이): 250x1040x215mm</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 5,000Pa / 최대출력: 80W / 헤파필터 / 추가노즐: 틈새, 솔브러쉬 / LED라이트 / 사용시간: 15분 / 충전시간: 1시간30분 / 크기: 298x70mm / 무게: 560g / 충전방식: 시거잭</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 27V / 헤파필터 / 싸이클론 / 사용시간: 40분 / 배터리: 리튬이온 / 브러쉬: 바닥, 솔형, 틈새, 연장관 / LED라이트 / 프리볼트 / 무게: 2.3kg</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 22.2V / 헤파필터 / 싸이클론 / 5단계여과 / BLDC모터 / 흡입력: 100AW / 흡입력: 22000Pa / 먼지통용량: 0.8L / 충전시간: 4~5시간 / 사용시간: 40분 / 배터리: 리튬이온 / 용량: 2200mAh / 브러쉬: 바닥, 솔형, 틈새, 연장관 / 거치대 / 무게: 1.45kg / 색상:화이트, 블랙 / 소비전력: 300W / 크기(가로x세로x깊이): 240x1160x112mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 29.6V / 싸이클론 / 3단계여과 / BLDC모터 / 흡입력: 25000Pa / 먼지통용량: 0.5L / 충전시간: 2~3시간 / 사용시간: 1시간 / 배터리: 리튬이온 / 용량: 2000mAh / 브러쉬: 바닥, 솔형, 틈새, 침구, 연장관 / LED라이트 / 거치대 / 무게: 2.5kg / 소비전력: 400W / 크기(가로x세로x깊이): 256x1172x217mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 21.9V / 싸이클론 / 충전시간: 3시간 / 사용시간: 12~30분 / 배터리: 리튬이온 / 브러쉬: 바닥, 솔형, 틈새 / LED라이트 / 배터리잔량표시 / 무게: 2.8kg / 색상:화이트+블루 / 크기(가로x세로x깊이): 154x742x345mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 1.2V / 헤파필터 / 충전시간: 10시간 / 사용시간: 10~15분 / 브러쉬: 바닥, 틈새, 연장관 / 무게: 0.8kg / 색상:블랙+오렌지 / 크기(가로x세로x깊이): 145x440x115mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디형 / 무선형 / 전압: 4.8V / 2단계여과 / 브러쉬: 솔형, 틈새 / 무게: 1.5kg / 색상:화이트+블루 / 소비전력: 35W / 크기(가로x세로x깊이): 100x360x100mm</t>
+  </si>
+  <si>
+    <t>진공청소기 / 무선형 / 2중터보싸이클론 / 헤파필터 / 7단계여과 / 인버터모터 / 흡입력: 250W / 먼지통 / 먼지통용량: 1.5L / 먼지압축 / 오토무빙 / 브러쉬: 플로어 / 보조브러쉬: 침구용 / 소비전력: 850W / 색상:판타지실버 / 알레르기인증(BAF) / 미세먼지인증(SLG) / 연장호스 / 무게중심센서 / 거리유지센서 / 충돌감지센서 / 크기(가로x세로x깊이): 290x401x327mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 14.4V / 충전시간: 3시간 / 사용시간: 30분 / 배터리: 리튬이온 / 용량: 2150mAh / 브러쉬: 바닥, 틈새, 침구, 매트리스, 연장관 / 프리볼트 / 무게: 1.6kg / 색상:화이트 / 소비전력: 100W / 먼지센서 / 크기(가로x세로x깊이): 210.8x1039.5x207.4mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 18V / 4단계여과 / 충전시간: 4시간 / 사용시간: 48분 / 배터리: 리튬이온 / LED라이트 / 거치대 / 배터리잔량표시 / 브러쉬자동청소 / 셀프스탠딩 / 무게: 3.36kg / 색상:마호가니 브론즈 / 알레르기인증(BAF) / 브러쉬: 베드프로, 솔형  / 크기(가로x세로x깊이): 303x690x162mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 25.2V / 싸이클론 / 충전시간: 3시간30분 / 사용시간: 60분 / 배터리: 리튬이온 / 도킹스테이션 / 프리볼트 / 무게: 2.5kg / 색상:블루, 코퍼, 블랙 / 소비전력: 525W / 브러쉬: 소프트롤러클리너헤드, 다이렉트드라이브클리너헤드, 미니모토라이즈드툴, 콤비네이션툴, 크레비스노즐, 미니소프트더스팅브러시 / 크기(가로x세로x깊이): 250x1241x256mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 스틱형 / 무선형 / 전압: 36V / 싸이클론 / 5단계여과 / 충전시간: 6시간 / 사용시간: 60분 / 배터리: 리튬이온 / LED라이트 / 거치대 / 배터리잔량표시 / 셀프스탠딩 / 무게: 4.1kg / 색상:사틴화이트 / 알레르기인증(BAF) / 브러쉬: 침구, 3in1, 더스팅, 앵글튜브 / 플렉스리프트 / 바닥감지 / 크기(가로x세로x깊이): 215x1200x249mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디형 / 무선형 / 전압: 7.4V / 흡입력: 2000Pa / 충전시간: 4시간 / 사용시간: 20분 / 배터리: 리튬이온 / 브러쉬: 솔형, 틈새 / 무게: 0.328kg / 색상:화이트, 다크그레이, 베이비핑크 / 소비전력: 35W / 불어내기 / 크기(가로x세로x깊이): 65x185x65mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 25.9V / 헤파필터 / 싸이클론 / 4단계여과 / 흡입력: 25000Pa / 먼지통용량: 0.8L / 충전시간: 4시간30분 / 사용시간: 40분 / 배터리: 리튬이온 / 용량: 2200mAh / 브러쉬: 바닥, 솔형, 틈새, 침구, 연장관 / 거치대 / 배터리잔량표시 / 무게: 2.48kg / 색상:레드 / 크기(가로x세로x깊이): 230x1150x210mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 12V / 먼지통용량: 0.35L / 충전시간: 2~3시간 / 사용시간: 2시간 / 배터리: 리튬이온 / 용량: 2000mAh / 배터리잔량표시 / 소비전력: 350W / 변환어댑터: 필요 / 크기(가로x세로x깊이): 270x1060x170mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 21.9V / 에어포스싸이클론 / 먼지통용량: 0.4L / 충전시간: 3시간 / 사용시간: 28분 / 배터리: 리튬이온 / 브러쉬: 바닥, 솔형 / LED라이트 / 거치대 / 무게: 2.8kg / 색상:핑크</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 헤파필터 / 싸이클론 / 6단계여과 / BLDC모터 / 흡입력: 145AW / 흡입력: 23500Pa / 먼지통용량: 0.4L / 충전시간: 2시간30분 / 사용시간: 1시간 / 용량: 2500mAh / LED라이트 / 거치대 / 물걸레 / 원격제어 / 무게: 2.6kg / 색상:화이트 / 소비전력: 435W / 브러쉬: 바닥, 호스, 틈새, 다기능, 솔형, 연장관 / 원격제어 / 크기(가로x세로x깊이): 259x1191x158mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 25.9V / 헤파필터 / H10급 / 싸이클론 / 3단계여과 / BLDC모터 / 흡입력: 22000Pa / 먼지통용량: 0.5L / 충전시간: 4시간 / 사용시간: 50분 / 배터리: 리튬이온 / 용량: 2000mAh / 브러쉬: 바닥, 솔형, 틈새, 침구, 연장관 / LED라이트 / 거치대 / 무게: 2.5kg / 색상:레드 / 소비전력: 250W / 크기(가로x세로x깊이): 256x1172x217mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 22.2V / 헤파필터 / H13급 / 싸이클론 / 3단계여과 / 흡입력: 9000Pa / 먼지통용량: 0.55L / 충전시간: 4~5시간 / 사용시간: 45분 / 배터리: 리튬이온 / 용량: 2200mAh / 브러쉬: 바닥, 솔형, 틈새, 연장관 / LED라이트 / 배터리잔량표시 / 무게: 2.2kg / 소비전력: 120W / 크기(가로x세로x깊이): 240x1040x211mm</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 2,000Pa / 헤파필터 / 추가노즐: 틈새, 솔브러쉬 / 사용시간: 20분 / 충전시간: 4시간 / 무게: 366g / 충전방식: USB C타입 / 색상: 그레이, 그린, 블루, 블랙</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디형 / 무선형 / 전압: 3.6V / 충전시간: 5시간 / 사용시간: 15분 / 브러쉬: 틈새 / 거치대 / 무게: 0.8kg / 색상:실버 / 크기(가로x세로x깊이): 425x95x90mm</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 물걸레전용 / 회전식 / 무선형 / 전압: 14.6V / 충전시간: 3시간 / 사용시간: 30분 / 배터리: 리튬이온 / 용량: 2150mAh / 물분사 / 각도조절 / 무게: 3.4kg / 색상:화이트 / 스위블기능 / 크기(가로x세로x깊이): 450x1230x250mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 25.2V / 헤파필터 / H13급 / 싸이클론 / 흡입력: 180W / 먼지통용량: 0.5L / 충전시간: 6시간 / 사용시간: 40분 / 배터리: 리튬이온 / LED라이트 / 거치대 / 무게: 2.12kg / 색상:블랙 / 소비전력: 180W / 브러쉬: 소프트롤러, 파워, 콤비네이션툴, 연장관 / 크기(가로x세로x깊이): 240x1065x260mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 싸이클론 / 흡입력: 100AW / 먼지통용량: 0.54L / 충전시간: 3시간30분 / 사용시간: 30분 / 도킹스테이션 / 무게: 2.4kg / 변환어댑터: 필요 / 브러쉬: 소프트롤러클리너헤드, 토크드라이브클리너헤드, 미니모터툴, 소프트더스팅브러쉬, 크레비스툴, 콤비네이션툴  / 크기(가로x세로x깊이): 250x1243x210mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 25.2V / 충전시간: 3시간 / 사용시간: 30분 / 배터리: 리튬이온 / 무게: 1.6kg / 소비전력: 100W / 브러쉬: 바닥, 핸디, 틈새, UV헤드, 연장관 / 먼지센서 / 크기(가로x세로x깊이): 207.4x1039.5x210.8mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디형 / 무선형 / 전압: 18V / 싸이클론 / 3단계여과 / 충전시간: 4시간 / 사용시간: 12분 / 배터리: 리튬이온 / 거치대 / 배터리잔량표시 / 프리볼트 / 무게: 1.38kg / 색상:크롬 / 소비전력: 27W / 피벗노즐 / 크기(가로x세로x깊이): 270x170x140mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디형 / 무선형 / 전압: 12V / 흡입력: 90W / 충전시간: 8시간 / 사용시간: 20분 / 브러쉬: 솔형, 틈새 / 거치대 / 무게: 1.5kg / 크기(가로x세로x깊이): 430x135x105mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 21.6V / 헤파필터 / 싸이클론 / 충전시간: 4시간 / 사용시간: 40분 / 배터리: 리튬이온 / 브러쉬: 바닥, 카펫, 틈새, 침구, 연장관 / LED라이트 / 프리볼트 / 무게: 2kg / 크기(가로x세로x깊이): 247x1140x170mm</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱+핸디형 / 물걸레전용 / 회전식 / 무선형 / 충전시간: 3~4시간 / 사용시간: 30분 / 배터리: 리튬이온 / 용량: 2000mAh / 셀프스탠딩 / 각도조절 / 프리볼트 / 무게: 1.7kg / 색상:화이트 / 패드: 극세사(벨크로형) / 크기(가로x세로x깊이): 320x1630x170mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 29.6V / 헤파필터 / H13급 / 싸이클론 / BLDC모터 / 흡입력: 25000Pa / 먼지통용량: 0.5L / 충전시간: 2시간 / 사용시간: 45분 / 배터리: 리튬이온 / 용량: 2000mAh / 브러쉬: 바닥, 솔형, 틈새, 침구, 연장관 / LED라이트 / 거치대 / 무게: 1.35kg / 색상:블랙 / 소비전력: 400W / 크기(가로x세로x깊이): 256x1172x217xmm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 21.9V / 헤파필터 / 싸이클론 / 5단계여과 / 인버터모터 / 흡입력: 200W / 먼지통용량: 0.5L / 충전시간: 3시간30분 / 사용시간: 60분 / 배터리: 리튬이온 / 브러쉬: 바닥, 솔형, 틈새, 침구, 물걸레, 연장관 / 거치대 / 디스플레이표시창 / 프리볼트 / 무게: 2.7kg / 색상:실버+핑크 / 소비전력: 550W / 알레르기인증(BAF) / 미세먼지인증(SLG) / 크기(가로x세로x깊이): 250x1136x215mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 18V / 먼지통용량: 0.5L / 사용시간: 20분 / 브러쉬: 바닥, 솔형, 틈새, 연장관 / 배터리잔량표시 / 무게: 0.9kg</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 21.6V / 헤파필터 / 먼지통용량: 0.25L / 배터리: 리튬이온 / 브러쉬: 바닥, 틈새, 연장관 / 셀프스탠딩 / 프리볼트 / 무게: 2.8kg / 색상:메탈블랙 / 소비전력: 170W / 크기(가로x세로x깊이): 250x1130x225mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 26.5V / 헤파필터 / H13급 / 싸이클론 / 5단계여과 / BLDC모터 / 흡입력: 20000Pa / 충전시간: 4~6시간 / 사용시간: 60분 / 배터리: 리튬이온 / 용량: 2500mAh / 브러쉬: 바닥, 솔형, 틈새, 침구, 연장관 / LED라이트 / 거치대 / 무게: 2.32kg / 색상:화이트 / 소비전력: 230W</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 충전시간: 22분 / 사용시간: 40분 / 무게: 1.3kg / 색상:화이트 / 크기(가로x세로x깊이): 151x1004x151mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디형 / 무선형 / 전압: 14.8V / 헤파필터 / H13급 / 싸이클론 / 4단계여과 / BLDC모터 / 흡입력: 13000Pa / 충전시간: 5시간 / 사용시간: 22분 / 배터리: 리튬이온 / 용량: 2500mAh / 브러쉬: 솔형, 틈새, 침구 / 거치대 / 프리볼트 / 무게: 0.5kg / 색상:메탈그레이 / 소비전력: 120W / 크기(가로x세로x깊이): 74x418x74xmm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 21.9V / 에어포스싸이클론 / 5단계여과 / 충전시간: 3시간 / 사용시간: 30분 / 배터리: 리튬이온 / LED라이트 / 거치대 / 배터리잔량표시 / 프리볼트 / 무게: 2.8kg / 색상:실버+블랙 / 브러쉬: 미니델타, 인텐시브, 텍스타일, 리스펙트, 제너럴, 틈새, 소파, 업탑 / 크기(가로x세로x깊이): 345x742x154mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 싸이클론 / 5단계여과 / 인버터모터 / 흡입력: 12000Pa / 먼지통용량: 0.5L / 충전시간: 4시간 / 사용시간: 40분 / 배터리: 리튬이온 / 용량: 2200mAh / 브러쉬: 바닥, 솔형, 틈새, 연장관 / LED라이트 / 거치대 / 무게: 2.2kg / 소비전력: 150W / 크기(가로x세로x깊이): 238x1140x214mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 유선형 / 싸이클론 / 브러쉬: 바닥, 틈새 / 무게: 2.1kg / 색상:블루 / 소비전력: 600W / 크기(가로x세로x깊이): 270x1300x270mm</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 물걸레전용 / 회전식 / 무선형 / 사용시간: 40분 / LED라이트 / 각도조절 / 배터리잔량표시</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 물걸레전용 / 회전식 / 무선형 / 전압: 7.4V / 충전시간: 3시간30분 / 사용시간: 1시간 / 배터리: 리튬이온 / 용량: 2000mAh / 각도조절 / 셀프스탠딩 / 프리볼트 / 무게: 1kg / 패드: 극세사(벨크로형) / 크기(가로x세로x깊이): 290x1140x135mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 29.6V / 헤파필터 / 싸이클론 / 4단계여과 / 인버터모터 / 흡입력: 21000Pa / 배터리: 리튬이온 / 용량: 2400mAh / 브러쉬: 바닥, 솔형, 틈새, 연장관 / LED라이트 / 거치대 / 프리볼트 / 무게: 2.9kg / 소비전력: 300W / 크기(가로x세로x깊이): 240x1120x230mm</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 물걸레전용 / 회전식 / 무선형 / 전압: 14.48V / 충전시간: 3시간 / 사용시간: 30분 / 배터리: 리튬이온 / 용량: 2150mAh / LED라이트 / 셀프스탠딩 / 무게: 3kg / 소비전력: 80W / 색상:블랙 / 모터과열방지 / 배터리잔량표시 / 패드: 극세사(벨크로형) / 크기 410x1230x215mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 25.2V / 헤파필터 / 싸이클론 / 5단계여과 / 흡입력: 120AW / 충전시간: 3시간30분 / 사용시간: 60분 / 브러쉬: 바닥, 솔형, 틈새, 침구, 연장관 / 거치대 / 무게: 1.5kg / 색상:블루 / 소비전력: 400W</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 사용시간: 15~18분 / 색상:화이트+오렌지</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디형 / 무선형 / 충전시간: 12~16시간 / 사용시간: 12분 / 브러쉬: 솔형, 틈새 / 무게: 1.63kg / 크기(가로x세로): 130x235mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 25.2V / 헤파필터 / 4단계여과 / 인버터모터 / 충전시간: 3시간30분 / 사용시간: 40분 / 배터리: 리튬이온 / 브러쉬: 바닥, 솔형, 틈새, 침구, 연장관 / 거치대 / 프리볼트 / 무게: 2.9kg / 색상:화이트 / 소비전력: 400W / 크기(가로x세로x깊이): 105x267x319mm</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 물걸레전용 / 왕복식 / 무선형 / 전압: 11.1V / 듀얼싸이클론 / 충전시간: 3~5시간 / 사용시간: 80분 / 배터리: 리튬이온 / 용량: 2200mAh / 물분사 / LED라이트 / 셀프스탠딩 / 무게: 2.4kg / 소비전력: 35W / 색상:네이비, 바이올렛 / 배터리잔량표시 / 패드: 극세사(벨크로형) / 크기(가로x세로): 290x1180x260mm</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 12~24V / 흡입력: 4,500Pa / 최대출력: 80W / 3중필터 / 스테인리스 필터 / 추가노즐: 틈새, 솔브러쉬, 연장호스 / 싸이클론 / 사용시간: 30분 / 충전시간: 6시간 / 크기: 420x100x135mmmm / 무게: 1.24kg</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 22.2V / 헤파필터 / H13급 / 싸이클론 / 3단계여과 / BLDC모터 / 흡입력: 19000Pa / 충전시간: 4시간30분 / 사용시간: 35분 / 배터리: 리튬이온 / 용량: 2200mAh / 브러쉬: 바닥, 솔형, 틈새 / 거치대 / 배터리잔량표시 / 프리볼트 / 무게: 1.5kg / 색상:메트로블루, 메트로골드 / 소비전력: 180W / 크기(가로x세로x깊이): 305x225x117mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디형 / 무선형 / 충전시간: 8시간 / 사용시간: 9분 / 브러쉬: 틈새 / 거치대 / 무게: 0.66kg / 색상:레드+블랙 / 소비전력: 45W / 크기(가로x세로x깊이): 90x420x90mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 18.5V / 듀얼헤파필터 / 먼지통용량: 0.5L / 충전시간: 4~5시간 / 사용시간: 40분 / 배터리: 리튬이온 / 브러쉬: 바닥, 솔형, 틈새 / LED라이트 / 배터리잔량표시 / 셀프스탠딩 / 무게: 2.9kg / 색상:골드 / 크기(가로x세로x깊이): 261x1182x207mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 스틱형 / 무선형 / 싸이클론 / 충전시간: 3시간 / 사용시간: 35분 / 배터리: 리튬이온 / LED라이트 / 거치대 / 배터리잔량표시 / 무게: 4.5kg / 플랙스튜브 / 브러쉬: 바닥, 솔형, 소파, 미니모터, 플랙서블틈새, 업탑</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 싸이클론 / 먼지통용량: 0.5L / 충전시간: 3시간30분 / 사용시간: 60분 / 배터리: 리튬이온 / 도킹스테이션 / 무게: 2.67kg / 소비전력: 525W / 브러쉬: 소프트롤러헤드, 토크드라이브클리너헤드, 콤비네이션툴, 크레비스툴, 미니모터툴, 소프트더스팅브러시, 매트리스툴, 업탑어댑터, 연장호스 / 크기(가로x세로x깊이): 256x1266x250mm</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 물걸레+진공 / 회전식 / 무선형 / 흡입력: 19000Pa / 전압: 22.2V / 헤파필터 / H13급 / 듀얼싸이클론 / 4단계여과 / 충전시간: 4시간39분 / 사용시간: 1시간25분 / 배터리: 리튬이온 (2개) / 용량: 2000mAh / LED라이트 / 프리볼트 / 무게: 2.6kg / 소비전력: 250W / 색상:레드 / 자동먼지감지 / 브러쉬: 바닥, 틈새, 솔형 / 거치대 / 패드: 극세사(벨크로형), 일회용 / 크기(가로x세로x깊이): 382x1200x272mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 22.2V / 싸이클론 / 충전시간: 4~5시간 / 사용시간: 30분 / 배터리: 리튬이온 / 브러쉬: 바닥, 솔형, 틈새, 연장관 / 배터리잔량표시 / 무게: 2.3kg / 크기(가로x세로x깊이): 104x211x240mm</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱+핸디형 / 물걸레+진공 / 회전식 / 무선형 / 전압: 18.5V / 헤파필터 / 3단계여과 / BLDC모터 / 충전시간: 4시간 / 사용시간: 물걸레: 2시간30분, 물걸레+진공: 30분 / 배터리: 리튬이온 / 용량: 2900mAh / LED라이트 / 셀프스탠딩 / 프리볼트 / 무게: 4.5kg / 색상:화이트, 블랙 / 크기(가로x세로x깊이): 360x1200x200mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 헤파필터 / 충전시간: 5시간 / 사용시간: 15분 / 배터리: 니켈수소 / 브러쉬: 바닥, 틈새 / 배터리잔량표시 / 무게: 1.28kg / 색상:화이트</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 18.5V / 헤파필터 / 싸이클론 / 3단계여과 / BLDC모터 / 흡입력: 17000Pa / 먼지통용량: 0.4L / 충전시간: 5시간 / 사용시간: 30분 / 배터리: 리튬이온 / 용량: 2200mAh / LED라이트 / 거치대 / 배터리잔량표시 / 브러쉬: 바닥, 틈새, 에어, 연장관 / 크기(가로x세로x깊이): 80x1040x190mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 21.6V / 헤파필터 / 싸이클론 / 5단계여과 / 인버터모터 / 흡입력: 150W / 먼지통용량: 0.5L / 충전시간: 3시간30분 / 사용시간: 40분 / 배터리: 리튬이온 / 브러쉬: 바닥, 솔형, 틈새, 침구, 연장관 / 거치대 / 디스플레이표시창 / 프리볼트 / 무게: 2.57kg / 색상:틸바이올렛 / 소비전력: 410W / 크기(가로x세로x깊이): 250x1123x215mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 스틱형 / 무선형 / 전압: 14.4V / 헤파필터 / 싸이클론 / 충전시간: 5시간 / 사용시간: 30분 / 배터리: 리튬이온 / LED라이트 / 배터리잔량표시 / 셀프스탠딩 / 무게: 2.31kg / 색상:블랙 / 크기(가로x세로x깊이): 260x1092x220 mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 12V / 헤파필터 / H12급 / 3단계여과 / 충전시간: 5시간 / 사용시간: 20분 / 배터리: 니켈수소 / 브러쉬: 바닥, 솔형, 틈새, 연장관 / 물걸레 / 무게: 2.7kg / 소비전력: 72W / 크기(가로x세로x깊이): 350x1100x300mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 18V / 싸이클론 / 2단계여과 / 충전시간: 4시간 / 사용시간: 12분 / 배터리: 리튬이온 / 브러쉬: 바닥, 솔형, 틈새, 연장관 / 거치대 / 프리볼트 / 무게: 1.38kg / 색상:화이트 / 피벗노즐 / 크기(가로x세로x깊이): 270x170x140mm</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 물걸레전용 / 회전식 / 무선형 / 전압: 18V / 충전시간: 3시간 / 사용시간: 30분 / 배터리: 리튬이온 / 용량: 2500mAh / LED라이트 / 각도조절 / 셀프스탠딩 / 무게: 4.1kg / 소비전력: 100W / 색상:브론즈골드 / 배터리잔량표시 / 패드: 극세사(벨크로형) / 크기(가로x세로x깊이): 425x1125x204mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 충전시간: 3시간 / 사용시간: 30분 / 배터리: 리튬이온 / 브러쉬: 바닥, 솔형, 틈새 / 셀프스탠딩 / 무게: 2.7kg / 색상:새틴실버 / 소비전력: 170W / 크기(가로x세로x깊이): 260x1100x165mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디형 / 무선형 / 색상:블랙 / USB충전식</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디형 / 무선형 / 전압: 10.8V / 싸이클론 / 충전시간: 4시간 / 사용시간: 11분 / 배터리: 리튬이온 / 브러쉬: 솔형, 틈새 / 거치대 / 무게: 1.28kg / 색상:블루, 오렌지 / 피벗노즐 / 크기(가로x세로x깊이): 270x170x140mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 22.2V / 듀얼싸이클론 / 2단계여과 / BLDC모터 / 흡입력: 22000Pa / 먼지통용량: 0.5L / 충전시간: 4~6시간 / 사용시간: 35분 / 배터리: 리튬이온 / 브러쉬: 바닥, 카펫, 틈새, 침구, 연장관 / 거치대 / 배터리잔량표시 / 무게: 1.89kg / 색상:레드</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 21.6V / 충전시간: 3시간 / 사용시간: 60분 / 배터리: 리튬이온 / 브러쉬: 바닥, 솔형, 틈새 / 셀프스탠딩 / 무게: 2.7kg / 색상:메탈릭사틴골드 / 소비전력: 170W / 롱리치툴 / 크기(가로x세로x깊이): 260x1100x165mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 22.2V / 헤파필터 / H13급 / 멀티싸이클론 / 5단계여과 / BLDC모터 / 흡입력: 19000Pa / 먼지통용량: 0.5L / 충전시간: 4시간40분 / 사용시간: 34분 / 용량: 2000mAh / 브러쉬: 바닥, 솔형, 틈새, 물걸레, 연장관 / LED라이트 / 거치대 / 배터리잔량표시 / 프리볼트 / 무게: 4.5kg / 색상:레드, 골드 / 소비전력: 250W / 먼지감지센서 / 크기(가로x세로x깊이): 381x1149x330mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 29.6V / 헤파필터 / H13급 / 싸이클론 / 5단계여과 / BLDC모터 / 흡입력: 25000Pa / 먼지통용량: 0.5L / 충전시간: 2시간 / 사용시간: 1시간 / 배터리: 리튬이온 / 용량: 2000mAh / 브러쉬: 바닥, 솔형, 틈새, 침구, 연장관 / LED라이트 / 거치대 / 무게: 1.5kg / 색상:메탈릭실버 / 소비전력: 400W / 크기(가로x세로x깊이): 256x1172x217mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디형 / 무선형 / 헤파필터 / 싸이클론 / 충전시간: 3시간30분 / 사용시간: 20분 / 도킹스테이션 / 무게: 2.33kg / 소비전력: 350W / 브러쉬: 소프트롤러클리너헤드, 미니모터라이즈드툴, 매트리스툴, 익스텐션호스, 콤비네이션툴, 크레비스노즐 / 크기(가로x세로x깊이): 250x1207x208mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디형 / 무선형 / 전압: 4.8V / 배터리: 니켈수소 / 거치대 / 색상:실버+블랙 / 크기(가로x세로x깊이): 415x90x99mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 싸이클론 / 충전시간: 3시간 / 사용시간: 35분 / 배터리: 리튬이온 / LED라이트 / 거치대 / 배터리잔량표시 / 무게: 4.5kg / 색상:레드 / 플랙스튜브 / 브러쉬: 바닥, 솔형, 소파, 미니모터, 플랙서블틈새, 업탑</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 물걸레전용 / 회전식 / 무선형 / 전압: 14.48V / 충전시간: 3시간 / 사용시간: 30분 / 배터리: 리튬이온 / 용량: 2150mAh / LED라이트 / 가구손상방지 / 무게: 3.1kg / 색상:화이트 / 패드: 극세사(벨크로형) / 크기(가로x세로x깊이): 410x1250x190mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 22.2V / 헤파필터 / H13급 / 싸이클론 / 4단계여과 / BLDC모터 / 흡입력: 22000Pa / 먼지통용량: 0.55L / 충전시간: 4~5시간 / 사용시간: 30분 / 배터리: 리튬이온 / 용량: 2200mAh / 브러쉬: 바닥, 솔형, 틈새, 침구, 연장관 / LED라이트 / 거치대 / 배터리잔량표시 / 무게: 2.2kg / 소비전력: 250W / 크기(가로x세로x깊이): 240x1040x212mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 흡입력: 7500Pa / 먼지통용량: 0.8L / 사용시간: 25분 / 브러쉬: 바닥, 솔형, 연장관 / 색상:퍼플</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 10.8V / BLDC모터 / 충전시간: 2시간30분 / 사용시간: 12분 / 배터리: 리튬이온 / 브러쉬: 바닥, 솔형, 틈새 / 무게: 0.624kg / 색상:블랙 / 소비전력: 120W / 크기(가로x세로x깊이): 61x419x53mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 22.2V / 헤파필터 / H13급 / 싸이클론 / 4단계여과 / BLDC모터 / 흡입력: 20000Pa / 충전시간: 4시간30분 / 사용시간: 45분 / 배터리: 리튬이온 / 용량: 2000mAh / 브러쉬: 바닥, 솔형, 틈새, 연장관 / LED라이트 / 거치대 / 무게: 2.4kg / 소비전력: 250W / 먼지감지센서 / 크기(가로x세로x깊이): 245x1170x210mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 22.2V / 헤파필터 / 듀얼싸이클론 / 흡입력: 9000Pa / 충전시간: 4시간 / 사용시간: 40분 / 배터리: 리튬이온 / 브러쉬: 바닥, 솔형, 틈새, 연장관 / 도킹스테이션 / 무게: 1.89kg / 색상:레드</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 22.2V / 헤파필터 / 싸이클론 / 충전시간: 4시간 / 사용시간: 20~30분 / 배터리: 리튬이온 / 브러쉬: 바닥, 솔형, 틈새, 연장관 / LED라이트 / 거치대 / 배터리잔량표시 / 색상:화이트+블루, 화이트+오렌지 / 소비전력: 140W</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 22.2V / 헤파필터 / H13급 / 싸이클론 / 충전시간: 4시간 / 사용시간: 30분 / 배터리: 리튬이온 / 브러쉬: 바닥, 솔형 / LED라이트 / 거치대 / 프리볼트 / 무게: 2.35kg / 소비전력: 140W / 크기(가로x세로x깊이): 250x1210x220mm</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 물걸레전용 / 회전식 / 무선형 / 전압: 14.6V / 충전시간: 4시간 / 사용시간: 30분 / 배터리: 리튬이온 / 용량: 2850mAh / LED라이트 / 가구손상방지 / 각도조절 / 셀프스탠딩 / 무게: 3.6kg / 색상:화이트 / 배터리잔량표시 / 모터과열방지 / 과충전방지 / 오토스토핑 / 패드: 극세사(벨크로형) / 크기(가로x세로x깊이): 410x1020x205mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 21.6V / 싸이클론 / 먼지통용량: 0.8L / 충전시간: 4~5시간 / 사용시간: 30분 / 용량: 2050mAh / 브러쉬: 바닥, 솔형, 틈새, 연장관 / LED라이트 / 거치대 / 프리볼트 / 무게: 2.1kg / 크기(가로x세로x깊이): 360x294x230mm</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 물걸레+진공 / 무선형 / 흡입력: 9000Pa / 전압: 21.6V / 헤파필터 / H11급 / 충전시간: 3시간 / 사용시간: 30분 / 용량: 2000mAh / 셀프스탠딩 / 무게: 3.8kg / 소비전력: 200W / 색상:블랙 / 배터리잔량표시 / 거치대 / 크기(가로x세로x깊이): 250x1100x170mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 12V / 2단계여과 / 흡입력: 3600Pa / 먼지통용량: 0.6L / 충전시간: 1시간 / 배터리: 리튬이온 / 브러쉬: 카펫, 틈새, 연장관 / LED라이트 / 무게: 0.8kg / 크기(가로x세로x깊이): 460x140x80mm</t>
   </si>
   <si>
     <t>핸디/스틱청소기 / 스틱형 / 무선형 / 전압: 32.4V / 5단계여과 / 충전시간: 6시간 / 사용시간: 55분 / 배터리: 리튬이온 / LED라이트 / 거치대 / 배터리잔량표시 / 셀프스탠딩 / 무게: 4.1kg / 색상:아이언그레이 / 알레르기인증(BAF) / 브러쉬: 3in1 / 플렉스리프트 / 크기(가로x세로x깊이): 215x1200x249mm</t>
   </si>
   <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 18V / 싸이클론 / 3단계여과 / 충전시간: 4시간 / 사용시간: 45분 / 배터리: 리튬이온 / 브러쉬: 바닥, 솔형 / LED라이트 / 거치대 / 배터리잔량표시 / 브러쉬자동청소 / 셀프스탠딩 / 무게: 2.6kg / 색상:초콜릿브라운메탈릭 / 크기(가로x세로x깊이): 263x1070x150mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 이중래디얼싸이클론 / 흡입력: 115AW / 충전시간: 5시간 / 사용시간: 40분 / 배터리: 리튬이온 / 도킹스테이션 / 무게: 2.63kg / 소비전력: 425W / 브러쉬: 소프트롤러클리너헤드, 다이렉트드라이브헤드, 미니모터라이즈드툴, 콤비네이션툴, 크레비스툴, 플렉시크레비스툴, 업탑어댑터, 매트리스툴, 미니소프트더스팅브러쉬툴, 익스텐션호스 / 크기(가로x세로x깊이): 250x1244x210mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 21.6V / 듀얼싸이클론 / 흡입력: 155AW / 충전시간: 5시간 / 사용시간: 40분 / 배터리: 리튬이온 / 도킹스테이션 / 무게: 2.63kg / 소비전력: 485W / 브러쉬: 소프트롤러클리너헤드, 다이렉트드라이브헤드, 미니모토라이즈드툴, 콤비네이션툴, 크레비스툴, 업탑어댑터, 소프트더스팅브러쉬, 익스텐션호스, 와이드노즐 / 크기(가로x세로x깊이): 250x1244x210mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 10.8V / 흡입력: 60W / 충전시간: 8시간 / 사용시간: 20분 / 배터리: 니켈수소 / 브러쉬: 바닥, 틈새, 연장관 / 거치대 / 무게: 1.3kg / 크기(가로x세로x깊이): 144x387x136mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 21.6V / 이중래디얼싸이클론 / 흡입력: 100AW / 충전시간: 3시간30분 / 사용시간: 20분 / 배터리: 리튬이온 / 도킹스테이션 / 무게: 2.1kg / 색상:실버 / 소비전력: 350W / 브러쉬: 카본파이버모터헤드, 콤비네이션툴 / 크기(가로x세로x깊이): 208x1180x211mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 헤파필터 / 싸이클론 / 흡입력: 115W / 충전시간: 5시간 / 사용시간: 40분 / 배터리: 리튬이온 / 도킹스테이션 / 무게: 2.63kg / 브러쉬: 소프트롤러클리너헤드, 미니모토라이즈드툴, 콤비네이션툴, 크레비스노즐, 업탑아답터, 미니소프트더스팅, 와이드노즐 / 크기(가로x세로x깊이): 250x1244x210mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 스틱형 / 무선형 / 싸이클론 / 흡입력: 115AW / 충전시간: 5시간 / 사용시간: 40분 / 배터리: 리튬이온 / 도킹스테이션 / 무게: 2.55kg / 브러쉬: 다이렉트드라이브헤드, 미니모토라이즈드툴, 콤비네이션툴, 크레비스노즐, 업탑아답터, 미니소프트더스팅, 와이드노즐 / 크기(가로x세로x깊이): 250x1244x210mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 22.2V / 싸이클론 / 4단계여과 / 먼지통용량: 0.55L / 충전시간: 4~5시간 / 사용시간: 30분 / 배터리: 리튬이온 / 브러쉬: 바닥, 솔형, 틈새, 연장관 / 거치대 / 무게: 2.3kg / 소비전력: 250W / 흡입력: 19000Pa / 크기(가로x세로x깊이): 240x1040x212mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 21.6V / 싸이클론 / 5단계여과 / 먼지통용량: 0.3L / 충전시간: 3시간30분 / 사용시간: 50분 / 배터리: 리튬이온 / 브러쉬: 바닥, 솔형, 틈새 / LED라이트 / 거치대 / 브러쉬자동청소 / 셀프스탠딩 / 무게: 2.7kg / 색상:그라나이트그레이 / 크기(가로x세로x깊이): 234x1056x163mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 25.2V / 싸이클론 / 충전시간: 3시간30분 / 사용시간: 60분 / 도킹스테이션 / 무게: 2.5kg / 소비전력: 525W / 브러쉬: 소프트롤러클리너헤드, 다이렉트드라이브헤드, 미니모토라이즈드툴, 콤비네이션툴, 크레비스툴, 익스텐션호스, 업탑어댑터, 매트리스툴, 하트플로어툴 / 크기(가로x세로x깊이): 250x1241x256mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 25.2V / 헤파필터 / 싸이클론 / 5단계여과 / 흡입력: 120AW / 충전시간: 3시간30분 / 사용시간: 60분 / 브러쉬: 바닥, 솔형, 틈새, 침구, 연장관 / 거치대 / 무게: 1.5kg / 색상:블루 / 소비전력: 400W</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 22.2V / 싸이클론 / 먼지통용량: 0.3L / 충전시간: 4~5시간 / 사용시간: 30분 / 배터리: 리튬이온 / 브러쉬: 바닥, 솔형, 틈새, 침구, 연장관 / LED라이트 / 거치대 / 배터리잔량표시 / 무게: 2kg / 흡입력: 22000Pa / 크기(가로x세로): 260x1140X230mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디형 / 무선형 / 전압: 14.4V / 싸이클론 / 3단계여과 / 충전시간: 4시간 / 사용시간: 24분 / 배터리: 리튬이온 / 브러쉬: 솔형, 틈새 / 무게: 1.13kg / 색상:그레이 / 5단계각도조절 / 크기(가로x세로x깊이): 124x410x137mm</t>
-  </si>
-  <si>
-    <t>물걸레청소기 / 스틱형 / 물걸레전용 / 회전식 / 무선형 / 전압: 14.6V / 충전시간: 2시간30분 / 사용시간: 30분 / 배터리: 리튬이온 (2개) / LED라이트 / 가구손상방지 / 각도조절 / 프리볼트 / 무게: 3.7kg / 색상:블랙 / 배터리잔량표시 / 모터과열방지 / 과충전방지 / 오토스토핑 / 거치대 / 패드: 극세사(벨크로형) / 크기(가로x세로x깊이): 410x1180x205mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 18V / 4단계여과 / 충전시간: 4시간 / 사용시간: 48분 / 배터리: 리튬이온 / LED라이트 / 거치대 / 배터리잔량표시 / 브러쉬자동청소 / 셀프스탠딩 / 무게: 3.36kg / 색상:마호가니 브론즈 / 알레르기인증(BAF) / 브러쉬: 베드프로, 솔형  / 크기(가로x세로x깊이): 303x690x162mm</t>
-  </si>
-  <si>
-    <t>물걸레청소기 / 스틱형 / 물걸레전용 / 회전식 / 무선형 / 전압: 14.6V / 배터리: 리튬이온 / 무게: 3.4kg / 색상:화이트 / 스위블기능 / 크기(가로x세로x깊이): 450x1230x250mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 18V / 싸이클론에어 / 2단계여과 / 사용시간: 42분 / 브러쉬: 바닥, 틈새, 연장관 / 무게: 1.3kg / 색상:블랙</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 22.2V / 헤파필터 / H13급 / 싸이클론 / 4단계여과 / BLDC모터 / 먼지통용량: 0.55L / 충전시간: 4~5시간 / 사용시간: 35분 / 배터리: 리튬이온 / 브러쉬: 바닥, 솔형, 틈새, 연장관 / 거치대 / 무게: 2.3kg / 소비전력: 250W / 흡입력: 22000Pa / 크기(가로x세로x깊이): 240x1024x211mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디형 / 무선형 / 전압: 4.8V / 싸이클론 / 흡입력: 60W / 충전시간: 8시간 / 사용시간: 9분 / 브러쉬: 바닥, 틈새, 연장관 / 거치대 / 색상:블랙+레드 / 크기(가로x세로x깊이): 200x138x400mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 22.2V / 헤파필터 / H13급 / 싸이클론 / 먼지통용량: 1L / 충전시간: 4시간30분 / 사용시간: 40분 / 배터리: 리튬이온 / 브러쉬: 바닥, 틈새 / LED라이트 / 거치대 / 배터리잔량표시 / 무게: 2.4kg / 소비전력: 120W / 흡입력: 8000Pa / 크기(가로x세로x깊이): 250x1115x280mm</t>
-  </si>
-  <si>
-    <t>진공청소기 / 무선형 / 2중터보싸이클론 / 헤파필터 / 7단계여과 / 인버터모터 / 흡입력: 250W / 먼지통 / 먼지통용량: 1.5L / 먼지압축 / 브러쉬: 플로어 / 보조브러쉬: 침구용 / 소비전력: 850W / 색상:보헤미안레드 / 알레르기인증(BAF) / 미세먼지인증(SLG) / 크기(가로x세로x깊이): 290x401x327mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 6V / 싸이클론 / 충전시간: 8시간 / 사용시간: 15분 / 브러쉬: 바닥, 틈새, 연장관 / 색상:화이트+오렌지 / 소비전력: 80W / 크기(가로x세로x깊이): 130x410x130mm</t>
-  </si>
-  <si>
-    <t>물걸레청소기 / 스틱형 / 물걸레전용 / 회전식 / 무선형 / 사용시간: 40분 / LED라이트 / 각도조절 / 배터리잔량표시</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 22.2V / 헤파필터 / H13급 / 싸이클론 / 3단계여과 / 먼지통용량: 0.55L / 충전시간: 4~5시간 / 사용시간: 45분 / 배터리: 리튬이온 / 브러쉬: 바닥, 솔형, 틈새, 연장관 / LED라이트 / 배터리잔량표시 / 무게: 2.2kg / 소비전력: 120W / 흡입력: 9000Pa / 크기(가로x세로x깊이): 240x1040x211mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 25.2V / 충전시간: 3시간 / 사용시간: 30분 / 배터리: 리튬이온 / 무게: 1.6kg / 소비전력: 100W / 브러쉬: 바닥, 핸디, 틈새, UV헤드, 연장관 / 먼지센서 / 크기(가로x세로x깊이): 207.4x1039.5x210.8mm</t>
-  </si>
-  <si>
-    <t>물걸레청소기 / 스틱형 / 물걸레전용 / 회전식 / 무선형 / 전압: 16.8V / 충전시간: 3시간 / 사용시간: 30분 / 배터리: 리튬이온 / LED라이트 / 가구손상방지 / 무게: 3.1kg / 패드: 극세사(벨크로형) / 크기(가로x세로x깊이): 420x1250x190mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디형 / 무선형 / 전압: 3.6V / 2단계여과 / 사용시간: 10분 / 배터리: 니켈수소 / 브러쉬: 틈새 / 거치대 / 색상:블랙 / 크기(가로x세로x깊이): 444x133x109mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 25.2V / 싸이클론 / 5단계여과 / 먼지통용량: 0.3L / 충전시간: 4시간 / 사용시간: 55분 / 배터리: 리튬이온 / LED라이트 / 거치대 / 브러쉬자동청소 / 셀프스탠딩 / 무게: 2.75kg / 색상:사틴화이트 / 브러쉬: 바닥, UV베드, 틈새, 더스팅, 슈퍼롱, 사선 / 크기(가로x세로x깊이): 256x1100x130mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디형 / 무선형 / 전압: 18V / 싸이클론 / 3단계여과 / 충전시간: 4시간 / 사용시간: 12분 / 배터리: 리튬이온 / 거치대 / 배터리잔량표시 / 프리볼트 / 무게: 1.38kg / 색상:크롬 / 소비전력: 27W / 피벗노즐 / 크기(가로x세로x깊이): 270x170x140mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디형 / 무선형 / 전압: 4.8V / 2단계여과 / 브러쉬: 솔형, 틈새 / 무게: 1.5kg / 색상:화이트+블루 / 소비전력: 35W / 크기(가로x세로x깊이): 100x360x100mm</t>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 21.9V / 싸이클론 / 충전시간: 3시간 / 사용시간: 20분 / 배터리: 리튬이온 / 브러쉬: 바닥, 솔형, 틈새 / LED라이트 / 거치대 / 프리볼트 / 색상:블루 / 크기(가로x세로x깊이): 345x154x742mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 싸이클론 / 먼지통용량: 0.75L / 충전시간: 4시간30분 / 사용시간: 1시간 / 거치대 / 디스플레이표시창 / 무게: 3kg / 색상:퍼플, 블랙, 블루, 코퍼 / 변환어댑터: 필요 / 브러쉬:  소프트롤러클리너헤드, 하이토크클리너헤드, 콤비네이션툴, 크레비스툴, 미니모터라이즈툴, 더스팅브러쉬, 스터번더트브러쉬, 카본소프트더스팅브러쉬</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 스틱형 / 무선형 / 전압: 32.4V / 5단계여과 / 충전시간: 6시간 / 사용시간: 55분 / 배터리: 리튬이온 / LED라이트 / 거치대 / 배터리잔량표시 / 셀프스탠딩 / 무게: 4.1kg / 색상:인디고블루 / 알레르기인증(BAF) / 브러쉬: 침구, 3in1, 더스팅, 앵글튜브 / 플렉스리프트 / 바닥감지 / 크기(가로x세로x깊이): 215x1200x249mm</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 물걸레전용 / 왕복식 / 무선형 / 전압: 10.95V / 충전시간: 3시간 / 사용시간: 1시간20분 / 배터리: 리튬이온 / 용량: 2050mAh / 각도조절 / 셀프스탠딩 / 무게: 2.8kg / 소비전력: 30W / 색상:화이트 / 패드: 극세사(벨크로형)  / 크기(가로x세로x깊이): 270x1180x270mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 18V / 4단계여과 / 먼지통용량: 0.42L / 충전시간: 4시간 / 사용시간: 48분 / 배터리: 리튬이온 / 거치대 / 셀프스탠딩 / 무게: 3.3kg / 색상:인디고블루 / 알레르기인증(BAF) / 브러쉬: 파워프로롤러, 베드프로미니, 일반틈새, 긴틈새</t>
+  </si>
+  <si>
+    <t>침구청소기 / 핸디형 / 무선형 / 3단계여과 / 흡입력: 6000Pa / 충전시간: 2시간30분 / 사용시간: 25분 / 용량: 2200mAh / 청소모드: UV살균, 진동, 흡입 / 진동수: 8000회(분당) / 헤파필터 / 거치대 / 무게: 1.3kg / 크기(가로x세로): 270x324mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디형 / 무선형 / 전압: 3.6V / 충전시간: 3시간 / 사용시간: 30분 / 배터리: 리튬이온 / 배터리잔량표시 / 무게: 0.7kg / 유리창전용 / 폴리퍼파우더코팅</t>
+  </si>
+  <si>
+    <t>침구청소기 / 핸디형 / 무선형 / 전압: 22.2V / 싸이클론 / 4단계여과 / 흡입력: 8500Pa / 먼지통용량: 0.5L / 충전시간: 4~5시간 / 사용시간: 50분 / 용량: 13200mAh / 청소모드: UV살균, 진동, 흡입 / 헤파필터 / H13급 / 무게: 2.15kg / 소비전력: 150W / 거리감지센서 / 크기(가로x세로x깊이): 250x200x298mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디형 / 무선형 / 충전시간: 2시간40분 / 사용시간: 25분 / 배터리: 리튬이온 / 무게: 0.58kg / 유리청소 / 흡입력: 1500Pa / 물통용량: 0.12L / 크기(가로x세로x깊이): 275x330x110mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 22.2V / 헤파필터 / BLDC모터 / 흡입력: 20000Pa / 충전시간: 4시간 / 사용시간: 30분 / 배터리: 리튬이온 / 용량: 2200mAh / 브러쉬: 바닥, 솔형, 틈새, 침구, 연장관 / LED라이트 / 거치대 / 배터리잔량표시 / 무게: 1.24kg / 색상:골드 / 소비전력: 200W</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 4,200Pa / 헤파필터 / 추가노즐: 틈새, 솔브러쉬 / 사용시간: 10분 / 충전시간: 2시간 / 크기: 70x70x270mm / 무게: 780g / 충전방식: USB C타입</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 22.2V / 헤파필터 / 싸이클론 / 충전시간: 5시간 / 사용시간: 35분 / 배터리: 리튬이온 / 브러쉬: 바닥, 솔형, 틈새, 침구 / LED라이트 / 거치대 / 무게: 2.2kg / 색상:화이트 / 소비전력: 120W / 크기(가로x세로x깊이): 245x1150x260mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 충전시간: 8시간 / 사용시간: 20분 / 배터리: 니켈카드뮴 / 브러쉬: 바닥, 틈새, 연장관 / 무게: 1.28kg / 색상:화이트 / 소비전력: 60W  / 크기(가로x세로x깊이): 144x387x136mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디형 / 무선형 / 충전시간: 6~8시간 / 사용시간: 15분 / 배터리: 니켈수소 / 브러쉬: 틈새 / 무게: 0.91Kg / 색상:블랙+오렌지</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 18V / 충전시간: 4시간 / 사용시간: 48분 / 배터리: 리튬이온 / 브러쉬: 바닥, 틈새, 침구 / LED라이트 / 색상:브론즈 / 알레르기인증(BAF)</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 물걸레전용 / 회전식 / 무선형 / 전압: 11.1V / 용량: 2200mAh / 물분사 / 프리볼트 / 색상:블루 / 패드: 극세사</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 22.2V / 싸이클론 / 충전시간: 4~5시간 / 사용시간: 30분 / 배터리: 리튬이온 / 브러쉬: 바닥, 틈새 / LED라이트 / 셀프스탠딩 / 무게: 2.9kg / 크기(가로x세로x깊이): 270x1100x200mm</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 물걸레전용 / 회전식 / 무선형 / 전압: 14.48V / 충전시간: 3시간 / 사용시간: 30분 / 배터리: 리튬이온 / 용량: 2050mAh / 각도조절 / 무게: 3.14kg / 소비전력: 70W / 색상:블랙, 화이트 / 크기(가로x세로x깊이): 411x1105x192mm</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 물걸레전용 / 회전식 / 무선형 / 전압: 14.48V / 충전시간: 3시간 / 사용시간: 30분 / 배터리: 리튬이온 / 용량: 2150mAh / LED라이트 / 셀프스탠딩 / 무게: 3kg / 소비전력: 80W / 색상:화이트 / 배터리잔량표시 / 패드: 극세사(벨크로형) / 크기(가로x세로x깊이): 410x1230x215mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디형 / 무선형 / 충전시간: 8시간 / 용량: 2180mAh / 브러쉬: 바닥, 틈새 / 거치대 / 색상:그린+블랙 / 크기(가로x세로x깊이): 120x420x100mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 22.2V / 헤파필터 / H13급 / 싸이클론 / 4단계여과 / BLDC모터 / 흡입력: 22000Pa / 먼지통용량: 0.55L / 충전시간: 4~5시간 / 사용시간: 30분 / 배터리: 리튬이온 / 용량: 2200mAh / 브러쉬: 바닥, 솔형, 틈새, 연장관 / 무게: 2.2kg / 소비전력: 250W / 크기(가로x세로x깊이): 240x1040x212mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디형 / 무선형 / 전압: 21.6V / 흡입력: 100AW / 충전시간: 3시간30분 / 사용시간: 30분 / 배터리: 리튬이온 / 무게: 1.71kg / 색상:블루, 레드 / 소비전력: 350W / 브러쉬: 미니모터헤드, 미니소프트더스팅, 스토번디트, 크레비스툴, 매트리스툴, 익스텐션호스 / 크기(가로x세로x깊이): 131x206x39mm</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 물걸레전용 / 회전식 / 무선형 / 전압: 14.48V / 충전시간: 3시간 / 사용시간: 30분 / 배터리: 리튬이온 / 용량: 2150mAh / LED라이트 / 무게: 3.1kg / 색상:화이트 / 패드: 극세사(벨크로형)  / 크기(가로x세로x깊이): 420x1250x190mm</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱+핸디형 / 물걸레전용 / 왕복식 / 무선형 / 전압: 11.1V / 충전시간: 5시간 / 사용시간: 1시간50분 / 용량: 2200mAh / 물분사 / LED라이트 / 각도조절 / 셀프스탠딩 / 프리볼트 / 무게: 2.4kg / 소비전력: 25W / 색상:화이트 / 모터과열방지 / 과충전방지 / 배터리잔량표시 / 크기(가로x세로x깊이): 270x1160x270mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 22.2V / 싸이클론 / 4단계여과 / DC모터 / 흡입력: 12000Pa / 먼지통용량: 0.55L / 충전시간: 5시간 / 사용시간: 45분 / 배터리: 리튬이온 / 용량: 2200mAh / 브러쉬: 바닥, 솔형, 틈새, 연장관 / 거치대 / 무게: 2.2kg / 소비전력: 150W / 크기(가로x세로x깊이): 240x1040x212mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 22.2V / 헤파필터 / H13급 / 싸이클론 / DC모터 / 흡입력: 12000Pa / 먼지통용량: 0.5L / 충전시간: 4시간 / 사용시간: 30분 / 배터리: 리튬이온 / 용량: 2200mAh / 브러쉬: 바닥, 솔형, 틈새, 연장관 / LED라이트 / 무게: 2.5kg / 색상:화이트 / 소비전력: 130W</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 물걸레전용 / 회전식 / 무선형 / 전압: 7.4V / 사용시간: 3시간30분 / 배터리: 리튬이온 / 용량: 2000mAh / 각도조절 / 셀프스탠딩 / 무게: 1kg / 색상:화이트+레드 / 패드: 극세사(벨크로형) / 크기(가로x세로x깊이): 290x1040x135mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 18V / 4단계여과 / 충전시간: 4시간 / 사용시간: 42분 / 배터리: 리튬이온 / 브러쉬: 바닥, 틈새, 침구 / LED라이트 / 배터리잔량표시 / 브러쉬자동청소 / 셀프스탠딩 / 무게: 3.28kg / 색상:소프트핑크 / 알레르기인증(BAF) / 브러쉬: 소파용, 틈새/브러쉬 겸용, 연장호스 / 크기(가로x세로x깊이): 303x690x162mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디형 / 무선형 / 사용시간: 1시간 / 색상:블랙 / 건전지식 / 생활방수 / 브러쉬: 강력, 미세, 수세미, 틈새</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 22.2V / 헤파필터 / 충전시간: 4시간30뷴 / 사용시간: 60분 / 배터리: 리튬이온 / 브러쉬: 틈새 / LED라이트 / 거치대 / 무게: 1.4kg / 색상:와인, 로즈골드, 퍼플 / 소비전력: 110W / 흡입력: 7000Pa / 크기(가로x세로x깊이): 350x1180x160mm [GWELL-8040MT] 소형청소기 / 핸디+스틱형 / 충전시간: 3시간 / 사용시간: 45분 / 브러시: 바닥, 솔형, 틈새, 연장관 / 주요기능: LED라이트 / 색상: 퍼플, 핑크 / 거치대</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 싸이클론 / 브러쉬: 바닥, 틈새 / 색상:화이트+그린, 레드 / 소비전력: 400W / 크기(가로x세로): 900x1200mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 스틱형 / 무선형 / 전압: 14.4V / 3단계여과 / 충전시간: 11시간 / 사용시간: 40분 / 배터리: 리튬이온 / 용량: 6300mAh / LED라이트 / 물걸레 / 무게: 4.4kg / 색상:투톤레드, 화이트 / 소비전력: 17W / 크기(가로x세로x깊이): 360x1170x230mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 21.6V / 헤파필터 / 싸이클론 / 3단계여과 / 먼지통용량: 0.5L / 충전시간: 6시간 / 사용시간: 20분 / 배터리: 리튬이온 / 용량: 2000mAh / 브러쉬: 바닥, 틈새, 침구, 연장관 / LED라이트 / 거치대 / 프리볼트 / 무게: 1.4kg / 색상:블루 / 소비전력: 150W / 크기(가로x세로x깊이): 230x1200x230mm</t>
   </si>
   <si>
     <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 21.6V / 싸이클론 / 흡입력: 100AW / 사용시간: 30분 / 배터리: 리튬이온 / 도킹스테이션 / 무게: 2.4kg / 소비전력: 350W / 110V / 변환어댑터: 필요 / 브러쉬: 다이렉트드라이브헤드, 콤비네이션툴, 크레비스툴 / 크기(가로x세로x깊이): 210x1243x250mm</t>
   </si>
   <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 21.9V / 헤파필터 / 싸이클론 / 5단계여과 / 인버터모터 / 흡입력: 200W / 먼지통용량: 0.5L / 충전시간: 3시간30분 / 사용시간: 60분 / 배터리: 리튬이온 / 브러쉬: 바닥, 솔형, 틈새, 침구, 연장관 / 거치대 / 디스플레이표시창 / 프리볼트 / 무게: 2.7kg / 색상:실버+핑크 / 소비전력: 550W / 알레르기인증(BAF) / 미세먼지인증(SLG) / 크기(가로x세로x깊이): 250x1136x215mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 21.6V / 헤파필터 / 싸이클론 / 5단계여과 / 인버터모터 / 흡입력: 150W / 먼지통용량: 0.5L / 충전시간: 3시간30분 / 사용시간: 40분 / 배터리: 리튬이온 / 브러쉬: 바닥, 솔형, 틈새, 침구, 물걸레, 연장관 / 거치대 / 디스플레이표시창 / 프리볼트 / 무게: 2.57kg / 색상:틸실버 / 소비전력: 410W / 크기(가로x세로x깊이): 250x1123x215mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디형 / 무선형 / 전압: 18V / 싸이클론 / 3단계여과 / 흡입력: 35AW / 충전시간: 4시간 / 사용시간: 12분 / 배터리: 리튬이온 / 브러쉬: 바닥, 연장관 / 거치대 / 배터리잔량표시 / 프리볼트 / 무게: 1.38kg / 색상:크롬 / 피벗노즐 / 크기(가로x세로x깊이): 270x170x140mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 25.2V / 싸이클론 / 5단계여과 / 먼지통용량: 0.3L / 충전시간: 4시간 / 사용시간: 55분 / 배터리: 리튬이온 / LED라이트 / 거치대 / 브러쉬자동청소 / 셀프스탠딩 / 무게: 2.75kg / 색상:마호가니브론즈 / 브러쉬: 바닥, 틈새, 슈퍼롱, 사선 / 크기(가로x세로x깊이): 256x1100x130mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 21.9V / 에어포스싸이클론 / 5단계여과 / 충전시간: 3시간 / 사용시간: 30분 / 배터리: 리튬이온 / LED라이트 / 거치대 / 배터리잔량표시 / 프리볼트 / 무게: 2.8kg / 색상:실버+블랙 / 브러쉬: 미니델타, 인텐시브, 텍스타일, 리스펙트, 제너럴, 틈새, 소파, 업탑 / 크기(가로x세로x깊이): 345x742x154mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 25.2V / 헤파필터 / H13급 / 싸이클론 / 먼지통용량: 0.5L / 충전시간: 4~6시간 / 사용시간: 40분 / 배터리: 리튬이온 / 브러쉬: 바닥, 틈새, 연장관 / LED라이트 / 무게: 2.3kg / 색상:오렌지, 퍼플, 블루 / 소비전력: 180W / 크기(가로x세로x깊이): 240x1065x260mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 25.2V / 싸이클론 / 충전시간: 3시간30분 / 사용시간: 60분 / 배터리: 리튬이온 / 도킹스테이션 / 프리볼트 / 무게: 2.5kg / 색상:쿠퍼니켈, 블루니켈 / 소비전력: 525W / 110V / 변환어댑터: 필요 / 브러쉬: 소프트롤러클리너헤드, 다이렉트드라이브클리너헤드, 미니모토라이즈드툴, 콤비네이션툴, 크레비스노즐, 미니소프트더스팅브러시 / 크기(가로x세로x깊이): 250x1241x256mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 21.9V / 헤파필터 / 싸이클론 / 5단계여과 / 인버터모터 / 흡입력: 200W / 먼지통용량: 0.5L / 충전시간: 3시간30분 / 사용시간: 60분 / 배터리: 리튬이온 / 브러쉬: 바닥, 솔형, 틈새, 침구, 연장관 / 거치대 / 디스플레이표시창 / 프리볼트 / 무게: 2.7kg / 색상:티탄모노크롬 / 소비전력: 550W / 알레르기인증(BAF) / 미세먼지인증(SLG) / 크기(가로x세로x깊이): 250x1136x215mm</t>
-  </si>
-  <si>
-    <t>물걸레청소기 / 스틱형 / 물걸레+진공 / 무선형 / 전압: 22.2V / 충전시간: 3~4시간 / 사용시간: 30분 / 배터리: 리튬이온 / 물분사 / 셀프스탠딩 / 무게: 3kg / 소비전력: 120W / 오토클리닝 / 거치대</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 유선형 / 싸이클론 / 브러쉬: 바닥, 틈새 / 무게: 2.1kg / 색상:블루 / 소비전력: 600W / 크기(가로x세로x깊이): 270x1300x270mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 헤파필터 / 싸이클론 / 6단계여과 / 먼지통용량: 0.4L / 충전시간: 2시간30분 / 사용시간: 1시간 / LED라이트 / 거치대 / 물걸레 / 원격제어 / 무게: 2.6kg / 색상:화이트 / 소비전력: 435W / 브러쉬: 바닥, 호스, 틈새, 다기능, 솔형, 연장관 / 흡입력: 23500Pa</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 유선형 / 헤파필터 / 싸이클론 / 브러쉬: 바닥, 틈새, 연장관 / 무게: 1.8kg / 색상:화이트+그린 / 소비전력: 600W / 각도조절 / 이동바퀴 / 크기(가로x세로x깊이): 240x1027x130mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 헤파필터 / H13급 / 싸이클론 / 4단계여과 / BLDC모터 / 흡입력: 17000Pa / 먼지통용량: 0.45L / 충전시간: 4시간 / 사용시간: 40분 / 배터리: 리튬이온 / 용량: 2200mAh / 브러쉬: 바닥, 솔형, 틈새, 연장관 / 거치대 / 배터리잔량표시 / 무게: 2.3kg / 소비전력: 200W / 불어내기 / 크기(가로x세로x깊이): 190x1040x80mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 22.2V / 헤파필터 / H13급 / 싸이클론 / 4단계여과 / 먼지통용량: 0.55L / 충전시간: 4~5시간 / 사용시간: 35분 / 배터리: 리튬이온 / 브러쉬: 바닥, 솔형, 틈새, 연장관 / 거치대 / 무게: 2.3kg / 소비전력: 250W / 흡입력: 18000Pa / 크기(가로x세로x깊이): 240x1024x211mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 18V / 4단계여과 / 먼지통용량: 0.42L / 충전시간: 4시간 / 사용시간: 48분 / 배터리: 리튬이온 / 거치대 / 셀프스탠딩 / 무게: 3.3kg / 색상:소프트핑크 / 알레르기인증(BAF) / 브러쉬: 파워프로롤러, 베드프로미니, 수퍼롱, 패브릭, 틈새, 플렉시호스</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 14.4V / 싸이클론 / 3단계여과 / 충전시간: 4시간 / 사용시간: 30분 / 배터리: 리튬이온 / LED라이트 / 거치대 / 배터리잔량표시 / 브러쉬자동청소 / 셀프스탠딩 / 무게: 2.5kg / 색상:브론즈 / 크기(가로x세로x깊이): 263x1070x150mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 싸이클론 / 배터리: 리튬이온 / 브러쉬: 바닥, 솔형 / LED라이트</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 25.2V / 헤파필터 / BLDC모터 / 흡입력: 300W / 충전시간: 5시간 / 사용시간: 35분 / 브러쉬: 바닥, 틈새, 연장관 / LED라이트 / 프리볼트 / 크기(가로x세로x깊이): 218x1144x124mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 25.2V / 헤파필터 / H13급 / 싸이클론 / 흡입력: 180W / 먼지통용량: 0.5L / 충전시간: 6시간 / 사용시간: 40분 / 배터리: 리튬이온 / LED라이트 / 거치대 / 무게: 2.12kg / 색상:블랙 / 소비전력: 180W / 브러쉬: 소프트롤러, 파워, 콤비네이션툴, 연장관 / 크기(가로x세로x깊이): 240x1065x260mm</t>
-  </si>
-  <si>
-    <t>물걸레청소기 / 스틱형 / 물걸레전용 / 회전식 / 무선형 / 전압: 14.4V / 사용시간: 50분 / LED라이트 / 셀프스탠딩 / 각도조절 / 무게: 3.2kg / 소비전력: 80W / 색상:화이트, 와인 / 패드: 극세사(벨크로형) / 크기(가로x세로x깊이): 420x1230x230mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 22.2V / 헤파필터 / H13급 / 싸이클론 / 4단계여과 / BLDC모터 / 먼지통용량: 0.55L / 충전시간: 4~5시간 / 사용시간: 30분 / 배터리: 리튬이온 / 브러쉬: 바닥, 솔형, 틈새, 연장관 / 무게: 2.2kg / 소비전력: 250W / 흡입력: 22000Pa / 크기(가로x세로x깊이): 240x1040x212mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디형 / 무선형 / 전압: 7.2V / 싸이클론 / 3단계여과 / 충전시간: 16시간 / 사용시간: 11분 / 배터리: 니켈수소 / 브러쉬: 틈새 / 거치대 / 무게: 1.1kg / 색상:폴라블루메탈릭 / 5단계각도조절 / 바퀴 / 크기(가로x세로x깊이): 410x137x124mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 22.2V / 듀얼싸이클론 / 2단계여과 / 먼지통용량: 0.5L / 충전시간: 4~6시간 / 사용시간: 40분 / 배터리: 리튬이온 / 브러쉬: 바닥, 카펫, 틈새, 침구, 연장관 / 도킹스테이션 / 배터리잔량표시 / 무게: 1.89kg / 색상:레드 / 흡입력: 22000Pa</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디형 / 무선형 / 전압: 14V / 헤파필터 / 인버터모터 / 충전시간: 5시간 / 사용시간: 25분 / 거치대 / 배터리잔량표시 / 무게: 0.9kg / 색상:블루, 화이트 / 소비전력: 120W / 흡입력: 12000Pa / 크기(가로x세로x깊이): 80x350x80mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 21.9V / 헤파필터 / 싸이클론 / 5단계여과 / 인버터모터 / 흡입력: 200W / 먼지통용량: 0.5L / 충전시간: 3시간30분 / 사용시간: 120분 / 배터리: 리튬이온 (2개) / 브러쉬: 바닥, 솔형, 틈새, 물걸레, 연장관 / 거치대 / 디스플레이표시창 / 물걸레 / 프리볼트 / 무게: 2.7kg / 색상:티탄그레이 / 소비전력: 550W / 알레르기인증(BAF) / 미세먼지인증(SLG) / 크기(가로x세로x깊이): 250x1136x215mm</t>
-  </si>
-  <si>
-    <t>물걸레청소기 / 스틱형 / 물걸레+진공 / 회전식 / 무선형 / 전압: 14.4V / 3단계여과 / 충전시간: 7시간 / 사용시간: 물걸레: 4시간, 진공+물걸레: 40분 / 배터리: 리튬이온 / LED라이트 / 셀프스탠딩 / 각도조절 / 무게: 4.6kg / 소비전력: 17W / 색상:네이비, 브라운 / 패드: 극세사(벨크로형) / 크기(가로x세로x깊이): 360x1143x326mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 18V / 4단계여과 / 먼지통용량: 0.42L / 충전시간: 4시간 / 사용시간: 48분 / 배터리: 리튬이온 / 거치대 / 배터리잔량표시 / 셀프스탠딩 / 무게: 3.6kg / 색상:소프트샌드 / 알레르기인증(BAF) / 브러쉬: 파워프로롤러, UV베드, 슈퍼롱, 사선, 360도회전, 패브릭, 플렉시호스, 틈새</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 22.2V / 싸이클론 / 먼지통용량: 0.5L / 충전시간: 4~5시간 / 사용시간: 35분 / 배터리: 리튬이온 / 브러쉬: 바닥, 솔형, 틈새, 연장관 / 무게: 2kg / 색상:화이트 / 소비전력: 150W / 흡입력: 10000Pa / 크기(가로x세로x깊이): 210x1040x104mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 14.4V / 싸이클론 / 3단계여과 / 충전시간: 4시간 / 사용시간: 30분 / 배터리: 리튬이온 / LED라이트 / 거치대 / 배터리잔량표시 / 브러쉬자동청소 / 셀프스탠딩 / 무게: 2.5kg / 색상:모스그린 / 브러쉬: 소파용, 연장호스, 긴틈새, 미니침구 / 크기(가로x세로x깊이): 263x1070x150mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 22.2V / 헤파필터 / H11급 / 싸이클론 / 4단계여과 / 충전시간: 5~6시간 / 사용시간: 30분 / 브러쉬: 바닥, 솔형, 틈새, 침구, 매트리스, 물걸레, 연장관 / LED라이트 / 거치대 / 물걸레 / 배터리잔량표시 / 무게: 2.4kg / 소비전력: 120W / 흡입력: 14000Pa / 크기(가로x세로x깊이): 260x1115x210mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 18V / 4단계여과 / 충전시간: 4시간 / 사용시간: 48분 / 배터리: 리튬이온 / 브러쉬: 바닥, 틈새 / LED라이트 / 배터리잔량표시 / 브러쉬자동청소 / 셀프스탠딩 / 무게: 3.01kg / 색상:타이탄블루 / 알레르기인증(BAF) / 크기(가로x세로x깊이): 303x690x162mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 21.6V / 헤파필터 / 먼지통용량: 0.25L / 배터리: 리튬이온 / 브러쉬: 바닥, 틈새, 연장관 / 셀프스탠딩 / 프리볼트 / 무게: 2.8kg / 색상:메탈블랙 / 소비전력: 170W / 크기(가로x세로x깊이): 250x1130x225mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 싸이클론 / 크기(가로x세로x깊이): 290x730x170mm</t>
-  </si>
-  <si>
-    <t>물걸레청소기 / 스틱형 / 물걸레전용 / 왕복식 / 무선형 / 충전시간: 3시간 / 사용시간: 55분 / 배터리: 리튬이온 / 물분사 / LED라이트 / 각도조절 / 소비전력: 35W / 패드: 극세사(벨크로형) / 크기(가로x세로): 290x1180x260mm</t>
-  </si>
-  <si>
-    <t>침구청소기 / 핸디형 / 무선형 / 전압: 25.2V / 청소모드: 온풍, UV살균, 흡입 / 헤파필터 / H13급 / 항균브러시 / 무게: 1.4kg / 소비전력: 350W / 색상:화이트 / 크기(가로x세로x깊이): 353.5x166.3x440.2mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 충전시간: 5시간 / 사용시간: 15분 / 배터리: 니켈수소 / 배터리잔량표시 / 무게: 1.2kg / 색상:에어본+내츄럴그레이 / 소비전력: 72W / 크기(가로x세로x깊이): 119x121x410mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 25.9V / 헤파필터 / H14급 / 싸이클론 / 4단계여과 / 먼지통용량: 0.65L / 충전시간: 3~4시간 / 사용시간: 35분 / 배터리: 리튬이온 / 브러쉬: 바닥, 솔형, 연장관 / LED라이트 / 거치대 / 프리볼트 / 무게: 1.97kg / 색상:모던화이트 / 소비전력: 160W / 흡입력: 18000Pa / 크기(가로x세로x깊이): 250x1210x220mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 22.2V / 헤파필터 / 싸이클론 / 충전시간: 4시간 / 사용시간: 20~30분 / 배터리: 리튬이온 / 브러쉬: 바닥, 솔형, 틈새, 연장관 / LED라이트 / 거치대 / 배터리잔량표시 / 색상:화이트+블루, 화이트+오렌지 / 소비전력: 140W</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디형 / 무선형 / 전압: 7.4V / 충전시간: 6시간 / 사용시간: 15분 / 배터리: 리튬이온 / 브러쉬: 바닥, 솔형, 틈새 / 거치대 / 무게: 0.75kg / 5단계각도조절 / 크기(가로x세로x깊이): 440x100x100mm</t>
-  </si>
-  <si>
-    <t>물걸레청소기 / 스틱형 / 물걸레전용 / 회전식 / 무선형 / 전압: 16.8V / 충전시간: 4시간 / 사용시간: 30분 / 배터리: 리튬이온 / LED라이트 / 셀프스탠딩 / 가구손상방지 / 각도조절 / 무게: 3.6kg / 모터과열방지 / 과충전방지 / 오토스토핑 / 패드: 극세사(벨크로형) / 크기(가로x세로x깊이): 410x1020x205mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 스틱형 / 무선형 / 전압: 18V / 싸이클론 / 먼지통용량: 0.5L / 충전시간: 6시간 / 사용시간: 45분 / 배터리: 리튬이온 / LED라이트 / 배터리잔량표시 / 셀프스탠딩 / 프리볼트 / 무게: 3.43kg</t>
-  </si>
-  <si>
-    <t>업소용청소기 / 건습식 / 무선형 / 전압: 18V / 헤파필터 / 싸이클론에어 / 먼지통 / 탱크용량: 10L / 연장관 / 색상:네이비 / 브러쉬: 칼형 / 사용시간: 24분</t>
-  </si>
-  <si>
-    <t>차량용청소기 / 어댑터 / CLEANFLY, COCLEAN 전용</t>
-  </si>
-  <si>
-    <t>물걸레청소기 / 스틱형 / 물걸레전용 / 회전식 / 무선형 / 전압: 14.4V / 충전시간: 3시간 / 사용시간: 30분 / 배터리: 리튬이온 / LED라이트 / 셀프스탠딩 / 무게: 3kg / 소비전력: 80W / 색상:블랙 / 모터과열방지 / 배터리잔량표시 / 패드: 극세사(벨크로형) / 크기 410x1230x215mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 스틱형 / 무선형 / 싸이클론 / 충전시간: 3시간 / 사용시간: 35분 / 배터리: 리튬이온 / LED라이트 / 거치대 / 배터리잔량표시 / 무게: 4.5kg / 플랙스튜브 / 브러쉬: 바닥, 솔형, 소파, 미니모터, 플랙서블틈새, 업탑</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 21.9V / 에어포스싸이클론 / 먼지통용량: 0.4L / 충전시간: 3시간 / 사용시간: 28분 / 배터리: 리튬이온 / 브러쉬: 바닥, 솔형 / LED라이트 / 거치대 / 무게: 2.8kg / 색상:핑크</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 1.2V / 헤파필터 / 충전시간: 10시간 / 사용시간: 10~15분 / 브러쉬: 바닥, 틈새, 연장관 / 무게: 0.8kg / 색상:블랙+오렌지 / 크기(가로x세로x깊이): 145x440x115mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 22.2V / 헤파필터 / 싸이클론 / 3단계여과 / 흡입력: 25W / 충전시간: 4시간 / 사용시간: 35분 / 배터리: 리튬이온 / 브러쉬: 바닥, 솔형, 틈새, 침구, 연장관 / LED라이트 / 거치대 / 무게: 1.9kg / 소비전력: 180W</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 26.5V / 헤파필터 / H13급 / 충전시간: 4시간 / 사용시간: 28분 / 배터리: 리튬이온 / 브러쉬: 바닥, 카펫, 솔형, 틈새, 침구, 연장관 / LED라이트 / 도킹스테이션 / 무게: 2.3kg / 색상:레드 / 소비전력: 150W / 흡입력: 14000Pa</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 22.2V / 싸이클론 / 4단계여과 / 충전시간: 4~5시간 / 사용시간: 35분 / 브러쉬: 바닥, 솔형, 틈새, 연장관 / LED라이트 / 거치대 / 무게: 2.2kg / 색상:옐로우, 실버 / 소비전력: 150W / 흡입력: 12000Pa / 크기(가로x세로x깊이): 240x1040x212mm</t>
-  </si>
-  <si>
-    <t>로봇청소기 / 흡입+걸레 / 헤파필터 / BLDC모터 / 먼지통용량: 0.3L / 충전시간: 5시간 / 사용시간: 2시간 / 배터리: 리튬이온 / 용량: 2600mAh / 장애물인식센서 / 추락방지센서 / 청소모드: 지그재그, 꼼꼼청소, 집중청소, 자유진행, 맥스청소, 문턱청소, 예약청소 / 문턱등반 / 자동충전 / 리모콘 / 소비전력: 12W / 무게: 2.5kg / 색상:화이트, 블랙, 블루 / 무선형 / 패드: 극세사 / 크기(가로x깊이): 310x72x310mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디형 / 무선형 / 전압: 14.4V / 흡입력: 20AW / 충전시간: 4시간 / 사용시간: 11분 / 배터리: 리튬이온 / 브러쉬: 바닥, 솔형, 틈새 / 무게: 1.42kg / 색상:블루 / 크기(가로x세로): 190x215mm</t>
-  </si>
-  <si>
-    <t>물걸레청소기 / 스틱형 / 물걸레+진공 / 회전식 / 무선형 / 헤파필터 / H13급 / 듀얼싸이클론 / 4단계여과 / 충전시간: 4시간39분 / 사용시간: 1시간25분 / 배터리: 리튬이온 (2개) / LED라이트 / 프리볼트 / 무게: 2.6kg / 소비전력: 250W / 색상:레드 / 자동먼지감지 / 브러쉬: 바닥, 틈새, 솔형 / 거치대 / 패드: 극세사(벨크로형), 일회용 / 크기(가로x세로x깊이): 382x1200x272mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디형 / 무선형 / 전압: 14.4V / 헤파필터 / 먼지통용량: 0.4L / 충전시간: 5시간 / 사용시간: 30분 / 브러쉬: 바닥, 틈새, 침구 / 거치대 / 무게: 1kg / 소비전력: 120W / 흡입력: 6000Pa / 크기(가로x세로x깊이): 225x335x170mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디형 / 무선형 / 충전시간: 4~5시간 / 사용시간: 15분 / 배터리: 니켈수소 / 브러쉬: 솔형, 틈새 / 색상:브라운 / 전압: 10.8V / 흡입력: 65W</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 스틱형 / 무선형 / 전압: 3.7V / 충전시간: 4~5시간 / 사용시간: 50분 / 배터리: 리튬이온 / 용량: 1950mAh / 무게: 0.86kg / 소비전력: 8W / 생활방수 / 브러쉬: 원형, 평면, 틈새</t>
-  </si>
-  <si>
-    <t>물걸레청소기 / 스틱형 / 물걸레전용 / 회전식 / 무선형 / 전압: 14.6V / 충전시간: 2시간30분 / 사용시간: 30분 / 배터리: 리튬이온 / LED라이트 / 셀프스탠딩 / 가구손상방지 / 각도조절 / 프리볼트 / 무게: 3.7kg / 색상:화이트 / 배터리잔량표시 / 모터과열방지 / 과충전방지 / 오토스토핑 / 패드: 극세사(벨크로형) / 크기(가로x세로x깊이): 410x1020x205mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 22.2V / 헤파필터 / H13급 / 싸이클론 / 4단계여과 / BLDC모터 / 먼지통용량: 0.55L / 충전시간: 4~5시간 / 사용시간: 30분 / 배터리: 리튬이온 / 브러쉬: 바닥, 솔형, 틈새, 연장관 / LED라이트 / 거치대 / 무게: 2.3kg / 색상:블루 / 소비전력: 250W / 흡입력: 22000Pa / 크기(가로x세로x깊이): 240x1024x212mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 22.2V / 싸이클론 / 3단계여과 / 먼지통용량: 0.55L / 충전시간: 4~5시간 / 사용시간: 45분 / 배터리: 리튬이온 / 브러쉬: 바닥, 솔형, 틈새, 연장관 / LED라이트 / 거치대 / 배터리잔량표시 / 무게: 2.2kg / 소비전력: 120W / 흡입력: 9000Pa / 크기(가로x세로x깊이): 240x1040x211mm</t>
-  </si>
-  <si>
-    <t>다용도살균기 / 핸디형 / 무선형 / 전압: 12V / 청소모드: UV살균 / 리튬이온 / 무게: 0.505kg / 색상:화이트, 핑크, 스카이블루 / 충전시간: 2시간10분 / 사용시간: 4시간 / 안전센서 / 타이머</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 22.2V / 헤파필터 / 싸이클론 / 먼지통용량: 0.6L / 충전시간: 4~5시간 / 사용시간: 35분 / 브러쉬: 바닥, 카펫, 솔형, 틈새, 연장관 / 거치대 / 배터리잔량표시 / 프리볼트 / 무게: 1.4kg / 색상:퍼플, 레드 / 소비전력: 250W / 크기(가로x세로x깊이): 400x185x80mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 싸이클론 / 충전시간: 3시간 / 사용시간: 35분 / 배터리: 리튬이온 / LED라이트 / 거치대 / 배터리잔량표시 / 무게: 4.5kg / 색상:레드 / 플랙스튜브 / 브러쉬: 바닥, 솔형, 소파, 미니모터, 플랙서블틈새, 업탑</t>
-  </si>
-  <si>
-    <t>물걸레청소기 / 스틱+핸디형 / 물걸레전용 / 회전식 / 무선형 / 전압: 9V / 충전시간: 3~4시간 / 사용시간: 30분 / 배터리: 리튬이온 / 셀프스탠딩 / 각도조절 / 무게: 1.7kg / 소비전력: 15W / 배터리잔량표시 / 패드: 극세사(벨크로형) / 크기(가로x세로x깊이): 320x1630x170mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 9.6V / 헤파필터 / 3단계여과 / 충전시간: 8~10시간 / 사용시간: 15분 / 배터리: 니켈수소 / 브러쉬: 바닥, 솔형, 틈새, 연장관 / 배터리잔량표시 / 무게: 1kg / 색상:화이트골드 / 크기(가로x세로x깊이): 380x120x100mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 22.2V / 헤파필터 / 싸이클론 / 3단계여과 / 흡입력: 120W / 충전시간: 4~5시간 / 사용시간: 30분 / 배터리: 리튬이온 / 브러쉬: 바닥, 솔형, 틈새 / LED라이트 / 거치대 / 배터리잔량표시 / 프리볼트 / 무게: 1.8kg / 흡입력: 8000Pa / 크기(가로x세로x깊이): 250x1150x215mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디형 / 무선형 / 충전시간: 8시간 / 사용시간: 10분 / 브러쉬: 틈새 / 무게: 0.75kg / 색상:오렌지 / 소비전력: 48W / 크기(가로x세로x깊이): 320x170x105mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 14.4V / 헤파필터 / 먼지통용량: 0.6L / 충전시간: 4시간 / 사용시간: 30분 / 브러쉬: 바닥, 솔형, 틈새, 연장관 / 셀프스탠딩 / 색상:화이트 / 소비전력: 100W / 흡입력: 5500Pa / 크기(가로x세로x깊이): 235x1150x175mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디형 / 무선형 / 전압: 10.8V / 싸이클론 / 3단계여과 / 충전시간: 4시간 / 사용시간: 23분 / 배터리: 리튬이온 / 브러쉬: 틈새 / 무게: 1.1kg / 색상:초코릿브라운 메탈릭 / 5단계각도조절 / 바퀴 / 크기(가로x세로x깊이): 410x137x124mm</t>
-  </si>
-  <si>
-    <t>물걸레청소기 / 스틱형 / 물걸레전용 / 왕복식 / 무선형 / 전압: 12.6V / 충전시간: 3시간 / 사용시간: 50분 / 배터리: 리튬이온 / 셀프스탠딩 / 가구손상방지 / 무게: 2.5~3kg / 소비전력: 30W / 색상:화이트 / 패드: 극세사 / 크기(가로x세로x깊이): 240x1190x240mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디형 / 무선형 / 전압: 6V / 싸이클론 / 충전시간: 10~12시간 / 배터리: 니켈카드뮴 / 브러쉬: 카펫, 솔형, 틈새 / 거치대 / 무게: 0.683kg / 색상:블루 / 소비전력: 25W / 크기(가로x세로x깊이): 95x350x105mm</t>
-  </si>
-  <si>
-    <t>물걸레청소기 / 스틱형 / 물걸레+진공 / 회전식 / 무선형 / 전압: 22.2V / 헤파필터 / H13급 / 멀티싸이클론 / 5단계여과 / BLDC모터 / 사용시간: 1시간25분 / 배터리: 리튬이온 (2개) / 소비전력: 250W / 색상:레드, 샴페인골드 / 흡입력: 19000Pa / 자동먼지감지 / 브러쉬: 바닥(물걸레), 바닥(진공),  물걸레, 틈새, 솔형 / 거치대 / 패드: 극세사(벨크로형), 일회용</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 18V / 헤파필터 / 4단계여과 / 먼지통용량: 0.42L / 충전시간: 4시간 / 사용시간: 48분 / 배터리: 리튬이온 / 거치대 / 배터리잔량표시 / 셀프스탠딩 / 무게: 3kg / 색상:타이탄블루 / 브러쉬: 파워프로롤러, UV베드, 틈새 / 크기(가로x세로x깊이): 303x690x162mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디형 / 무선형 / 싸이클론 / 브러쉬: 솔형, 틈새 / 거치대 / 무게: 1.2kg / 색상:블랙 / 소비전력: 30W / 크기(가로x세로x깊이): 395x110x100mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 스틱형 / 무선형 / 전압: 14.4V / 싸이클론 / 충전시간: 5시간 / 사용시간: 30분 / 배터리: 리튬이온 / LED라이트 / 배터리잔량표시 / 셀프스탠딩 / 무게: 2.31kg / 색상:레드 / 크기(가로x세로x깊이): 260x1092x220 mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 22.2V / 헤파필터 / 싸이클론 / 먼지통용량: 0.5L / 충전시간: 4~5시간 / 사용시간: 35분 / 배터리: 리튬이온 / 용량: 2200mAh / 브러쉬: 바닥, 솔형, 틈새 / LED라이트 / 거치대 / 셀프스탠딩 / 프리볼트 / 색상:블랙+레드</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 22.2V / 헤파필터 / H13급 / 싸이클론 / 3단계여과 / BLDC모터 / 충전시간: 4시간30분 / 사용시간: 35분 / 배터리: 리튬이온 / 브러쉬: 바닥, 솔형, 틈새 / 거치대 / 배터리잔량표시 / 프리볼트 / 무게: 1.5kg / 색상:메트로블루, 메트로골드 / 흡입력: 19000Pa / 크기(가로x세로x깊이): 305x225x117mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디형 / 무선형 / 충전시간: 8시간 / 사용시간: 9분 / 브러쉬: 틈새 / 거치대 / 무게: 0.66kg / 색상:레드+블랙 / 소비전력: 45W / 크기(가로x세로x깊이): 90x420x90mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 22.2V / 싸이클론 / 먼지통용량: 0.3L / 충전시간: 4~5시간 / 사용시간: 30분 / 배터리: 리튬이온 / 브러쉬: 바닥, 솔형, 틈새, 매트리스, 연장관 / LED라이트 / 무게: 2kg / 색상:화이트 / 100V / 변환어댑터: 필요 / 흡입력: 17000Pa / 크기(가로x세로): 260x1140X230mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 22.2V / 헤파필터 / 충전시간: 4시간 / 사용시간: 30분 / 배터리: 리튬이온 / LED라이트 / 거치대 / 무게: 2.2kg / 색상:그레이 / 소비전력: 140W / 브러쉬: 파워, 3단툴, 롱익스텐션 / 크기(가로x세로x깊이): 240x1230x225mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 사용시간: 20분 / 무게: 1.2kg / 색상:블루 / 전압: 18V</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 22.2V / 헤파필터 / H13급 / 싸이클론 / 4단계여과 / 배터리: 리튬이온 / 브러쉬: 바닥, 틈새, 연장관 / LED라이트 / 거치대 / 색상:블루 / 소비전력: 120W</t>
-  </si>
-  <si>
-    <t>물걸레청소기 / 스틱형 / 물걸레전용 / 회전식 / 무선형 / 전압: 16.8V / 충전시간: 4시간 / 배터리: 리튬이온 / LED라이트 / 가구손상방지 / 각도조절 / 색상:화이트 / 모터과열방지 / 과충전방지 / 오토스토핑 / 패드: 극세사(벨크로형)</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 27V / 헤파필터 / 싸이클론 / 사용시간: 40분 / 배터리: 리튬이온 / 브러쉬: 바닥, 솔형, 틈새, 연장관 / LED라이트 / 프리볼트 / 무게: 2.3kg</t>
-  </si>
-  <si>
-    <t>차량용공기청정기 / 유무선 / 12V / 흡입력: 5,500Pa / 최대출력: 120W / 헤파필터 / 추가노즐: 틈새, 솔브러쉬, 연장호스 / 싸이클론 / LED라이트 / 사용시간: 25분 / 충전시간: 3시간 / 코드길이: 4.5m / 크기: 360x180x110mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 25.2V / 싸이클론 / 흡입력: 160AW / 먼지통용량: 0.5L / 충전시간: 3시간30분 / 사용시간: 60분 / 배터리: 리튬이온 / 도킹스테이션 / 무게: 2.5kg / 색상:블루 / 소비전력: 525W / 브러쉬: 소프트롤러클리너헤드, 미니모터툴, 콤비네이션툴, 크레비스툴, 매트리스툴, 미니소프트더스팅브러쉬 / 크기(가로x세로x깊이): 250x1241x256mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 25.2V / 싸이클론 / 충전시간: 3시간30분 / 사용시간: 60분 / 도킹스테이션 / 무게: 2.5kg / 소비전력: 525W / 브러쉬: 소프트롤러클리너헤드, 미니모터라이즈드툴, 미니소프트더스팅브러쉬툴, 콤비네이션툴, 크레비스툴 / 크기(가로x세로x깊이): 250x1241x256mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 21.9V / 헤파필터 / 싸이클론 / 4단계여과 / BLDC모터 / 먼지통용량: 0.7L / 충전시간: 4~5시간 / 사용시간: 35분 / 배터리: 리튬이온 / 브러쉬: 바닥, 솔형, 틈새, 연장관 / LED라이트 / 배터리잔량표시 / 셀프스탠딩 / 무게: 3.8kg / 흡입력: 17000pa / 크기(가로x세로x깊이): 122x225x243mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 22.2V / 헤파필터 / H11급 / 싸이클론 / 4단계여과 / 흡입력: 22000Pa / 충전시간: 3시간 / 사용시간: 40분 / 브러쉬: 바닥, 틈새, 연장관 / LED라이트 / 무게: 2.4kg / 소비전력: 250W / 크기(가로x세로x깊이): 260x1115x210mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 18V / 사용시간: 14~20분 / 브러쉬: 틈새 / 셀프스탠딩 / 무게: 2.8kg / 색상:블루 / 배터리센서 / 바닥감지센서 / 필터센서</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 22.2V / 헤파필터 / H13급 / 싸이클론 / 충전시간: 4시간 / 사용시간: 30분 / 배터리: 리튬이온 / 브러쉬: 바닥, 솔형 / LED라이트 / 거치대 / 프리볼트 / 무게: 2.35kg / 소비전력: 140W / 크기(가로x세로x깊이): 250x1210x220mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 스틱형 / 무선형 / 전압: 36V / 싸이클론 / 5단계여과 / 충전시간: 6시간 / 사용시간: 60분 / 배터리: 리튬이온 / LED라이트 / 거치대 / 배터리잔량표시 / 셀프스탠딩 / 무게: 4.1kg / 색상:사틴화이트 / 알레르기인증(BAF) / 브러쉬: 침구, 3in1, 더스팅, 앵글튜브 / 플렉스리프트 / 바닥감지 / 크기(가로x세로x깊이): 215x1200x249mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 18.5V / 헤파필터 / 싸이클론 / 3단계여과 / BLDC모터 / 먼지통용량: 0.4L / 충전시간: 5시간 / 사용시간: 30분 / 배터리: 리튬이온 / LED라이트 / 거치대 / 배터리잔량표시 / 브러쉬: 바닥, 틈새, 에어, 연장관 / 흡입력: 17000Pa / 크기(가로x세로x깊이): 80x1040x190mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 18V / 4단계여과 / 충전시간: 4시간 / 사용시간: 48분 / 배터리: 리튬이온 / LED라이트 / 거치대 / 배터리잔량표시 / 브러쉬자동청소 / 셀프스탠딩 / 무게: 3.6kg / 색상:소프트샌드 / 알레르기인증(BAF) / 브러쉬: 베드프로, 소파용, 긴틈새, 솔형</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 8.4V / 충전시간: 4시간 / 사용시간: 2시간 / 무게: 1.2kg / 색상:화이트+그린 / 브러쉬: 바닥, 연장관, 스펀지, 물걸레, 광택패드, 수세미, 만능패드 / 크기(가로x세로x깊이): 645x170x100mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 충전시간: 3시간 / 사용시간: 60분 / 배터리: 리튬이온 / 브러쉬: 바닥, 솔형, 틈새 / 무게: 2.7kg / 색상:에어본화이트 / 소비전력: 170W / 크기(가로x세로x깊이): 260x1100x165mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 22.2V / 싸이클론 / 4단계여과 / 충전시간: 4~5시간 / 사용시간: 35분 / 브러쉬: 바닥, 솔형, 틈새, 연장관 / LED라이트 / 거치대 / 무게: 2.2kg / 소비전력: 150W / 흡입력: 12000Pa / 크기(가로x세로x깊이): 240x1040x212mm</t>
-  </si>
-  <si>
-    <t>물걸레청소기 / 스틱형 / 물걸레전용 / 회전식 / 무선형 / 전압: 14.8V / 충전시간: 4시간 / 사용시간: 35분 / 배터리: 리튬이온 / 물분사 / LED라이트 / 셀프스탠딩 / 각도조절 / 무게: 2.96kg / 소비전력: 85W / 색상:블랙 / 패드: 극세사(벨크로형) / 크기(가로x세로x깊이): 420x1250x210mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 무선형 / 충전시간: 12시간 / 사용시간: 18분 / 무게: 2.9kg / 색상:에어본화이트 / 크기(가로x세로x깊이): 261x1100x193mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 7.2V / 헤파필터 / 흡입력: 35W / 충전시간: 8시간~10시간 / 사용시간: 12~15분 / 브러쉬: 바닥, 솔형, 틈새 / 무게: 0.8kg / 색상:블랙 / 건습식 / 크기(가로x세로x깊이): 360.3x105.4x111.6mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 스틱형 / 무선형 / 사용시간: 60분 / 브러쉬: 연장관 / 프리볼트 / 무게: 1.5kg / 색상:화이트 / 브러쉬: 돔형, 모서리, 평면, 연장관</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디형 / 무선형 / 전압: 3.6V / 충전시간: 5시간 / 사용시간: 15분 / 브러쉬: 틈새 / 거치대 / 무게: 0.8kg / 색상:실버 / 크기(가로x세로x깊이): 425x95x90mm</t>
-  </si>
-  <si>
-    <t>물걸레청소기 / 스틱형 / 물걸레전용 / 회전식 / 무선형 / 전압: 14.6V / 충전시간: 2시간 30분 / 사용시간: 60분 / 배터리: 리튬이온 (2개) / LED라이트 / 셀프스탠딩 / 가구손상방지 / 각도조절 / 프리볼트 / 무게: 3.7kg / 색상:화이트 / 모터과열방지 / 과충전방지 / 오토스토핑 / 거치대 / 패드: 극세사(벨크로형) / 크기(가로x세로x깊이): 410x1020x205mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 싸이클론 / 사용시간: 1시간 / 거치대 / 도킹스테이션 / 디스플레이표시창 / 무게: 2.95kg / 색상:니켈블루 / 브러쉬: 소프트롤러클리너헤드, 하이토크드라이브헤드, 콤비네이션툴, 크레비스툴, 미니모터툴, 소프트더스팅브러쉬, 스토번디트브러쉬, 매트리스툴, 익스텐션호스 / 크기(가로x세로x깊이): 261x1280x250mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 싸이클론 / 6단계여과 / 흡입력: 220AW / 먼지통용량: 0.54L / 충전시간: 4시간30분 / 사용시간: 60분 / 거치대 / 도킹스테이션 / 디스플레이표시창 / 무게: 2.95kg / 브러쉬: 소프트롤러클리너헤드, 하이토크클리너헤드, 콤비네이션툴, 크레비스툴, 미니모터툴, 미니소프트더스팅브러쉬, 매트리스툴, 스터번더트브러쉬 / 크기(가로x세로x깊이): 250x1280x261mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 충전시간: 3시간 / 사용시간: 30분 / 배터리: 리튬이온 / 브러쉬: 바닥, 솔형, 틈새 / 셀프스탠딩 / 무게: 2.7kg / 색상:새틴실버 / 소비전력: 170W / 크기(가로x세로x깊이): 260x1100x165mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 7.4V / 헤파필터 / 싸이클론 / 5단계여과 / 충전시간: 2시간30분 / 사용시간: 20분 / 배터리: 리튬이온 / 브러쉬: 바닥, 틈새, 침구, 연장관 / 거치대 / 무게: 0.8kg / 색상:블랙, 화이트 / 소비전력: 80W / 흡입력: 4000Pa</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 21.6V / 흡입력: 100AW / 충전시간: 4시간 / 사용시간: 30분 / 브러쉬: 바닥, 솔형, 틈새, 침구, 연장관 / 프리볼트 / 무게: 1.5kg / 소비전력: 350W / 변환어댑터: 필요</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 21.6V / 헤파필터 / 3단계여과 / 흡입력: 150W / 충전시간: 5~6시간 / 사용시간: 20분 / 브러쉬: 바닥, 솔형, 틈새, 연장관 / LED라이트 / 거치대 / 프리볼트 / 무게: 1.3kg / 크기(가로x세로x깊이): 230x1120x300mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디형 / 무선형 / 사용시간: 사용시간:~10분사용 / 색상:실버펄+자주 / 달팽이형디자인 / 물세척필터 / 틈새용보조브러쉬</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 18V / 흡입력: 40AW / 사용시간: 14~20분 / 브러쉬: 바닥, 틈새 / LED라이트 / 거치대 / 배터리잔량표시 / 무게: 2.4kg / 색상:퍼플 / 배터리센서 / 바닥감지센서 / 필터센서</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 22.2V / 싸이클론 / 4단계여과 / 먼지통용량: 0.55L / 충전시간: 4~5시간 / 사용시간: 40분 / 배터리: 리튬이온 / 브러쉬: 바닥, 솔형, 틈새, 연장관 / LED라이트 / 거치대 / 무게: 2.2kg / 소비전력: 150W / 크기(가로x세로x깊이): 240x1040x212mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디형 / 무선형 / 전압: 12V / 흡입력: 90W / 충전시간: 8시간 / 사용시간: 20분 / 브러쉬: 솔형, 틈새 / 거치대 / 무게: 1.5kg / 크기(가로x세로x깊이): 430x135x105mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 26.5V / 헤파필터 / 싸이클론 / 5단계여과 / BLDC모터 / 사용시간: 60분 / 배터리: 리튬이온 / 브러쉬: 바닥, 솔형, 틈새, 침구, 연장관 / LED라이트 / 거치대 / 무게: 2.32kg / 색상:화이트 / 소비전력: 230W / 흡입력: 20000Pa</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 22.2V / 헤파필터 / 싸이클론 / 3단계여과 / 충전시간: 4시간 / 사용시간: 40분 / 배터리: 리튬이온 / 브러쉬: 바닥, 솔형, 틈새, 연장관 / 거치대 / 무게: 1.8kg / 소비전력: 130W</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 4.8V / 흡입력: 62W / 충전시간: 8시간 / 사용시간: 10분 / 무게: 1.5kg / 색상:화이트 / 크기(가로x세로x깊이): 425x210x265mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디형 / 무선형 / 전압: 7.2V / 흡입력: 11AW / 충전시간: 4시간 / 배터리: 리튬이온 / 거치대 / 배터리잔량표시 / 프리볼트 / 무게: 1kg / 색상:블랙</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디형 / 무선형 / 전압: 4.8V / 싸이클론 / 흡입력: 60W / 충전시간: 8시간 / 사용시간: 9분 / 브러쉬: 바닥, 틈새, 연장관 / 거치대 / 색상:레드+블랙 / 크기(가로x세로x깊이): 400x138x200mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 유선형 / 헤파필터 / 싸이클론 / 브러쉬: 바닥, 솔형, 틈새 / 무게: 2.1kg / 색상:오렌지 / 소비전력: 600W / 크기(가로x세로x깊이): 270x1300x270mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 헤파필터 / 2중터보싸이클론 / 5단계여과 / 인버터모터 / 흡입력: 140W / 충전시간: 3시간30분 / 사용시간: 80분 / 배터리: 리튬이온 (2개) / 브러쉬: 바닥, 솔형, 틈새, 침구, 매트리스, 물걸레 / 거치대 / 물걸레 / 색상:판타지실버 / 소비전력: 450W / 알레르기인증(BAF) / 미세먼지인증(SLG) / 3단계물분사조절 / 크기(가로x세로x깊이): 260x1120x270mm [R958DA] 로봇청소기 / 2중터보싸이클론 / 충전시간: 4시간 / 사용시간: 1시간~1시간30분 / 카메라1개 / 음성인식 / 리모콘 / 3D센서 / 홈뷰 / 홈가드 / 크기(가로x세로x깊이): 286x143x330mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디형 / 무선형 / 전압: 4.8V / 충전시간: 8시간 / 사용시간: 10분 / 배터리: 니켈수소 / 브러쉬: 틈새 / 무게: 0.75kg / 색상:화이트+오렌지 / 소비전력: 48W / 크기(가로x세로x깊이): 342x165x119mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 12V / 먼지통용량: 0.35L / 충전시간: 2~3시간 / 사용시간: 2시간 / 배터리잔량표시 / 소비전력: 350W / 변환어댑터: 필요 / 크기(가로x세로x깊이): 270x1060x170mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 22.2V / 헤파필터 / 먼지통용량: 0.5L / 충전시간: 4~5시간 / 사용시간: 35분 / 브러쉬: 바닥, 솔형, 틈새, 연장관 / 프리볼트 / 무게: 1.5kg / 크기(가로x세로x깊이): 230x1040x210mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 25.2V / 헤파필터 / 싸이클론 / 5단계여과 / 흡입력: 100AW / 먼지통용량: 0.5L / 충전시간: 3시간 / 사용시간: 45분 / 브러쉬: 바닥, 솔형, 틈새, 침구, 연장관 / 거치대 / 무게: 1.5kg / 색상:화이트 / 소비전력: 350W</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 9.6V / 헤파필터 / 충전시간: 8~10시간 / 사용시간: 15분 / 배터리: 니켈수소 / 브러쉬: 바닥, 솔형, 틈새 / 배터리잔량표시 / 무게: 0.8kg / 색상:오렌지, 퍼플 / 크기(가로x세로x깊이): 103x371x110mm</t>
-  </si>
-  <si>
-    <t>물걸레청소기 / 스틱+핸디형 / 물걸레+진공 / 회전식 / 무선형 / 전압: 18.5V / 헤파필터 / 3단계여과 / BLDC모터 / 충전시간: 4시간 / 사용시간: 물걸레: 2시간30분, 물걸레+진공: 30분 / 배터리: 리튬이온 / LED라이트 / 셀프스탠딩 / 프리볼트 / 무게: 4.5kg / 색상:화이트, 블랙 / 크기(가로x세로x깊이): 360x1200x200mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 스틱형 / 무선형 / 전압: 14.4V / 헤파필터 / 싸이클론 / 충전시간: 5시간 / 사용시간: 30분 / 배터리: 리튬이온 / LED라이트 / 배터리잔량표시 / 셀프스탠딩 / 무게: 2.31kg / 색상:블랙 / 크기(가로x세로x깊이): 260x1092x220 mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디형 / 무선형 / 전압: 4.8V / 흡입력: 35W / 충전시간: 8시간 / 사용시간: 5~10분 / 브러쉬: 바닥, 연장관 / 거치대 / 무게: 1.5kg / 색상:화이트 / 크기(가로x세로x깊이): 440x150x130mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 22.2V / 헤파필터 / H13급 / 먼지통용량: 0.55L / 충전시간: 5~6시간 / 사용시간: 40분 / 배터리: 리튬이온 / 브러쉬: 바닥, 틈새, 연장관 / 거치대 / 배터리잔량표시 / 무게: 1.5kg / 소비전력: 200W / 크기(가로x세로x깊이): 250x1120x210mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 21.6V / 헤파필터 / 싸이클론 / 충전시간: 4시간 / 사용시간: 40분 / 배터리: 리튬이온 / 브러쉬: 바닥, 카펫, 틈새, 침구, 연장관 / LED라이트 / 프리볼트 / 무게: 2kg / 크기(가로x세로x깊이): 247x1140x170mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 스틱형 / 무선형 / 충전시간: 4시간 / 사용시간: 60분 / 배터리: 리튬이온 / 색상:화이트+블루 / 소비전력: 5W / 브러쉬: 스크럽, 평면, 모서리, 극세사 / 크기(세로): 1110mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 22.2V / 헤파필터 / 3단계여과 / 충전시간: 5시간 / 사용시간: 40분 / 배터리: 리튬이온 / 브러쉬: 바닥, 솔형, 틈새, 연장관 / LED라이트 / 거치대 / 배터리잔량표시 / 셀프스탠딩 / 프리볼트 / 색상:레드 / 소비전력: 100W / 흡입력: 8000Pa</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 25.2V / 싸이클론 / 충전시간: 3시간30분 / 사용시간: 60분 / 배터리: 리튬이온 / 도킹스테이션 / 무게: 2.5kg / 색상:블루, 오렌지 / 소비전력: 525W / 브러쉬: 소프트롤러클리너헤드, 다이렉트드라이브헤드, 미니모토라이즈드툴, 콤비네이션툴, 크레비스툴, 업탑어댑터, 매트리스툴, 익스텐션호스 / 크기(가로x세로x깊이): 256x1241x250mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 22.2V / 헤파필터 / H13급 / 싸이클론 / 4단계여과 / BLDC모터 / 충전시간: 4~5시간 / 사용시간: 35분 / 배터리: 리튬이온 / 브러쉬: 바닥, 솔형, 틈새, 침구, 연장관 / 무게: 2.3kg / 소비전력: 250W / 흡입력: 18000Pa / 크기(가로x세로x깊이): 240x1040x212mm</t>
-  </si>
-  <si>
-    <t>물걸레청소기 / 스틱형 / 물걸레전용 / 회전식 / 무선형 / 전압: 14.4V / 충전시간: 4시간 / 사용시간: 30분 / 배터리: 리튬이온 / 무게: 3.1kg / 색상:화이트+레드 / 오토스토핑 / 패드: 극세사(벨크로형) / 크기(가로x세로x깊이): 387x1180x214mm</t>
-  </si>
-  <si>
-    <t>물걸레청소기 / 스틱형 / 물걸레+진공 / 회전식 / 무선형 / 전압: 14.8V / 3단계여과 / BLDC모터 / 충전시간: 8시간 / 사용시간: 물걸레: 4시간, 진공+물걸레: 40분 / 배터리: 리튬이온 / LED라이트 / 셀프스탠딩 / 각도조절 / 무게: 4.6kg / 색상:딥블랙, 로즈핑크 / 흡입력: 10400Pa / 패드: 극세사(벨크로형) / 크기(가로x세로x깊이): 360x1143x326mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 헤파필터 / 브러쉬: 바닥, 틈새, 연장관 / LED라이트 / 무게: 1.4kg / 색상:블랙</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디형 / 무선형 / 전압: 6V / 충전시간: 16시간 / 사용시간: 8분 / 브러쉬: 틈새 / 흡입력: 4000Pa / 크기(가로x세로x깊이): 210x513mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 18V / 싸이클론 / 2단계여과 / 충전시간: 4시간 / 사용시간: 12분 / 배터리: 리튬이온 / 브러쉬: 바닥, 솔형, 틈새, 연장관 / 거치대 / 프리볼트 / 무게: 1.38kg / 색상:화이트 / 피벗노즐 / 크기(가로x세로x깊이): 270x170x140mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 싸이클론 / 흡입력: 185AW / 먼지통용량: 0.54L / 충전시간: 4시간30분 / 사용시간: 1시간 / 거치대 / 도킹스테이션 / 디스플레이표시창 / 무게: 2.95kg / 색상:쿠퍼 / 브러쉬: 하이토크드헤드, 콤비네이션툴, 크레비스툴, 미니모터툴, 미니소프트더스팅브러쉬, 스터번더트브러쉬 / 크기(가로x세로x깊이): 261x1280x250mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 헤파필터 / H13급 / BLDC모터 / 먼지통용량: 0.55L / 충전시간: 2시간30분 / 사용시간: 1시간 / 배터리: 리튬이온 / 브러쉬: 바닥, 솔형, 틈새 / 거치대 / 무게: 0.9kg / 색상:마쉬멜로우+화이트 / 소비전력: 90W / 스마트메모리 / 크기(가로x세로x깊이): 222x1020x200mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 유선형 / 헤파필터 / 싸이클론 / 3단계여과 / 브러쉬: 바닥, 솔형, 틈새, 연장관 / 거치대 / 무게: 2.1kg / 소비전력: 500W / 크기(가로x세로x깊이): 230x1050x210mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 22.2V / 싸이클론 / 충전시간: 5시간 / 사용시간: 30분 / 배터리: 리튬이온 / 브러쉬: 바닥, 솔형, 틈새 / 거치대 / 프리볼트 / 색상:레드 / 소비전력: 10.4W / 크기(가로x세로x깊이): 240x1160x240mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 싸이클론 / 충전시간: 3시간30분 / 사용시간: 1시간 / 거치대 / 도킹스테이션 / 디스플레이표시창 / 무게: 2.72kg / 브러쉬: 소프트롤러클리너헤드, 다이렉트드라이브클리너헤드, 콤비네이션툴, 크레비스툴, 미니모터툴, 미니소프트더스팅, 매트리스툴  / 크기(가로x세로x깊이): 250x1257x2646mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디형 / 무선형 / 충전시간: 12~16시간 / 사용시간: 12분 / 브러쉬: 솔형, 틈새 / 무게: 1.63kg / 크기(가로x세로): 130x235mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 11.1V / 헤파필터 / 2단계여과 / 사용시간: 30분 / 배터리: 리튬이온 / 브러쉬: 바닥, 틈새, 연장관 / LED라이트 / 셀프스탠딩 / 프리볼트 / 색상:블랙 / 소비전력: 75W</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디형 / 유선형 / 헤파필터 / 브러쉬: 바닥, 솔형, 틈새, 연장관 / 셀프스탠딩 / 무게: 1.5kg / 색상:레드 / 소비전력: 400W / 크기(가로x세로x깊이): 280x380x200mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 22.2V / 충전시간: 3~4시간 / 사용시간: 40분 / 배터리: 리튬이온 / 브러쉬: 바닥, 솔형, 틈새 / LED라이트 / 배터리잔량표시 / 색상:로즈골드 / 크기(가로x세로x깊이): 290x120x200mm</t>
-  </si>
-  <si>
-    <t>물걸레청소기 / 스틱형 / 물걸레전용 / 회전식 / 무선형 / 전압: 16.8V / 충전시간: 3시간 / 사용시간: 40분 / 배터리: 리튬이온 / 물분사 / 셀프스탠딩 / 각도조절 / 무게: 3.9kg / 색상:레드 / 패드: 극세사(벨크로형) / 크기(가로x세로x깊이): 420x1150x190mm</t>
-  </si>
-  <si>
-    <t>물걸레청소기 / 스틱형 / 물걸레전용 / 왕복식 / 무선형 / 전압: 12.6V / 충전시간: 3시간 / 사용시간: 80분 / 배터리: 리튬이온 / 셀프스탠딩 / 가구손상방지 / 무게: 2.5~3kg / 소비전력: 30W / 색상:레드 / 패드: 극세사 / 크기(가로x세로x깊이): 240x1190x240mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디형 / 무선형 / 전압: 21.6V / 흡입력: 100AW / 충전시간: 3시간30분 / 사용시간: 30분 / 배터리: 리튬이온 / 무게: 1.71kg / 소비전력: 350W / 브러쉬: 미니모터헤드, 미니소프트더스팅, 스토번디트, 크레비스툴, 매트리스툴, 익스텐션호스 / 크기(가로x세로x깊이): 131x206x39mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디형 / 무선형 / 사용시간: 7분 / 색상:블루 / 크기(가로x세로x깊이): 273x170x77mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디형 / 무선형 / 전압: 7.2V / 헤파필터 / 충전시간: 3시간 / 사용시간: 15분 / 브러쉬: 솔형, 틈새 / 크기(가로x세로x깊이): 115x380x115mm</t>
-  </si>
-  <si>
-    <t>물걸레청소기 / 스틱형 / 물걸레전용 / 회전식 / 무선형 / 전압: 14.48V / 충전시간: 3시간 / 사용시간: 30분 / 배터리: 리튬이온 / LED라이트 / 무게: 3.1kg / 색상:화이트 / 패드: 극세사(벨크로형)  / 크기(가로x세로x깊이): 420x1250x190mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 25.2V / 헤파필터 / 4단계여과 / 인버터모터 / 충전시간: 3시간30분 / 사용시간: 40분 / 배터리: 리튬이온 / 브러쉬: 바닥, 솔형, 틈새, 연장관 / 거치대 / 프리볼트 / 무게: 2.9kg / 색상:화이트 / 소비전력: 400W / 크기(가로x세로x깊이): 105x267x319mm</t>
-  </si>
-  <si>
-    <t>물걸레청소기 / 스틱형 / 물걸레전용 / 회전식 / 무선형 / 충전시간: 3~4시간 / 사용시간: 30분 / 배터리: 리튬이온 / 각도조절 / 무게: 1.7kg</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 22.2V / 헤파필터 / H14급 / 싸이클론 / 3단계여과 / 충전시간: 4~5시간 / 사용시간: 35분 / 배터리: 리튬이온 / 브러쉬: 바닥, 틈새, 연장관 / LED라이트 / 거치대 / 프리볼트 / 무게: 1.97kg / 색상:실버 / 소비전력: 130W / 크기(가로x세로x깊이): 245x1080x150mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 21.9V / 헤파필터 / 싸이클론 / 5단계여과 / 인버터모터 / 흡입력: 200W / 먼지통용량: 0.5L / 충전시간: 3시간30분 / 사용시간: 120분 / 배터리: 리튬이온 (2개) / 브러쉬: 바닥, 솔형, 틈새, 침구, 연장관 / 거치대 / 디스플레이표시창 / 프리볼트 / 무게: 2.7kg / 색상:티탄+블루 / 소비전력: 550W / 알레르기인증(BAF) / 미세먼지인증(SLG) / 크기(가로x세로x깊이): 250x1136x215mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 22.2V / 싸이클론 / 충전시간: 4~5시간 / 사용시간: 45분 / 배터리: 리튬이온 / 브러쉬: 바닥, 솔형, 틈새, 연장관 / 배터리잔량표시 / 무게: 2.2kg / 색상:블루, 그레이 / 소비전력: 120W / 흡입력: 9000Pa</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 21.9V / 싸이클론 / 충전시간: 3시간 / 사용시간: 12~30분 / 배터리: 리튬이온 / 브러쉬: 바닥, 솔형, 틈새 / LED라이트 / 배터리잔량표시 / 무게: 2.8kg / 색상:화이트+블루 / 크기(가로x세로x깊이): 154x742x345mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 충전시간: 4시간30분 / 사용시간: 70분 / 배터리: 리튬이온 (2개) / 브러쉬: 바닥, 솔형, 틈새 / LED라이트 / 배터리잔량표시 / 무게: 2.8kg / 색상:샤이니오렌지 / 소비전력: 80W / 크기(가로x세로x깊이): 270x1105x190mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 21.5V / 싸이클론 / 3단계여과 / BLDC모터 / 흡입력: 20000Pa / 먼지통용량: 0.6L / 충전시간: 4~5시간 / 사용시간: 35분 / 배터리: 리튬이온 / 용량: 2160mAh / 브러쉬: 바닥, 솔형, 틈새, 침구, 연장관 / LED라이트 / 거치대 / 무게: 2.5kg / 색상:레드 / 소비전력: 250W / 크기(가로x세로x깊이): 260x1040x220mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 유선형 / 브러쉬: 솔형, 틈새 / 색상:블랙+레드</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디형 / 무선형 / 전압: 14.4V / 싸이클론 / 충전시간: 4시간 / 사용시간: 11분 / 배터리: 리튬이온 / 거치대 / 프리볼트 / 무게: 1.33kg / 색상:샴페인 / 피벗노즐 / 크기(가로x세로x깊이): 270x170x140mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 사용시간: 20분 / 브러쉬: 바닥, 솔형, 틈새, 연장관 / LED라이트 / 무게: 2.3kg / 색상:레드, 그린 / 헤파필터 / 전압: 14.8V / 배터리용량: 2150mAh</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디형 / 무선형 / 충전시간: 6~8시간 / 사용시간: 15분 / 배터리: 니켈수소 / 브러쉬: 틈새 / 무게: 0.91Kg / 색상:블랙+오렌지</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 18.5V / 헤파필터 / H13급 / 싸이클론 / BLDC모터 / 먼지통용량: 0.5L / 충전시간: 5시간 / 사용시간: 30분 / 배터리: 리튬이온 / LED라이트 / 거치대 / 배터리잔량표시 / 프리볼트 / 무게: 5kg / 색상:다크그레이 / 브러쉬: 바닥, 콤비네이션, 침구, 불어내기, 연장관 / 흡입력: 17000Pa / 크기(가로x세로x깊이): 295x739x127mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디형 / 무선형 / 충전시간: 10시간 / 사용시간: 8분 / 배터리: 리튬이온 / 브러쉬: 틈새 / 무게: 0.65kg / 색상:그린, 오렌지 / 습, 건식 /  전압: 7.5V</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 유선형 / 헤파필터 / 싸이클론 / 3단계여과 / 브러쉬: 바닥, 솔형, 틈새, 연장관 / 무게: 1.6kg / 색상:레드 / 소비전력: 600W / 크기(가로x세로x깊이): 290x1100x150mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 22.2V / 헤파필터 / 싸이클론 / 3단계여과 / BLDC모터 / 먼지통용량: 0.5L / 충전시간: 4~5시간 / 배터리: 리튬이온 / 브러쉬: 바닥, 솔형, 틈새, 연장관 / LED라이트 / 거치대 / 무게: 2.5kg / 색상:화이트 / 소비전력: 160W / 흡입력: 17000Pa / 크기(가로x세로x깊이): 230x1050x120mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 22.2V / 헤파필터 / H13급 / 싸이클론 / 먼지통용량: 0.5L / 충전시간: 4~6시간 / 사용시간: 35분 / 배터리: 리튬이온 / 브러쉬: 바닥, 카펫, 틈새, 연장관 / 거치대 / 배터리잔량표시 / 무게: 2.11kg / 소비전력: 250W / 흡입력: 18000Pa</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 충전시간: 8시간 / 사용시간: 12분 / 무게: 1.49kg / 색상:블랙 / 크기(가로x세로x깊이): 100x140x420mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디형 / 무선형 / 색상:블루</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 22.2V / 헤파필터 / H13급 / 싸이클론 / 충전시간: 4시간 / 사용시간: 60분 / 배터리: 리튬이온 / 브러쉬: 바닥, 솔형, 틈새, 연장관 / 거치대 / 무게: 2.3kg / 색상:오렌지골드 / 소비전력: 150W / 흡입력: 8500Pa / 크기(가로x세로x깊이): 240x1065x260mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 스틱형 / 무선형 / 전압: 32.4V / 5단계여과 / 충전시간: 6시간 / 사용시간: 55분 / 배터리: 리튬이온 / LED라이트 / 거치대 / 배터리잔량표시 / 셀프스탠딩 / 무게: 4.1kg / 색상:인디고블루 / 알레르기인증(BAF) / 브러쉬: 침구, 3in1, 더스팅, 앵글튜브 / 플렉스리프트 / 바닥감지 / 크기(가로x세로x깊이): 215x1200x249mm</t>
-  </si>
-  <si>
-    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 22.2V / 헤파필터 / 싸이클론 / 4단계여과 / 먼지통용량: 0.55L / 충전시간: 4~5시간 / 사용시간: 40분 / 배터리: 리튬이온 / 용량: 2150mAh / 브러쉬: 바닥, 솔형, 틈새, 침구, 연장관 / LED라이트 / 거치대 / 무게: 2.2kg / 색상:블루 / 소비전력: 150W / 크기(가로x세로x깊이): 240x1040x212mm</t>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 18V / 싸이클론 / 흡입력: 25AW / 충전시간: 4시간 / 사용시간: 17분 / 배터리: 리튬이온 / 브러쉬: 틈새, 연장관 / 무게: 1.47kg / 색상:블랙</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 21.9V / 충전시간: 4~5시간 / 사용시간: 20~30분 / 배터리: 리튬이온 / 용량: 2050mAh / 브러쉬: 바닥, 틈새 / LED라이트 / 거치대 / 셀프스탠딩 / 색상:블루 / 크기(가로x세로x깊이): 270x1120x150mm</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 물걸레+진공 / 회전식 / 무선형 / 흡입력: 19000Pa / 전압: 22.2V / 헤파필터 / H13급 / 멀티싸이클론 / 5단계여과 / BLDC모터 / 사용시간: 1시간25분 / 배터리: 리튬이온 (2개) / 소비전력: 250W / 색상:레드, 샴페인골드 / 자동먼지감지 / 브러쉬: 바닥(물걸레), 바닥(진공),  물걸레, 틈새, 솔형 / 거치대 / 패드: 극세사(벨크로형), 일회용</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / BLDC모터 / 사용시간: 57분 / 배터리: 리튬이온 / 브러쉬: 바닥, 틈새, 연장관 / 무게: 1.3kg / 소비전력: 90W / 색상: 라이트그레이, 라이트그린, 레드, 블루</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 22.2V / 헤파필터 / 3단계여과 / 흡입력: 120W / 흡입력: 8000Pa / 충전시간: 5시간 / 사용시간: 40분 / 배터리: 리튬이온 / 브러쉬: 바닥, 틈새 / LED라이트 / 거치대 / 배터리잔량표시 / 프리볼트 / 색상:레드, 오렌지 / 소비전력: 100W</t>
+  </si>
+  <si>
+    <t>침구청소기 / 핸디형 / 무선형 / 전압: 12V / 충전시간: 2시간 / 사용시간: 1시간30분 / 용량: 1100mAh / 청소모드: UV살균 / 무게: 0.453kg / 소비전력: 9W / 크기(가로x세로x깊이): 80x530x60mm</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 물걸레전용 / 회전식 / 무선형 / 전압: 16.8V / 충전시간: 4시간 / 사용시간: 30분 / 배터리: 리튬이온 / LED라이트 / 가구손상방지 / 각도조절 / 색상:화이트 / 모터과열방지 / 과충전방지 / 오토스토핑 / 패드: 극세사(벨크로형)</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 핸디+스틱형 / 무선형 / 전압: 29.6V / 헤파필터 / 싸이클론 / 3단계여과 / 흡입력: 10000Pa / 먼지통용량: 0.7L / 충전시간: 4~5시간 / 사용시간: 1시간 / 배터리: 리튬이온 / 용량: 2200mAh / 브러쉬: 바닥, 솔형, 틈새, 연장관 / LED라이트 / 거치대 / 배터리잔량표시 / 무게: 1.5kg / 색상:그레이, 화이트 / 소비전력: 120W / 크기(가로x세로x깊이): 450x1100x110mm</t>
   </si>
 </sst>
 </file>
@@ -2196,7 +2199,7 @@
         <v>303</v>
       </c>
       <c r="C2">
-        <v>137700</v>
+        <v>173900</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2207,7 +2210,7 @@
         <v>304</v>
       </c>
       <c r="C3">
-        <v>33670</v>
+        <v>299000</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2218,7 +2221,7 @@
         <v>305</v>
       </c>
       <c r="C4">
-        <v>775840</v>
+        <v>1005340</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2229,7 +2232,7 @@
         <v>306</v>
       </c>
       <c r="C5">
-        <v>981320</v>
+        <v>48570</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2240,7 +2243,7 @@
         <v>307</v>
       </c>
       <c r="C6">
-        <v>183840</v>
+        <v>141000</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2251,7 +2254,7 @@
         <v>308</v>
       </c>
       <c r="C7">
-        <v>918650</v>
+        <v>138800</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2262,7 +2265,7 @@
         <v>309</v>
       </c>
       <c r="C8">
-        <v>840510</v>
+        <v>86500</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2273,7 +2276,7 @@
         <v>310</v>
       </c>
       <c r="C9">
-        <v>733660</v>
+        <v>877880</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2284,7 +2287,7 @@
         <v>311</v>
       </c>
       <c r="C10">
-        <v>140690</v>
+        <v>955370</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2295,7 +2298,7 @@
         <v>312</v>
       </c>
       <c r="C11">
-        <v>629100</v>
+        <v>128100</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2306,7 +2309,7 @@
         <v>313</v>
       </c>
       <c r="C12">
-        <v>909140</v>
+        <v>654100</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2317,7 +2320,7 @@
         <v>314</v>
       </c>
       <c r="C13">
-        <v>57240</v>
+        <v>595810</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2328,7 +2331,7 @@
         <v>315</v>
       </c>
       <c r="C14">
-        <v>128610</v>
+        <v>794690</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2339,7 +2342,7 @@
         <v>316</v>
       </c>
       <c r="C15">
-        <v>648880</v>
+        <v>25810</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2350,7 +2353,7 @@
         <v>317</v>
       </c>
       <c r="C16">
-        <v>50610</v>
+        <v>148110</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2361,7 +2364,7 @@
         <v>318</v>
       </c>
       <c r="C17">
-        <v>862980</v>
+        <v>600250</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2372,7 +2375,7 @@
         <v>319</v>
       </c>
       <c r="C18">
-        <v>881300</v>
+        <v>512420</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2383,7 +2386,7 @@
         <v>320</v>
       </c>
       <c r="C19">
-        <v>171580</v>
+        <v>222990</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2394,7 +2397,7 @@
         <v>321</v>
       </c>
       <c r="C20">
-        <v>58620</v>
+        <v>940410</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2405,7 +2408,7 @@
         <v>322</v>
       </c>
       <c r="C21">
-        <v>685710</v>
+        <v>595430</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2416,7 +2419,7 @@
         <v>323</v>
       </c>
       <c r="C22">
-        <v>118890</v>
+        <v>918120</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2427,7 +2430,7 @@
         <v>324</v>
       </c>
       <c r="C23">
-        <v>73440</v>
+        <v>40830</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2438,7 +2441,7 @@
         <v>325</v>
       </c>
       <c r="C24">
-        <v>241860</v>
+        <v>248640</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2449,7 +2452,7 @@
         <v>326</v>
       </c>
       <c r="C25">
-        <v>440270</v>
+        <v>76000</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2460,7 +2463,7 @@
         <v>327</v>
       </c>
       <c r="C26">
-        <v>157100</v>
+        <v>786520</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2471,7 +2474,7 @@
         <v>328</v>
       </c>
       <c r="C27">
-        <v>855310</v>
+        <v>765270</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2482,7 +2485,7 @@
         <v>329</v>
       </c>
       <c r="C28">
-        <v>218800</v>
+        <v>413220</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2493,7 +2496,7 @@
         <v>330</v>
       </c>
       <c r="C29">
-        <v>192720</v>
+        <v>214250</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2504,7 +2507,7 @@
         <v>331</v>
       </c>
       <c r="C30">
-        <v>267550</v>
+        <v>125430</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2515,7 +2518,7 @@
         <v>332</v>
       </c>
       <c r="C31">
-        <v>50070</v>
+        <v>404140</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2526,7 +2529,7 @@
         <v>333</v>
       </c>
       <c r="C32">
-        <v>114670</v>
+        <v>138000</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2537,7 +2540,7 @@
         <v>334</v>
       </c>
       <c r="C33">
-        <v>733230</v>
+        <v>67040</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2548,7 +2551,7 @@
         <v>335</v>
       </c>
       <c r="C34">
-        <v>68730</v>
+        <v>325910</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2559,7 +2562,7 @@
         <v>336</v>
       </c>
       <c r="C35">
-        <v>995950</v>
+        <v>22930</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2570,7 +2573,7 @@
         <v>337</v>
       </c>
       <c r="C36">
-        <v>872780</v>
+        <v>753820</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2581,7 +2584,7 @@
         <v>338</v>
       </c>
       <c r="C37">
-        <v>1108950</v>
+        <v>68160</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2592,7 +2595,7 @@
         <v>339</v>
       </c>
       <c r="C38">
-        <v>911810</v>
+        <v>316400</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2600,10 +2603,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>304</v>
+        <v>340</v>
       </c>
       <c r="C39">
-        <v>33670</v>
+        <v>378590</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2611,10 +2614,10 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C40">
-        <v>113050</v>
+        <v>338270</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2622,10 +2625,10 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C41">
-        <v>171690</v>
+        <v>64900</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -2633,10 +2636,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C42">
-        <v>614680</v>
+        <v>57770</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2644,10 +2647,10 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C43">
-        <v>993990</v>
+        <v>170720</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -2655,10 +2658,10 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C44">
-        <v>329740</v>
+        <v>414080</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -2666,10 +2669,10 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C45">
-        <v>525800</v>
+        <v>328630</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -2677,10 +2680,10 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C46">
-        <v>51440</v>
+        <v>54870</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -2688,10 +2691,10 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C47">
-        <v>159990</v>
+        <v>73040</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -2699,10 +2702,10 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C48">
-        <v>34810</v>
+        <v>72800</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -2710,10 +2713,10 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C49">
-        <v>28050</v>
+        <v>468920</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -2721,10 +2724,10 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C50">
-        <v>193500</v>
+        <v>171790</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -2732,10 +2735,10 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C51">
-        <v>109000</v>
+        <v>90940</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -2743,10 +2746,10 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C52">
-        <v>158860</v>
+        <v>124800</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2754,10 +2757,10 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C53">
-        <v>138910</v>
+        <v>43990</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -2765,10 +2768,10 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C54">
-        <v>121400</v>
+        <v>69180</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -2776,10 +2779,10 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C55">
-        <v>166470</v>
+        <v>80580</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -2787,10 +2790,10 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C56">
-        <v>76560</v>
+        <v>161970</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -2798,10 +2801,10 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C57">
-        <v>674840</v>
+        <v>132650</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -2809,10 +2812,10 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C58">
-        <v>475508</v>
+        <v>152090</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -2820,10 +2823,10 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C59">
-        <v>108980</v>
+        <v>568920</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -2831,10 +2834,10 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C60">
-        <v>479000</v>
+        <v>973910</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -2842,10 +2845,10 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C61">
-        <v>243580</v>
+        <v>845950</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -2853,10 +2856,10 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C62">
-        <v>157170</v>
+        <v>54120</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2864,10 +2867,10 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C63">
-        <v>397720</v>
+        <v>698900</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -2875,10 +2878,10 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C64">
-        <v>282710</v>
+        <v>44700</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2886,10 +2889,10 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C65">
-        <v>53760</v>
+        <v>103350</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2897,10 +2900,10 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C66">
-        <v>146500</v>
+        <v>454090</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2908,10 +2911,10 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C67">
-        <v>79100</v>
+        <v>156690</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -2919,10 +2922,10 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C68">
-        <v>84980</v>
+        <v>126500</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2930,10 +2933,10 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C69">
-        <v>76000</v>
+        <v>149460</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2941,10 +2944,10 @@
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C70">
-        <v>920000</v>
+        <v>389000</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2952,10 +2955,10 @@
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C71">
-        <v>259000</v>
+        <v>33950</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -2963,10 +2966,10 @@
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C72">
-        <v>447710</v>
+        <v>36040</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -2974,10 +2977,10 @@
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C73">
-        <v>622040</v>
+        <v>319850</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -2985,10 +2988,10 @@
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C74">
-        <v>58900</v>
+        <v>86780</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -2996,10 +2999,10 @@
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C75">
-        <v>281060</v>
+        <v>146480</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -3007,10 +3010,10 @@
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C76">
-        <v>373150</v>
+        <v>104690</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -3018,10 +3021,10 @@
         <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C77">
-        <v>90860</v>
+        <v>329570</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -3029,10 +3032,10 @@
         <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C78">
-        <v>99900</v>
+        <v>104490</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -3040,10 +3043,10 @@
         <v>80</v>
       </c>
       <c r="B79" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C79">
-        <v>125100</v>
+        <v>118000</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -3051,10 +3054,10 @@
         <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C80">
-        <v>551200</v>
+        <v>259000</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -3062,10 +3065,10 @@
         <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C81">
-        <v>794970</v>
+        <v>125600</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -3073,10 +3076,10 @@
         <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C82">
-        <v>155810</v>
+        <v>39200</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -3084,10 +3087,10 @@
         <v>84</v>
       </c>
       <c r="B83" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C83">
-        <v>239000</v>
+        <v>486360</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -3095,10 +3098,10 @@
         <v>85</v>
       </c>
       <c r="B84" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C84">
-        <v>883600</v>
+        <v>296800</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -3106,10 +3109,10 @@
         <v>86</v>
       </c>
       <c r="B85" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C85">
-        <v>73640</v>
+        <v>159000</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -3117,10 +3120,10 @@
         <v>87</v>
       </c>
       <c r="B86" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C86">
-        <v>78830</v>
+        <v>572460</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -3128,10 +3131,10 @@
         <v>88</v>
       </c>
       <c r="B87" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C87">
-        <v>368800</v>
+        <v>925860</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -3139,10 +3142,10 @@
         <v>89</v>
       </c>
       <c r="B88" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C88">
-        <v>61930</v>
+        <v>478050</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -3150,10 +3153,10 @@
         <v>90</v>
       </c>
       <c r="B89" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C89">
-        <v>48660</v>
+        <v>77560</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -3161,10 +3164,10 @@
         <v>91</v>
       </c>
       <c r="B90" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C90">
-        <v>76630</v>
+        <v>369220</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -3172,10 +3175,10 @@
         <v>92</v>
       </c>
       <c r="B91" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C91">
-        <v>348940</v>
+        <v>563450</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -3183,10 +3186,10 @@
         <v>93</v>
       </c>
       <c r="B92" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C92">
-        <v>500000</v>
+        <v>318000</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -3194,10 +3197,10 @@
         <v>94</v>
       </c>
       <c r="B93" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C93">
-        <v>404180</v>
+        <v>891920</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -3205,10 +3208,10 @@
         <v>95</v>
       </c>
       <c r="B94" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C94">
-        <v>242310</v>
+        <v>137160</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -3216,10 +3219,10 @@
         <v>96</v>
       </c>
       <c r="B95" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C95">
-        <v>749000</v>
+        <v>1510190</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -3227,10 +3230,10 @@
         <v>97</v>
       </c>
       <c r="B96" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C96">
-        <v>690560</v>
+        <v>133390</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -3238,10 +3241,10 @@
         <v>98</v>
       </c>
       <c r="B97" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C97">
-        <v>38690</v>
+        <v>257600</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -3249,10 +3252,10 @@
         <v>99</v>
       </c>
       <c r="B98" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C98">
-        <v>517880</v>
+        <v>870910</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -3260,10 +3263,10 @@
         <v>100</v>
       </c>
       <c r="B99" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C99">
-        <v>1097990</v>
+        <v>75200</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -3271,10 +3274,10 @@
         <v>101</v>
       </c>
       <c r="B100" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C100">
-        <v>1000000</v>
+        <v>250050</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -3282,10 +3285,10 @@
         <v>102</v>
       </c>
       <c r="B101" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C101">
-        <v>196000</v>
+        <v>118990</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -3293,10 +3296,10 @@
         <v>103</v>
       </c>
       <c r="B102" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C102">
-        <v>385470</v>
+        <v>535110</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -3304,10 +3307,10 @@
         <v>104</v>
       </c>
       <c r="B103" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C103">
-        <v>650360</v>
+        <v>982970</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -3315,10 +3318,10 @@
         <v>105</v>
       </c>
       <c r="B104" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C104">
-        <v>146830</v>
+        <v>1097990</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -3326,10 +3329,10 @@
         <v>106</v>
       </c>
       <c r="B105" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C105">
-        <v>119700</v>
+        <v>667780</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -3337,10 +3340,10 @@
         <v>107</v>
       </c>
       <c r="B106" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C106">
-        <v>81440</v>
+        <v>135000</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -3348,10 +3351,10 @@
         <v>108</v>
       </c>
       <c r="B107" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C107">
-        <v>205440</v>
+        <v>111780</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -3359,10 +3362,10 @@
         <v>109</v>
       </c>
       <c r="B108" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C108">
-        <v>234753</v>
+        <v>729850</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -3370,10 +3373,10 @@
         <v>110</v>
       </c>
       <c r="B109" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C109">
-        <v>84890</v>
+        <v>999990</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -3381,10 +3384,10 @@
         <v>111</v>
       </c>
       <c r="B110" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C110">
-        <v>56100</v>
+        <v>548610</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -3392,10 +3395,10 @@
         <v>112</v>
       </c>
       <c r="B111" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C111">
-        <v>172030</v>
+        <v>889990</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -3403,10 +3406,10 @@
         <v>113</v>
       </c>
       <c r="B112" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C112">
-        <v>33010</v>
+        <v>891030</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -3414,10 +3417,10 @@
         <v>114</v>
       </c>
       <c r="B113" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C113">
-        <v>218000</v>
+        <v>1045700</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -3425,10 +3428,10 @@
         <v>115</v>
       </c>
       <c r="B114" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C114">
-        <v>744820</v>
+        <v>294000</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -3436,10 +3439,10 @@
         <v>116</v>
       </c>
       <c r="B115" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C115">
-        <v>40800</v>
+        <v>128990</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -3447,10 +3450,10 @@
         <v>117</v>
       </c>
       <c r="B116" t="s">
-        <v>416</v>
+        <v>318</v>
       </c>
       <c r="C116">
-        <v>69650</v>
+        <v>648830</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -3461,7 +3464,7 @@
         <v>417</v>
       </c>
       <c r="C117">
-        <v>84200</v>
+        <v>103630</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -3472,7 +3475,7 @@
         <v>418</v>
       </c>
       <c r="C118">
-        <v>208420</v>
+        <v>85310</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -3483,7 +3486,7 @@
         <v>419</v>
       </c>
       <c r="C119">
-        <v>105330</v>
+        <v>835410</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -3494,7 +3497,7 @@
         <v>420</v>
       </c>
       <c r="C120">
-        <v>35440</v>
+        <v>695630</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -3505,7 +3508,7 @@
         <v>421</v>
       </c>
       <c r="C121">
-        <v>485960</v>
+        <v>145590</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -3516,7 +3519,7 @@
         <v>422</v>
       </c>
       <c r="C122">
-        <v>81660</v>
+        <v>390510</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -3524,10 +3527,10 @@
         <v>124</v>
       </c>
       <c r="B123" t="s">
-        <v>357</v>
+        <v>423</v>
       </c>
       <c r="C123">
-        <v>744830</v>
+        <v>62310</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -3535,10 +3538,10 @@
         <v>125</v>
       </c>
       <c r="B124" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C124">
-        <v>17900</v>
+        <v>77520</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -3546,10 +3549,10 @@
         <v>126</v>
       </c>
       <c r="B125" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C125">
-        <v>398000</v>
+        <v>99900</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -3557,10 +3560,10 @@
         <v>127</v>
       </c>
       <c r="B126" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C126">
-        <v>725600</v>
+        <v>94370</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -3568,10 +3571,10 @@
         <v>128</v>
       </c>
       <c r="B127" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C127">
-        <v>708990</v>
+        <v>28520</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -3579,10 +3582,10 @@
         <v>129</v>
       </c>
       <c r="B128" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C128">
-        <v>87120</v>
+        <v>105840</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -3590,10 +3593,10 @@
         <v>130</v>
       </c>
       <c r="B129" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C129">
-        <v>440010</v>
+        <v>82550</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -3601,10 +3604,10 @@
         <v>131</v>
       </c>
       <c r="B130" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C130">
-        <v>329490</v>
+        <v>336500</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -3612,10 +3615,10 @@
         <v>132</v>
       </c>
       <c r="B131" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C131">
-        <v>79000</v>
+        <v>23500</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -3623,10 +3626,10 @@
         <v>133</v>
       </c>
       <c r="B132" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C132">
-        <v>462150</v>
+        <v>35070</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -3634,10 +3637,10 @@
         <v>134</v>
       </c>
       <c r="B133" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C133">
-        <v>727660</v>
+        <v>294000</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -3645,10 +3648,10 @@
         <v>135</v>
       </c>
       <c r="B134" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C134">
-        <v>399000</v>
+        <v>69000</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -3656,10 +3659,10 @@
         <v>136</v>
       </c>
       <c r="B135" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C135">
-        <v>26800</v>
+        <v>24010</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -3667,10 +3670,10 @@
         <v>137</v>
       </c>
       <c r="B136" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C136">
-        <v>341480</v>
+        <v>931100</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -3678,10 +3681,10 @@
         <v>138</v>
       </c>
       <c r="B137" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C137">
-        <v>24130</v>
+        <v>531380</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -3689,10 +3692,10 @@
         <v>139</v>
       </c>
       <c r="B138" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C138">
-        <v>145050</v>
+        <v>183910</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -3700,10 +3703,10 @@
         <v>140</v>
       </c>
       <c r="B139" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C139">
-        <v>155480</v>
+        <v>845990</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -3711,10 +3714,10 @@
         <v>141</v>
       </c>
       <c r="B140" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C140">
-        <v>245210</v>
+        <v>355740</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -3722,10 +3725,10 @@
         <v>142</v>
       </c>
       <c r="B141" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C141">
-        <v>113050</v>
+        <v>386420</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -3733,10 +3736,10 @@
         <v>143</v>
       </c>
       <c r="B142" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C142">
-        <v>177300</v>
+        <v>607390</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -3744,10 +3747,10 @@
         <v>144</v>
       </c>
       <c r="B143" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C143">
-        <v>267420</v>
+        <v>186580</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -3755,10 +3758,10 @@
         <v>145</v>
       </c>
       <c r="B144" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C144">
-        <v>99000</v>
+        <v>9710</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -3766,10 +3769,10 @@
         <v>146</v>
       </c>
       <c r="B145" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C145">
-        <v>97080</v>
+        <v>613290</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -3777,10 +3780,10 @@
         <v>147</v>
       </c>
       <c r="B146" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C146">
-        <v>173880</v>
+        <v>132370</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -3788,10 +3791,10 @@
         <v>148</v>
       </c>
       <c r="B147" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C147">
-        <v>50790</v>
+        <v>92770</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -3799,10 +3802,10 @@
         <v>149</v>
       </c>
       <c r="B148" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C148">
-        <v>169550</v>
+        <v>725880</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -3810,10 +3813,10 @@
         <v>150</v>
       </c>
       <c r="B149" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C149">
-        <v>69000</v>
+        <v>324280</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -3821,10 +3824,10 @@
         <v>151</v>
       </c>
       <c r="B150" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C150">
-        <v>1015550</v>
+        <v>149570</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -3832,10 +3835,10 @@
         <v>152</v>
       </c>
       <c r="B151" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C151">
-        <v>221910</v>
+        <v>216720</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -3843,10 +3846,10 @@
         <v>153</v>
       </c>
       <c r="B152" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C152">
-        <v>339700</v>
+        <v>571810</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -3854,10 +3857,10 @@
         <v>154</v>
       </c>
       <c r="B153" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C153">
-        <v>110660</v>
+        <v>231400</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -3865,10 +3868,10 @@
         <v>155</v>
       </c>
       <c r="B154" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C154">
-        <v>144190</v>
+        <v>219000</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -3876,10 +3879,10 @@
         <v>156</v>
       </c>
       <c r="B155" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C155">
-        <v>90090</v>
+        <v>60560</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -3887,10 +3890,10 @@
         <v>157</v>
       </c>
       <c r="B156" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C156">
-        <v>186990</v>
+        <v>559870</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -3898,10 +3901,10 @@
         <v>158</v>
       </c>
       <c r="B157" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C157">
-        <v>306410</v>
+        <v>259000</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -3909,10 +3912,10 @@
         <v>159</v>
       </c>
       <c r="B158" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C158">
-        <v>72490</v>
+        <v>114840</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -3920,10 +3923,10 @@
         <v>160</v>
       </c>
       <c r="B159" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C159">
-        <v>106770</v>
+        <v>94910</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -3931,10 +3934,10 @@
         <v>161</v>
       </c>
       <c r="B160" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C160">
-        <v>358140</v>
+        <v>53790</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -3942,10 +3945,10 @@
         <v>162</v>
       </c>
       <c r="B161" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C161">
-        <v>68800</v>
+        <v>243850</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -3953,10 +3956,10 @@
         <v>163</v>
       </c>
       <c r="B162" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C162">
-        <v>174970</v>
+        <v>171140</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -3964,10 +3967,10 @@
         <v>164</v>
       </c>
       <c r="B163" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C163">
-        <v>69790</v>
+        <v>270180</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -3975,10 +3978,10 @@
         <v>165</v>
       </c>
       <c r="B164" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C164">
-        <v>35370</v>
+        <v>148990</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -3986,10 +3989,10 @@
         <v>166</v>
       </c>
       <c r="B165" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C165">
-        <v>175610</v>
+        <v>77970</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -3997,10 +4000,10 @@
         <v>167</v>
       </c>
       <c r="B166" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C166">
-        <v>138960</v>
+        <v>267100</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -4008,10 +4011,10 @@
         <v>168</v>
       </c>
       <c r="B167" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C167">
-        <v>94536</v>
+        <v>148730</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -4019,10 +4022,10 @@
         <v>169</v>
       </c>
       <c r="B168" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C168">
-        <v>8970</v>
+        <v>198000</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -4030,10 +4033,10 @@
         <v>170</v>
       </c>
       <c r="B169" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C169">
-        <v>115830</v>
+        <v>18170</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -4041,10 +4044,10 @@
         <v>171</v>
       </c>
       <c r="B170" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C170">
-        <v>483320</v>
+        <v>31090</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -4052,10 +4055,10 @@
         <v>172</v>
       </c>
       <c r="B171" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C171">
-        <v>220540</v>
+        <v>179000</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -4063,10 +4066,10 @@
         <v>173</v>
       </c>
       <c r="B172" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C172">
-        <v>36800</v>
+        <v>32180</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -4074,10 +4077,10 @@
         <v>174</v>
       </c>
       <c r="B173" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C173">
-        <v>158000</v>
+        <v>55760</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -4085,10 +4088,10 @@
         <v>175</v>
       </c>
       <c r="B174" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C174">
-        <v>129000</v>
+        <v>118960</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -4096,10 +4099,10 @@
         <v>176</v>
       </c>
       <c r="B175" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C175">
-        <v>156000</v>
+        <v>236550</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -4107,10 +4110,10 @@
         <v>177</v>
       </c>
       <c r="B176" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C176">
-        <v>253540</v>
+        <v>208720</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -4118,10 +4121,10 @@
         <v>178</v>
       </c>
       <c r="B177" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C177">
-        <v>89440</v>
+        <v>36890</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -4129,10 +4132,10 @@
         <v>179</v>
       </c>
       <c r="B178" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C178">
-        <v>218000</v>
+        <v>17900</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -4140,10 +4143,10 @@
         <v>180</v>
       </c>
       <c r="B179" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C179">
-        <v>51890</v>
+        <v>961800</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -4151,10 +4154,10 @@
         <v>181</v>
       </c>
       <c r="B180" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C180">
-        <v>42340</v>
+        <v>208900</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -4162,10 +4165,10 @@
         <v>182</v>
       </c>
       <c r="B181" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C181">
-        <v>64900</v>
+        <v>227160</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -4173,10 +4176,10 @@
         <v>183</v>
       </c>
       <c r="B182" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C182">
-        <v>207410</v>
+        <v>646070</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -4184,10 +4187,10 @@
         <v>184</v>
       </c>
       <c r="B183" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C183">
-        <v>186120</v>
+        <v>500430</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -4195,10 +4198,10 @@
         <v>185</v>
       </c>
       <c r="B184" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C184">
-        <v>79900</v>
+        <v>28620</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -4206,10 +4209,10 @@
         <v>186</v>
       </c>
       <c r="B185" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C185">
-        <v>169000</v>
+        <v>178000</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -4217,10 +4220,10 @@
         <v>187</v>
       </c>
       <c r="B186" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C186">
-        <v>113490</v>
+        <v>24740</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -4228,10 +4231,10 @@
         <v>188</v>
       </c>
       <c r="B187" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C187">
-        <v>818970</v>
+        <v>252540</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -4239,10 +4242,10 @@
         <v>189</v>
       </c>
       <c r="B188" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C188">
-        <v>78960</v>
+        <v>371340</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -4250,10 +4253,10 @@
         <v>190</v>
       </c>
       <c r="B189" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C189">
-        <v>32780</v>
+        <v>173220</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -4261,10 +4264,10 @@
         <v>191</v>
       </c>
       <c r="B190" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C190">
-        <v>83610</v>
+        <v>77890</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -4272,10 +4275,10 @@
         <v>192</v>
       </c>
       <c r="B191" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C191">
-        <v>23140</v>
+        <v>39110</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -4283,10 +4286,10 @@
         <v>193</v>
       </c>
       <c r="B192" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C192">
-        <v>51570</v>
+        <v>25070</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -4294,10 +4297,10 @@
         <v>194</v>
       </c>
       <c r="B193" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C193">
-        <v>78190</v>
+        <v>125490</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -4305,10 +4308,10 @@
         <v>195</v>
       </c>
       <c r="B194" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C194">
-        <v>46030</v>
+        <v>99000</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -4316,10 +4319,10 @@
         <v>196</v>
       </c>
       <c r="B195" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C195">
-        <v>18540</v>
+        <v>303050</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -4327,10 +4330,10 @@
         <v>197</v>
       </c>
       <c r="B196" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C196">
-        <v>239040</v>
+        <v>199090</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -4338,10 +4341,10 @@
         <v>198</v>
       </c>
       <c r="B197" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C197">
-        <v>247480</v>
+        <v>78100</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -4349,10 +4352,10 @@
         <v>199</v>
       </c>
       <c r="B198" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C198">
-        <v>23900</v>
+        <v>20510</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -4360,10 +4363,10 @@
         <v>200</v>
       </c>
       <c r="B199" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C199">
-        <v>87400</v>
+        <v>128990</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -4371,10 +4374,10 @@
         <v>201</v>
       </c>
       <c r="B200" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C200">
-        <v>103040</v>
+        <v>33450</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -4382,10 +4385,10 @@
         <v>202</v>
       </c>
       <c r="B201" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C201">
-        <v>138330</v>
+        <v>244470</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -4393,10 +4396,10 @@
         <v>203</v>
       </c>
       <c r="B202" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C202">
-        <v>28630</v>
+        <v>860660</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -4404,10 +4407,10 @@
         <v>204</v>
       </c>
       <c r="B203" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C203">
-        <v>109700</v>
+        <v>120140</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -4415,10 +4418,10 @@
         <v>205</v>
       </c>
       <c r="B204" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C204">
-        <v>119000</v>
+        <v>284970</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -4426,10 +4429,10 @@
         <v>206</v>
       </c>
       <c r="B205" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C205">
-        <v>37100</v>
+        <v>168990</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -4437,10 +4440,10 @@
         <v>207</v>
       </c>
       <c r="B206" t="s">
-        <v>505</v>
+        <v>472</v>
       </c>
       <c r="C206">
-        <v>184380</v>
+        <v>37100</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -4451,7 +4454,7 @@
         <v>506</v>
       </c>
       <c r="C207">
-        <v>165590</v>
+        <v>56780</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -4462,7 +4465,7 @@
         <v>507</v>
       </c>
       <c r="C208">
-        <v>58500</v>
+        <v>88800</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -4473,7 +4476,7 @@
         <v>508</v>
       </c>
       <c r="C209">
-        <v>68700</v>
+        <v>355320</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -4484,7 +4487,7 @@
         <v>509</v>
       </c>
       <c r="C210">
-        <v>703350</v>
+        <v>121260</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -4495,7 +4498,7 @@
         <v>510</v>
       </c>
       <c r="C211">
-        <v>647100</v>
+        <v>28480</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -4506,7 +4509,7 @@
         <v>511</v>
       </c>
       <c r="C212">
-        <v>146270</v>
+        <v>66930</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -4517,7 +4520,7 @@
         <v>512</v>
       </c>
       <c r="C213">
-        <v>128990</v>
+        <v>46950</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -4528,7 +4531,7 @@
         <v>513</v>
       </c>
       <c r="C214">
-        <v>142640</v>
+        <v>200790</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -4539,7 +4542,7 @@
         <v>514</v>
       </c>
       <c r="C215">
-        <v>118900</v>
+        <v>98910</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -4550,7 +4553,7 @@
         <v>515</v>
       </c>
       <c r="C216">
-        <v>469300</v>
+        <v>133150</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -4561,7 +4564,7 @@
         <v>516</v>
       </c>
       <c r="C217">
-        <v>631360</v>
+        <v>22000</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -4572,7 +4575,7 @@
         <v>517</v>
       </c>
       <c r="C218">
-        <v>278990</v>
+        <v>78930</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -4583,7 +4586,7 @@
         <v>518</v>
       </c>
       <c r="C219">
-        <v>47160</v>
+        <v>434550</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -4594,7 +4597,7 @@
         <v>519</v>
       </c>
       <c r="C220">
-        <v>229000</v>
+        <v>72000</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -4605,7 +4608,7 @@
         <v>520</v>
       </c>
       <c r="C221">
-        <v>144900</v>
+        <v>49800</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -4616,7 +4619,7 @@
         <v>521</v>
       </c>
       <c r="C222">
-        <v>88620</v>
+        <v>99000</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -4627,7 +4630,7 @@
         <v>522</v>
       </c>
       <c r="C223">
-        <v>107800</v>
+        <v>28790</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -4638,7 +4641,7 @@
         <v>523</v>
       </c>
       <c r="C224">
-        <v>38190</v>
+        <v>90650</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -4649,7 +4652,7 @@
         <v>524</v>
       </c>
       <c r="C225">
-        <v>30370</v>
+        <v>508720</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -4660,7 +4663,7 @@
         <v>525</v>
       </c>
       <c r="C226">
-        <v>25990</v>
+        <v>721460</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -4671,7 +4674,7 @@
         <v>526</v>
       </c>
       <c r="C227">
-        <v>337580</v>
+        <v>200510</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -4682,7 +4685,7 @@
         <v>527</v>
       </c>
       <c r="C228">
-        <v>992970</v>
+        <v>112490</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -4693,7 +4696,7 @@
         <v>528</v>
       </c>
       <c r="C229">
-        <v>1122290</v>
+        <v>247580</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -4704,7 +4707,7 @@
         <v>529</v>
       </c>
       <c r="C230">
-        <v>263000</v>
+        <v>88990</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -4715,7 +4718,7 @@
         <v>530</v>
       </c>
       <c r="C231">
-        <v>72990</v>
+        <v>660370</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -4726,7 +4729,7 @@
         <v>531</v>
       </c>
       <c r="C232">
-        <v>178490</v>
+        <v>728560</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -4737,7 +4740,7 @@
         <v>532</v>
       </c>
       <c r="C233">
-        <v>109550</v>
+        <v>98900</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -4745,10 +4748,10 @@
         <v>235</v>
       </c>
       <c r="B234" t="s">
-        <v>507</v>
+        <v>533</v>
       </c>
       <c r="C234">
-        <v>70900</v>
+        <v>74150</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -4756,10 +4759,10 @@
         <v>236</v>
       </c>
       <c r="B235" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C235">
-        <v>25000</v>
+        <v>49900</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -4767,10 +4770,10 @@
         <v>237</v>
       </c>
       <c r="B236" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C236">
-        <v>132560</v>
+        <v>343539</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -4778,10 +4781,10 @@
         <v>238</v>
       </c>
       <c r="B237" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C237">
-        <v>216570</v>
+        <v>232500</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -4789,10 +4792,10 @@
         <v>239</v>
       </c>
       <c r="B238" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C238">
-        <v>21210</v>
+        <v>4230</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -4800,10 +4803,10 @@
         <v>240</v>
       </c>
       <c r="B239" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C239">
-        <v>182950</v>
+        <v>61110</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -4811,10 +4814,10 @@
         <v>241</v>
       </c>
       <c r="B240" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C240">
-        <v>117880</v>
+        <v>169340</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -4822,10 +4825,10 @@
         <v>242</v>
       </c>
       <c r="B241" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C241">
-        <v>33070</v>
+        <v>246670</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -4833,10 +4836,10 @@
         <v>243</v>
       </c>
       <c r="B242" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C242">
-        <v>56460</v>
+        <v>214690</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -4844,10 +4847,10 @@
         <v>244</v>
       </c>
       <c r="B243" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C243">
-        <v>33840</v>
+        <v>257100</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -4855,10 +4858,10 @@
         <v>245</v>
       </c>
       <c r="B244" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C244">
-        <v>31220</v>
+        <v>549990</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -4866,10 +4869,10 @@
         <v>246</v>
       </c>
       <c r="B245" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C245">
-        <v>2198400</v>
+        <v>29350</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -4877,10 +4880,10 @@
         <v>247</v>
       </c>
       <c r="B246" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C246">
-        <v>39030</v>
+        <v>519100</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -4888,10 +4891,10 @@
         <v>248</v>
       </c>
       <c r="B247" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C247">
-        <v>19300</v>
+        <v>95380</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -4899,10 +4902,10 @@
         <v>249</v>
       </c>
       <c r="B248" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C248">
-        <v>106340</v>
+        <v>171500</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -4910,10 +4913,10 @@
         <v>250</v>
       </c>
       <c r="B249" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C249">
-        <v>109350</v>
+        <v>53000</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -4921,10 +4924,10 @@
         <v>251</v>
       </c>
       <c r="B250" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C250">
-        <v>28110</v>
+        <v>194370</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -4932,10 +4935,10 @@
         <v>252</v>
       </c>
       <c r="B251" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C251">
-        <v>297250</v>
+        <v>154230</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -4943,10 +4946,10 @@
         <v>253</v>
       </c>
       <c r="B252" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C252">
-        <v>89650</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -4954,10 +4957,10 @@
         <v>254</v>
       </c>
       <c r="B253" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C253">
-        <v>33290</v>
+        <v>74220</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -4965,10 +4968,10 @@
         <v>255</v>
       </c>
       <c r="B254" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C254">
-        <v>235550</v>
+        <v>118890</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -4976,10 +4979,10 @@
         <v>256</v>
       </c>
       <c r="B255" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C255">
-        <v>120850</v>
+        <v>141550</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -4987,10 +4990,10 @@
         <v>257</v>
       </c>
       <c r="B256" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C256">
-        <v>37890</v>
+        <v>93740</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -4998,10 +5001,10 @@
         <v>258</v>
       </c>
       <c r="B257" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C257">
-        <v>69800</v>
+        <v>188800</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -5009,10 +5012,10 @@
         <v>259</v>
       </c>
       <c r="B258" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C258">
-        <v>726180</v>
+        <v>29940</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -5020,10 +5023,10 @@
         <v>260</v>
       </c>
       <c r="B259" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C259">
-        <v>163800</v>
+        <v>360090</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -5031,10 +5034,10 @@
         <v>261</v>
       </c>
       <c r="B260" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C260">
-        <v>92220</v>
+        <v>265310</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -5042,10 +5045,10 @@
         <v>262</v>
       </c>
       <c r="B261" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C261">
-        <v>318000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -5053,10 +5056,10 @@
         <v>263</v>
       </c>
       <c r="B262" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C262">
-        <v>211650</v>
+        <v>387930</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -5064,10 +5067,10 @@
         <v>264</v>
       </c>
       <c r="B263" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C263">
-        <v>27080</v>
+        <v>236350</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -5075,10 +5078,10 @@
         <v>265</v>
       </c>
       <c r="B264" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C264">
-        <v>69200</v>
+        <v>283850</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -5086,10 +5089,10 @@
         <v>266</v>
       </c>
       <c r="B265" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C265">
-        <v>1139000</v>
+        <v>78330</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -5097,10 +5100,10 @@
         <v>267</v>
       </c>
       <c r="B266" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C266">
-        <v>257700</v>
+        <v>119910</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -5108,10 +5111,10 @@
         <v>268</v>
       </c>
       <c r="B267" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C267">
-        <v>59550</v>
+        <v>79900</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -5119,10 +5122,10 @@
         <v>269</v>
       </c>
       <c r="B268" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C268">
-        <v>79000</v>
+        <v>26290</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -5130,10 +5133,10 @@
         <v>270</v>
       </c>
       <c r="B269" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C269">
-        <v>1622400</v>
+        <v>158860</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -5141,10 +5144,10 @@
         <v>271</v>
       </c>
       <c r="B270" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C270">
-        <v>78940</v>
+        <v>53940</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -5152,10 +5155,10 @@
         <v>272</v>
       </c>
       <c r="B271" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C271">
-        <v>48400</v>
+        <v>114850</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -5163,10 +5166,10 @@
         <v>273</v>
       </c>
       <c r="B272" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C272">
-        <v>30010</v>
+        <v>45280</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -5174,10 +5177,10 @@
         <v>274</v>
       </c>
       <c r="B273" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C273">
-        <v>78900</v>
+        <v>32310</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -5185,10 +5188,10 @@
         <v>275</v>
       </c>
       <c r="B274" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C274">
-        <v>114750</v>
+        <v>195020</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -5196,10 +5199,10 @@
         <v>276</v>
       </c>
       <c r="B275" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C275">
-        <v>54730</v>
+        <v>55850</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -5207,10 +5210,10 @@
         <v>277</v>
       </c>
       <c r="B276" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C276">
-        <v>419900</v>
+        <v>76130</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -5218,10 +5221,10 @@
         <v>278</v>
       </c>
       <c r="B277" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C277">
-        <v>38880</v>
+        <v>118880</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -5229,10 +5232,10 @@
         <v>279</v>
       </c>
       <c r="B278" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C278">
-        <v>33360</v>
+        <v>116900</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -5240,10 +5243,10 @@
         <v>280</v>
       </c>
       <c r="B279" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C279">
-        <v>94420</v>
+        <v>32900</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -5251,10 +5254,10 @@
         <v>281</v>
       </c>
       <c r="B280" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C280">
-        <v>362700</v>
+        <v>173630</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -5262,10 +5265,10 @@
         <v>282</v>
       </c>
       <c r="B281" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C281">
-        <v>35380</v>
+        <v>430610</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -5273,10 +5276,10 @@
         <v>283</v>
       </c>
       <c r="B282" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C282">
-        <v>96030</v>
+        <v>93770</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -5284,10 +5287,10 @@
         <v>284</v>
       </c>
       <c r="B283" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C283">
-        <v>1036970</v>
+        <v>119000</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -5295,10 +5298,10 @@
         <v>285</v>
       </c>
       <c r="B284" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C284">
-        <v>85380</v>
+        <v>117730</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -5306,10 +5309,10 @@
         <v>286</v>
       </c>
       <c r="B285" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C285">
-        <v>238990</v>
+        <v>139000</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -5317,10 +5320,10 @@
         <v>287</v>
       </c>
       <c r="B286" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C286">
-        <v>228540</v>
+        <v>48900</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -5328,10 +5331,10 @@
         <v>288</v>
       </c>
       <c r="B287" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C287">
-        <v>498240</v>
+        <v>242590</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -5339,10 +5342,10 @@
         <v>289</v>
       </c>
       <c r="B288" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C288">
-        <v>34400</v>
+        <v>23890</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -5350,10 +5353,10 @@
         <v>290</v>
       </c>
       <c r="B289" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C289">
-        <v>74030</v>
+        <v>101980</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -5361,10 +5364,10 @@
         <v>291</v>
       </c>
       <c r="B290" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C290">
-        <v>89100</v>
+        <v>37900</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -5372,10 +5375,10 @@
         <v>292</v>
       </c>
       <c r="B291" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C291">
-        <v>33140</v>
+        <v>209280</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -5383,10 +5386,10 @@
         <v>293</v>
       </c>
       <c r="B292" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C292">
-        <v>208990</v>
+        <v>238000</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -5394,10 +5397,10 @@
         <v>294</v>
       </c>
       <c r="B293" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C293">
-        <v>37800</v>
+        <v>417540</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -5405,10 +5408,10 @@
         <v>295</v>
       </c>
       <c r="B294" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C294">
-        <v>39990</v>
+        <v>108000</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -5416,10 +5419,10 @@
         <v>296</v>
       </c>
       <c r="B295" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C295">
-        <v>114230</v>
+        <v>103480</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -5427,10 +5430,10 @@
         <v>297</v>
       </c>
       <c r="B296" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C296">
-        <v>0</v>
+        <v>242910</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -5438,10 +5441,10 @@
         <v>298</v>
       </c>
       <c r="B297" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C297">
-        <v>0</v>
+        <v>237825</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -5449,10 +5452,10 @@
         <v>299</v>
       </c>
       <c r="B298" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C298">
-        <v>0</v>
+        <v>94050</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -5460,10 +5463,10 @@
         <v>300</v>
       </c>
       <c r="B299" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C299">
-        <v>127520</v>
+        <v>188800</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -5471,10 +5474,10 @@
         <v>301</v>
       </c>
       <c r="B300" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C300">
-        <v>387200</v>
+        <v>158220</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -5482,10 +5485,10 @@
         <v>302</v>
       </c>
       <c r="B301" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C301">
-        <v>216050</v>
+        <v>79900</v>
       </c>
     </row>
   </sheetData>
